--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33.99999999999982</v>
+        <v>33.99999999999983</v>
       </c>
       <c r="E7" t="n">
         <v>2281.879194630872</v>
@@ -693,7 +693,7 @@
         <v>29.8</v>
       </c>
       <c r="G7" t="n">
-        <v>67999.99999999999</v>
+        <v>68000</v>
       </c>
       <c r="H7" t="n">
         <v>200000</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49.99999999999976</v>
+        <v>49.99999999999975</v>
       </c>
       <c r="E5" t="n">
         <v>1745.810055865922</v>
@@ -1269,7 +1269,7 @@
         <v>75.25</v>
       </c>
       <c r="G7" t="n">
-        <v>30000.00000000001</v>
+        <v>30000</v>
       </c>
       <c r="H7" t="n">
         <v>200000</v>
@@ -1306,7 +1306,7 @@
         <v>29.8</v>
       </c>
       <c r="G8" t="n">
-        <v>40000.00000000001</v>
+        <v>40000</v>
       </c>
       <c r="H8" t="n">
         <v>200000</v>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,23 +499,23 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>531.5614617940199</v>
+        <v>132.1003963011889</v>
       </c>
       <c r="F2" t="n">
-        <v>75.25</v>
+        <v>75.7</v>
       </c>
       <c r="G2" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="H2" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>202506042150</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
@@ -536,23 +536,23 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>2281.879194630872</v>
+        <v>1000.333444481494</v>
       </c>
       <c r="F3" t="n">
-        <v>29.8</v>
+        <v>29.99</v>
       </c>
       <c r="G3" t="n">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="H3" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>202506042150</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
@@ -573,23 +573,23 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>3691.275167785235</v>
+        <v>1653.80374862183</v>
       </c>
       <c r="F4" t="n">
-        <v>17.88</v>
+        <v>18.14</v>
       </c>
       <c r="G4" t="n">
-        <v>66000</v>
+        <v>30000</v>
       </c>
       <c r="H4" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>202506042150</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
@@ -610,171 +610,23 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="H5" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>大智 (稳健智远)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000333</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>美的集团</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>531.5614617940199</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75.25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大智 (稳健智远)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>600900</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长江电力</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>33.99999999999983</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2281.879194630872</v>
-      </c>
-      <c r="F7" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>68000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>大智 (稳健智远)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>601899</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>紫金矿业</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>32.99999999999984</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3691.275167785235</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>66000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>大智 (稳健智远)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12.99999999999994</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26000</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>202506051600</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
@@ -784,6 +636,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>配置比例 (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>标的数量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>价值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>总价值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>修改时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1146.000458400183</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>202506061507</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>181.8843215714805</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>202506061507</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>202506061507</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -847,81 +876,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>大成 (锐进先锋)</t>
+          <t>范式进化投资组合</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>603119</t>
+          <t>000333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2252.252252252252</v>
+        <v>13.21003963011889</v>
       </c>
       <c r="F2" t="n">
-        <v>44.4</v>
+        <v>75.7</v>
       </c>
       <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
         <v>100000</v>
       </c>
-      <c r="H2" t="n">
-        <v>200000</v>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>202506042150</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>大成 (锐进先锋)</t>
+          <t>范式进化投资组合</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688290</t>
+          <t>600900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景业智能</t>
+          <t>长江电力</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>1745.810055865922</v>
+        <v>433.4778259419807</v>
       </c>
       <c r="F3" t="n">
-        <v>57.28</v>
+        <v>29.99</v>
       </c>
       <c r="G3" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H3" t="n">
         <v>100000</v>
       </c>
-      <c r="H3" t="n">
-        <v>200000</v>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>202506042150</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大成 (锐进先锋)</t>
+          <t>范式进化投资组合</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -935,496 +964,60 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49.99999999999975</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>2252.252252252252</v>
+        <v>297.9601191840476</v>
       </c>
       <c r="F4" t="n">
-        <v>44.4</v>
+        <v>43.63</v>
       </c>
       <c r="G4" t="n">
+        <v>13000</v>
+      </c>
+      <c r="H4" t="n">
         <v>100000</v>
       </c>
-      <c r="H4" t="n">
-        <v>200000</v>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>202506051600</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大成 (锐进先锋)</t>
+          <t>范式进化投资组合</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>688290</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景业智能</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49.99999999999975</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>1745.810055865922</v>
+        <v>73000</v>
       </c>
       <c r="F5" t="n">
-        <v>57.28</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>73000</v>
+      </c>
+      <c r="H5" t="n">
         <v>100000</v>
       </c>
-      <c r="H5" t="n">
-        <v>200000</v>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>配置比例 (%)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>标的数量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>价格</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>价值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>总价值</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>修改时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000333</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>美的集团</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>398.671096345515</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75.25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>600900</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长江电力</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1342.281879194631</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>601899</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>紫金矿业</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2237.136465324385</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>603119</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1126.126126126126</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>688290</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景业智能</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>698.3240223463687</v>
-      </c>
-      <c r="F6" t="n">
-        <v>57.28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>202506042150</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000333</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>美的集团</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>14.99999999999993</v>
-      </c>
-      <c r="E7" t="n">
-        <v>398.671096345515</v>
-      </c>
-      <c r="F7" t="n">
-        <v>75.25</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>600900</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长江电力</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1342.281879194631</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>601899</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>紫金矿业</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2237.136465324385</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>603119</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>24.99999999999988</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1126.126126126126</v>
-      </c>
-      <c r="F10" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>202506051600</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>范式进化投资组合</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>688290</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景业智能</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>698.3240223463687</v>
-      </c>
-      <c r="F11" t="n">
-        <v>57.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>202506051600</t>
+          <t>202506061507</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,23 +499,23 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E2" t="n">
-        <v>132.1003963011889</v>
+        <v>66.05019815059445</v>
       </c>
       <c r="F2" t="n">
         <v>75.7</v>
       </c>
       <c r="G2" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H2" t="n">
         <v>100000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -527,32 +527,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>600900</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E3" t="n">
-        <v>1000.333444481494</v>
+        <v>1811.594202898551</v>
       </c>
       <c r="F3" t="n">
-        <v>29.99</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="H3" t="n">
         <v>100000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -564,32 +564,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>601899</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E4" t="n">
-        <v>1653.80374862183</v>
+        <v>1253.1328320802</v>
       </c>
       <c r="F4" t="n">
-        <v>18.14</v>
+        <v>3.99</v>
       </c>
       <c r="G4" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="H4" t="n">
         <v>100000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,550 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>668.4491978609625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>134.2642320085929</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>19.9999999999998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>666.8889629876626</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>19.9999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1090.51254089422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E9" t="n">
+        <v>629.7229219143577</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D10" t="n">
+        <v>29.9999999999997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.05019815059445</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1811.594202898551</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1253.1328320802</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>668.4491978609625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>134.2642320085929</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>666.8889629876626</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1090.51254089422</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="G17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>629.7229219143577</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>30</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E19" t="n">
         <v>30000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G19" t="n">
         <v>30000</v>
       </c>
-      <c r="H5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>202506061507</t>
+      <c r="H19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506081239</t>
         </is>
       </c>
     </row>
@@ -641,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,32 +1222,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>603119</t>
+          <t>000725</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>京东方A</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E2" t="n">
-        <v>1146.000458400183</v>
+        <v>1269.035532994924</v>
       </c>
       <c r="F2" t="n">
-        <v>43.63</v>
+        <v>3.94</v>
       </c>
       <c r="G2" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="H2" t="n">
         <v>100000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -741,32 +1259,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688290</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景业智能</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E3" t="n">
-        <v>181.8843215714805</v>
+        <v>9259.259259259259</v>
       </c>
       <c r="F3" t="n">
-        <v>54.98</v>
+        <v>0.54</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H3" t="n">
         <v>100000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -778,32 +1296,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3184.713375796178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>44.99999999999955</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1031.400412560165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>8.999999999999909</v>
+      </c>
+      <c r="E7" t="n">
+        <v>163.6958894143325</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="D8" t="n">
+        <v>29.9999999999997</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>202506061507</t>
+      <c r="G8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1269.035532994924</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9259.259259259259</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3184.713375796178</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1031.400412560165</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G13" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>163.6958894143325</v>
+      </c>
+      <c r="F14" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506081239</t>
         </is>
       </c>
     </row>
@@ -818,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,7 +1815,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.99999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>13.21003963011889</v>
@@ -906,7 +1831,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -918,32 +1843,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>600900</t>
+          <t>000725</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>京东方A</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4778259419807</v>
+        <v>1269.035532994924</v>
       </c>
       <c r="F3" t="n">
-        <v>29.99</v>
+        <v>3.94</v>
       </c>
       <c r="G3" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="H3" t="n">
         <v>100000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -955,32 +1880,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>603119</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>4.999999999999949</v>
       </c>
       <c r="E4" t="n">
-        <v>297.9601191840476</v>
+        <v>9259.259259259259</v>
       </c>
       <c r="F4" t="n">
-        <v>43.63</v>
+        <v>0.54</v>
       </c>
       <c r="G4" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="H4" t="n">
         <v>100000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>202506061507</t>
+          <t>202506061600</t>
         </is>
       </c>
     </row>
@@ -992,32 +1917,920 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1811.594202898551</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.999999999999949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1253.1328320802</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9999999999999898</v>
+      </c>
+      <c r="E7" t="n">
+        <v>636.9426751592356</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G7" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>133.6898395721925</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.85284640171858</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9999999999999898</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.34444814938313</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="G11" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.92000916800367</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54.52562704471102</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.99999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>125.9445843828715</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>100000</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>73</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D15" t="n">
+        <v>70.99999999999929</v>
+      </c>
+      <c r="E15" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>73000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>202506061507</t>
+      <c r="G15" t="n">
+        <v>71000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.21003963011889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1269.035532994924</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9259.259259259259</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1811.594202898551</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1253.1328320802</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>636.9426751592356</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G21" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>133.6898395721925</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26.85284640171858</v>
+      </c>
+      <c r="F24" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33.34444814938313</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="G25" t="n">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22.92000916800367</v>
+      </c>
+      <c r="F26" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>54.52562704471102</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>125.9445843828715</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>202506081239</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>71</v>
+      </c>
+      <c r="E29" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>71000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>202506081239</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E2" t="n">
         <v>66.05019815059445</v>
@@ -511,7 +511,7 @@
         <v>5000</v>
       </c>
       <c r="H2" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E3" t="n">
         <v>1811.594202898551</v>
@@ -548,7 +548,7 @@
         <v>5000</v>
       </c>
       <c r="H3" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E4" t="n">
         <v>1253.1328320802</v>
@@ -585,7 +585,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E5" t="n">
         <v>668.4491978609625</v>
@@ -622,7 +622,7 @@
         <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E6" t="n">
         <v>134.2642320085929</v>
@@ -659,7 +659,7 @@
         <v>5000</v>
       </c>
       <c r="H6" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.9999999999998</v>
+        <v>9.99999999999995</v>
       </c>
       <c r="E7" t="n">
         <v>666.8889629876626</v>
@@ -696,7 +696,7 @@
         <v>20000</v>
       </c>
       <c r="H7" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.9999999999998</v>
+        <v>9.99999999999995</v>
       </c>
       <c r="E8" t="n">
         <v>1090.51254089422</v>
@@ -733,7 +733,7 @@
         <v>20000</v>
       </c>
       <c r="H8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E9" t="n">
         <v>629.7229219143577</v>
@@ -770,7 +770,7 @@
         <v>5000</v>
       </c>
       <c r="H9" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29.9999999999997</v>
+        <v>14.99999999999993</v>
       </c>
       <c r="E10" t="n">
         <v>30000</v>
@@ -807,7 +807,7 @@
         <v>30000</v>
       </c>
       <c r="H10" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E2" t="n">
         <v>1269.035532994924</v>
@@ -1243,7 +1243,7 @@
         <v>5000</v>
       </c>
       <c r="H2" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E3" t="n">
         <v>9259.259259259259</v>
@@ -1280,7 +1280,7 @@
         <v>5000</v>
       </c>
       <c r="H3" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E4" t="n">
         <v>3184.713375796178</v>
@@ -1317,7 +1317,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E5" t="n">
         <v>900.9009009009009</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44.99999999999955</v>
+        <v>22.49999999999989</v>
       </c>
       <c r="E6" t="n">
         <v>1031.400412560165</v>
@@ -1391,7 +1391,7 @@
         <v>45000</v>
       </c>
       <c r="H6" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.999999999999909</v>
+        <v>4.499999999999978</v>
       </c>
       <c r="E7" t="n">
         <v>163.6958894143325</v>
@@ -1428,7 +1428,7 @@
         <v>9000</v>
       </c>
       <c r="H7" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29.9999999999997</v>
+        <v>14.99999999999993</v>
       </c>
       <c r="E8" t="n">
         <v>30000</v>
@@ -1465,7 +1465,7 @@
         <v>30000</v>
       </c>
       <c r="H8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E2" t="n">
         <v>13.21003963011889</v>
@@ -1827,7 +1827,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E3" t="n">
         <v>1269.035532994924</v>
@@ -1864,7 +1864,7 @@
         <v>5000</v>
       </c>
       <c r="H3" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E4" t="n">
         <v>9259.259259259259</v>
@@ -1901,7 +1901,7 @@
         <v>5000</v>
       </c>
       <c r="H4" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E5" t="n">
         <v>1811.594202898551</v>
@@ -1938,7 +1938,7 @@
         <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.999999999999949</v>
+        <v>2.499999999999988</v>
       </c>
       <c r="E6" t="n">
         <v>1253.1328320802</v>
@@ -1975,7 +1975,7 @@
         <v>5000</v>
       </c>
       <c r="H6" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E7" t="n">
         <v>636.9426751592356</v>
@@ -2012,7 +2012,7 @@
         <v>999.9999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E8" t="n">
         <v>900.9009009009009</v>
@@ -2049,7 +2049,7 @@
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E9" t="n">
         <v>133.6898395721925</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E10" t="n">
         <v>26.85284640171858</v>
@@ -2123,7 +2123,7 @@
         <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999898</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E11" t="n">
         <v>33.34444814938313</v>
@@ -2160,7 +2160,7 @@
         <v>999.9999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E12" t="n">
         <v>22.92000916800367</v>
@@ -2197,7 +2197,7 @@
         <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E13" t="n">
         <v>54.52562704471102</v>
@@ -2234,7 +2234,7 @@
         <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.99999999999999</v>
+        <v>0.4999999999999975</v>
       </c>
       <c r="E14" t="n">
         <v>125.9445843828715</v>
@@ -2271,7 +2271,7 @@
         <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70.99999999999929</v>
+        <v>35.49999999999983</v>
       </c>
       <c r="E15" t="n">
         <v>71000</v>
@@ -2308,7 +2308,7 @@
         <v>71000</v>
       </c>
       <c r="H15" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,337 +815,308 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35.7574718922974</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2696.113380679224</v>
+      </c>
+      <c r="H11" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1123.38057528301</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4493.52230113204</v>
+      </c>
+      <c r="H12" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>47.68927886582159</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1797.408920452816</v>
+      </c>
+      <c r="H13" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>599.5359974825936</v>
+      </c>
+      <c r="F14" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17974.08920452816</v>
+      </c>
+      <c r="H14" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>276.1845298790436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4493.52230113204</v>
+      </c>
+      <c r="H15" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>996.3464082332682</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17974.08920452816</v>
+      </c>
+      <c r="H16" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>549.3303546616186</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4493.52230113204</v>
+      </c>
+      <c r="H17" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26961.13380679223</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26961.13380679223</v>
+      </c>
+      <c r="H18" t="n">
+        <v>80883.4014203767</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>配置比例 (%)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>标的数量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>价格</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>价值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>总价值</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>修改时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000725</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>京东方A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1269.035532994924</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159781</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>科创创业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9259.259259259259</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>纳指ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3184.713375796178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>纳指生物科技ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>900.9009009009009</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>603119</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1031.400412560165</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>688290</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景业智能</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>163.6958894143325</v>
-      </c>
-      <c r="F7" t="n">
-        <v>54.98</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,6 +1180,590 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1269.035532994924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9259.259259259259</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3184.713375796178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1031.400412560165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>163.6958894143325</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1243.91705951017</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H9" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9122.058436407913</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H10" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3137.523283860047</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H11" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>879.627063510763</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>985.1823111320547</v>
+      </c>
+      <c r="H12" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1051.546584462582</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>44333.20400094246</v>
+      </c>
+      <c r="H13" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>161.2702946560293</v>
+      </c>
+      <c r="F14" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8866.64080018849</v>
+      </c>
+      <c r="H14" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="H15" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>配置比例 (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>标的数量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>价值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>总价值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>修改时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>范式进化投资组合</t>
         </is>
       </c>
@@ -1721,6 +2276,487 @@
       <c r="I15" t="inlineStr">
         <is>
           <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.47147015532645</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H16" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1187.309153676281</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4701.744248558073</v>
+      </c>
+      <c r="H17" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8706.933793626062</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4701.744248558074</v>
+      </c>
+      <c r="H18" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1175.436062139518</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4701.744248558073</v>
+      </c>
+      <c r="H19" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>598.9483119182258</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G20" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H20" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>839.597187242513</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H21" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24.94955823060798</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="G22" t="n">
+        <v>940.3488497116148</v>
+      </c>
+      <c r="H22" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31.36587223854619</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="G23" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H23" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>288.9824369119897</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4701.744248558073</v>
+      </c>
+      <c r="H24" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22.30428960416544</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>940.3488497116148</v>
+      </c>
+      <c r="H25" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>52.12576772237332</v>
+      </c>
+      <c r="F26" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G26" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H26" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>114.9570720918844</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G27" t="n">
+        <v>940.3488497116147</v>
+      </c>
+      <c r="H27" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>202506091021</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>66</v>
+      </c>
+      <c r="E28" t="n">
+        <v>62063.02408096657</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>62063.02408096657</v>
+      </c>
+      <c r="H28" t="n">
+        <v>88392.79187289177</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>202506091021</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,337 +815,382 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39.71497483560155</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2994.509102604357</v>
+      </c>
+      <c r="H11" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1808.278443601665</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H12" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1247.712126085149</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H13" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>674.4389870730533</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H14" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>52.96734947562319</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1996.339401736238</v>
+      </c>
+      <c r="H15" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>665.8903941748626</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19963.39401736238</v>
+      </c>
+      <c r="H16" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>306.7515982999751</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H17" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1106.618293645365</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19963.39401736238</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>610.1281790147427</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H19" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="H20" t="n">
+        <v>99816.9700868119</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>组合名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>股票代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>配置比例 (%)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>标的数量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>价格</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>价值</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>总价值</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>修改时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000725</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>京东方A</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1269.035532994924</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159781</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>科创创业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9259.259259259259</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>513100</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>纳指ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3184.713375796178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513290</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>纳指生物科技ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>900.9009009009009</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>603119</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙江荣泰</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1031.400412560165</v>
-      </c>
-      <c r="F6" t="n">
-        <v>43.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>688290</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景业智能</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>163.6958894143325</v>
-      </c>
-      <c r="F7" t="n">
-        <v>54.98</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>大成 (锐进先锋)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>30</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100000</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>202506061600</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,6 +1254,590 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1269.035532994924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9259.259259259259</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3184.713375796178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>900.9009009009009</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1031.400412560165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.63</v>
+      </c>
+      <c r="G6" t="n">
+        <v>45000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>163.6958894143325</v>
+      </c>
+      <c r="F7" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1243.91705951017</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H9" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9122.058436407913</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H10" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3137.523283860047</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H11" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>879.627063510763</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>985.1823111320547</v>
+      </c>
+      <c r="H12" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1051.546584462582</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>44333.20400094246</v>
+      </c>
+      <c r="H13" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>161.2702946560293</v>
+      </c>
+      <c r="F14" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8866.64080018849</v>
+      </c>
+      <c r="H14" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="H15" t="n">
+        <v>98518.23111320547</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>组合名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>配置比例 (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>标的数量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>价格</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>价值</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>总价值</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>修改时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>范式进化投资组合</t>
         </is>
       </c>
@@ -1721,6 +2350,561 @@
       <c r="I15" t="inlineStr">
         <is>
           <t>202506061600</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.2658076636599</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1262.931689191865</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5001.209489199784</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9261.499054073673</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5001.209489199783</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1812.03242362311</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5001.209489199784</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1250.302372299946</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5001.209489199784</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>637.096750216533</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>893.0731230713899</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>135.1678240324266</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26.53865475829018</v>
+      </c>
+      <c r="F24" t="n">
+        <v>37.69</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>33.36363902067901</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>307.3884135955614</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5001.209489199784</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23.72490270018873</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42.16</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>55.44578147671601</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>122.2789606161316</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>66</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100024.1897839957</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>202506092206</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>39.71497483560155</v>
+        <v>40.00502976847048</v>
       </c>
       <c r="F11" t="n">
-        <v>75.40000000000001</v>
+        <v>75.05</v>
       </c>
       <c r="G11" t="n">
-        <v>2994.509102604357</v>
+        <v>3002.377484123709</v>
       </c>
       <c r="H11" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1808.278443601665</v>
+        <v>1826.263676474276</v>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>4990.848504340595</v>
+        <v>5003.962473539516</v>
       </c>
       <c r="H12" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -909,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>1247.712126085149</v>
+        <v>1260.44394799484</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="G13" t="n">
-        <v>4990.848504340595</v>
+        <v>5003.962473539516</v>
       </c>
       <c r="H13" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -946,16 +946,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>674.4389870730533</v>
+        <v>675.2985794250359</v>
       </c>
       <c r="F14" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="G14" t="n">
-        <v>4990.848504340595</v>
+        <v>5003.962473539516</v>
       </c>
       <c r="H14" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -983,16 +983,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>52.96734947562319</v>
+        <v>53.02211892492203</v>
       </c>
       <c r="F15" t="n">
-        <v>37.69</v>
+        <v>37.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1996.339401736238</v>
+        <v>2001.584989415806</v>
       </c>
       <c r="H15" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>665.8903941748626</v>
+        <v>666.5284680039316</v>
       </c>
       <c r="F16" t="n">
-        <v>29.98</v>
+        <v>30.03</v>
       </c>
       <c r="G16" t="n">
-        <v>19963.39401736238</v>
+        <v>20015.84989415807</v>
       </c>
       <c r="H16" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>306.7515982999751</v>
+        <v>310.9982892193609</v>
       </c>
       <c r="F17" t="n">
-        <v>16.27</v>
+        <v>16.09</v>
       </c>
       <c r="G17" t="n">
-        <v>4990.848504340595</v>
+        <v>5003.962473539516</v>
       </c>
       <c r="H17" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1094,16 +1094,16 @@
         <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>1106.618293645365</v>
+        <v>1087.81792903033</v>
       </c>
       <c r="F18" t="n">
-        <v>18.04</v>
+        <v>18.4</v>
       </c>
       <c r="G18" t="n">
-        <v>19963.39401736238</v>
+        <v>20015.84989415807</v>
       </c>
       <c r="H18" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1131,16 +1131,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>610.1281790147427</v>
+        <v>616.2515361501868</v>
       </c>
       <c r="F19" t="n">
-        <v>8.18</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>4990.848504340595</v>
+        <v>5003.962473539516</v>
       </c>
       <c r="H19" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1168,20 +1168,390 @@
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>29945.09102604357</v>
+        <v>30023.7748412371</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>29945.09102604357</v>
+        <v>30023.7748412371</v>
       </c>
       <c r="H20" t="n">
-        <v>99816.9700868119</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.499999999999992</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40.00502976847048</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3002.377484123709</v>
+      </c>
+      <c r="H21" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2.499999999999988</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1826.263676474276</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5003.962473539516</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.499999999999988</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1260.44394799484</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5003.962473539516</v>
+      </c>
+      <c r="H23" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2.499999999999988</v>
+      </c>
+      <c r="E24" t="n">
+        <v>675.2985794250359</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5003.962473539516</v>
+      </c>
+      <c r="H24" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="E25" t="n">
+        <v>53.02211892492203</v>
+      </c>
+      <c r="F25" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2001.584989415806</v>
+      </c>
+      <c r="H25" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9.99999999999995</v>
+      </c>
+      <c r="E26" t="n">
+        <v>666.5284680039316</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20015.84989415807</v>
+      </c>
+      <c r="H26" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2.499999999999988</v>
+      </c>
+      <c r="E27" t="n">
+        <v>310.9982892193609</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5003.962473539516</v>
+      </c>
+      <c r="H27" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9.99999999999995</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1087.81792903033</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>20015.84989415807</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2.499999999999988</v>
+      </c>
+      <c r="E29" t="n">
+        <v>616.2515361501868</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5003.962473539516</v>
+      </c>
+      <c r="H29" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>14.99999999999993</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30023.7748412371</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30023.7748412371</v>
+      </c>
+      <c r="H30" t="n">
+        <v>200158.4989415806</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>202506101600</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,16 +1900,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1243.91705951017</v>
+        <v>1222.947139927285</v>
       </c>
       <c r="F9" t="n">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="G9" t="n">
-        <v>4925.911555660274</v>
+        <v>4769.493845716412</v>
       </c>
       <c r="H9" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1567,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>9122.058436407913</v>
+        <v>8999.044991917757</v>
       </c>
       <c r="F10" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="G10" t="n">
-        <v>4925.911555660274</v>
+        <v>4769.493845716412</v>
       </c>
       <c r="H10" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1604,16 +1974,16 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>3137.523283860047</v>
+        <v>3037.894169246122</v>
       </c>
       <c r="F11" t="n">
         <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>4925.911555660274</v>
+        <v>4769.493845716412</v>
       </c>
       <c r="H11" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1641,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>879.627063510763</v>
+        <v>851.6953295922162</v>
       </c>
       <c r="F12" t="n">
         <v>1.12</v>
       </c>
       <c r="G12" t="n">
-        <v>985.1823111320547</v>
+        <v>953.8987691432823</v>
       </c>
       <c r="H12" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1678,16 +2048,16 @@
         <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>1051.546584462582</v>
+        <v>1080.701022443296</v>
       </c>
       <c r="F13" t="n">
-        <v>42.16</v>
+        <v>39.72</v>
       </c>
       <c r="G13" t="n">
-        <v>44333.20400094246</v>
+        <v>42925.4446114477</v>
       </c>
       <c r="H13" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1715,16 +2085,16 @@
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>161.2702946560293</v>
+        <v>163.4632315744391</v>
       </c>
       <c r="F14" t="n">
-        <v>54.98</v>
+        <v>52.52</v>
       </c>
       <c r="G14" t="n">
-        <v>8866.64080018849</v>
+        <v>8585.08892228954</v>
       </c>
       <c r="H14" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1752,20 +2122,279 @@
         <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>29555.46933396164</v>
+        <v>28616.96307429847</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>29555.46933396164</v>
+        <v>28616.96307429847</v>
       </c>
       <c r="H15" t="n">
-        <v>98518.23111320547</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1222.947139927285</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4769.493845716412</v>
+      </c>
+      <c r="H16" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8999.044991917757</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4769.493845716412</v>
+      </c>
+      <c r="H17" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3037.894169246122</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4769.493845716412</v>
+      </c>
+      <c r="H18" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E19" t="n">
+        <v>851.6953295922162</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>953.8987691432823</v>
+      </c>
+      <c r="H19" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>22.49999999999988</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1080.701022443296</v>
+      </c>
+      <c r="F20" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="G20" t="n">
+        <v>42925.4446114477</v>
+      </c>
+      <c r="H20" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.499999999999977</v>
+      </c>
+      <c r="E21" t="n">
+        <v>163.4632315744391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>52.52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8585.08892228954</v>
+      </c>
+      <c r="H21" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>14.99999999999992</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28616.96307429847</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>28616.96307429847</v>
+      </c>
+      <c r="H22" t="n">
+        <v>190779.7538286565</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>202506101600</t>
         </is>
       </c>
     </row>
@@ -1780,7 +2409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,16 +3002,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>13.2658076636599</v>
+        <v>13.28200178359967</v>
       </c>
       <c r="F16" t="n">
-        <v>75.40000000000001</v>
+        <v>75.05</v>
       </c>
       <c r="G16" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H16" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2410,16 +3039,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1262.931689191865</v>
+        <v>1277.966966486097</v>
       </c>
       <c r="F17" t="n">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>5001.209489199784</v>
+        <v>4984.071169295778</v>
       </c>
       <c r="H17" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2447,16 +3076,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>9261.499054073673</v>
+        <v>9403.907866595806</v>
       </c>
       <c r="F18" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="G18" t="n">
-        <v>5001.209489199783</v>
+        <v>4984.071169295778</v>
       </c>
       <c r="H18" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2484,16 +3113,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1812.03242362311</v>
+        <v>1819.00407638532</v>
       </c>
       <c r="F19" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G19" t="n">
-        <v>5001.209489199784</v>
+        <v>4984.071169295778</v>
       </c>
       <c r="H19" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2521,16 +3150,16 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1250.302372299946</v>
+        <v>1255.433543903218</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="G20" t="n">
-        <v>5001.209489199784</v>
+        <v>4984.071169295778</v>
       </c>
       <c r="H20" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2558,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>637.096750216533</v>
+        <v>634.9135247510544</v>
       </c>
       <c r="F21" t="n">
         <v>1.57</v>
       </c>
       <c r="G21" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H21" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2595,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>893.0731230713899</v>
+        <v>890.0127088028173</v>
       </c>
       <c r="F22" t="n">
         <v>1.12</v>
       </c>
       <c r="G22" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H22" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2632,16 +3261,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>135.1678240324266</v>
+        <v>134.5228385774839</v>
       </c>
       <c r="F23" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="G23" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H23" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2669,16 +3298,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>26.53865475829018</v>
+        <v>26.4056750691167</v>
       </c>
       <c r="F24" t="n">
-        <v>37.69</v>
+        <v>37.75</v>
       </c>
       <c r="G24" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H24" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2706,16 +3335,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>33.36363902067901</v>
+        <v>33.19394718145706</v>
       </c>
       <c r="F25" t="n">
-        <v>29.98</v>
+        <v>30.03</v>
       </c>
       <c r="G25" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591554</v>
       </c>
       <c r="H25" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2743,16 +3372,16 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>307.3884135955614</v>
+        <v>309.7620366249706</v>
       </c>
       <c r="F26" t="n">
-        <v>16.27</v>
+        <v>16.09</v>
       </c>
       <c r="G26" t="n">
-        <v>5001.209489199784</v>
+        <v>4984.071169295778</v>
       </c>
       <c r="H26" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2780,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>23.72490270018873</v>
+        <v>25.09602804277834</v>
       </c>
       <c r="F27" t="n">
-        <v>42.16</v>
+        <v>39.72</v>
       </c>
       <c r="G27" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H27" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2817,16 +3446,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>55.44578147671601</v>
+        <v>54.17468662278019</v>
       </c>
       <c r="F28" t="n">
-        <v>18.04</v>
+        <v>18.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H28" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2854,16 +3483,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>122.2789606161316</v>
+        <v>122.7603736279748</v>
       </c>
       <c r="F29" t="n">
-        <v>8.18</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>1000.241897839957</v>
+        <v>996.8142338591555</v>
       </c>
       <c r="H29" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -2891,20 +3520,575 @@
         <v>66</v>
       </c>
       <c r="E30" t="n">
-        <v>66015.96525743716</v>
+        <v>65789.73943470427</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>66015.96525743716</v>
+        <v>65789.73943470427</v>
       </c>
       <c r="H30" t="n">
-        <v>100024.1897839957</v>
+        <v>99681.42338591556</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>202506092206</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13.28200178359967</v>
+      </c>
+      <c r="F31" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H31" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1277.966966486097</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4984.071169295778</v>
+      </c>
+      <c r="H32" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9403.907866595806</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4984.071169295778</v>
+      </c>
+      <c r="H33" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1819.00407638532</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4984.071169295778</v>
+      </c>
+      <c r="H34" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1255.433543903218</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4984.071169295778</v>
+      </c>
+      <c r="H35" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E36" t="n">
+        <v>634.9135247510544</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G36" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H36" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E37" t="n">
+        <v>890.0127088028173</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H37" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E38" t="n">
+        <v>134.5228385774839</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G38" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H38" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E39" t="n">
+        <v>26.4056750691167</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="G39" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H39" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E40" t="n">
+        <v>33.19394718145706</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="G40" t="n">
+        <v>996.8142338591554</v>
+      </c>
+      <c r="H40" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2.499999999999987</v>
+      </c>
+      <c r="E41" t="n">
+        <v>309.7620366249706</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4984.071169295778</v>
+      </c>
+      <c r="H41" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E42" t="n">
+        <v>25.09602804277834</v>
+      </c>
+      <c r="F42" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="G42" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H42" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E43" t="n">
+        <v>54.17468662278019</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H43" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4999999999999974</v>
+      </c>
+      <c r="E44" t="n">
+        <v>122.7603736279748</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="G44" t="n">
+        <v>996.8142338591555</v>
+      </c>
+      <c r="H44" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>32.99999999999984</v>
+      </c>
+      <c r="E45" t="n">
+        <v>65789.73943470427</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>65789.73943470427</v>
+      </c>
+      <c r="H45" t="n">
+        <v>199362.8467718311</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>202506101600</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -835,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>40.00502976847048</v>
+        <v>39.71497483560155</v>
       </c>
       <c r="F11" t="n">
-        <v>75.05</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>3002.377484123709</v>
+        <v>2994.509102604357</v>
       </c>
       <c r="H11" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>1826.263676474276</v>
+        <v>1808.278443601665</v>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>5003.962473539516</v>
+        <v>4990.848504340595</v>
       </c>
       <c r="H12" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -909,16 +909,16 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>1260.44394799484</v>
+        <v>1247.712126085149</v>
       </c>
       <c r="F13" t="n">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>5003.962473539516</v>
+        <v>4990.848504340595</v>
       </c>
       <c r="H13" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -946,16 +946,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>675.2985794250359</v>
+        <v>674.4389870730533</v>
       </c>
       <c r="F14" t="n">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
       <c r="G14" t="n">
-        <v>5003.962473539516</v>
+        <v>4990.848504340595</v>
       </c>
       <c r="H14" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -983,16 +983,16 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>53.02211892492203</v>
+        <v>52.96734947562319</v>
       </c>
       <c r="F15" t="n">
-        <v>37.75</v>
+        <v>37.69</v>
       </c>
       <c r="G15" t="n">
-        <v>2001.584989415806</v>
+        <v>1996.339401736238</v>
       </c>
       <c r="H15" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>666.5284680039316</v>
+        <v>665.8903941748626</v>
       </c>
       <c r="F16" t="n">
-        <v>30.03</v>
+        <v>29.98</v>
       </c>
       <c r="G16" t="n">
-        <v>20015.84989415807</v>
+        <v>19963.39401736238</v>
       </c>
       <c r="H16" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>310.9982892193609</v>
+        <v>306.7515982999751</v>
       </c>
       <c r="F17" t="n">
-        <v>16.09</v>
+        <v>16.27</v>
       </c>
       <c r="G17" t="n">
-        <v>5003.962473539516</v>
+        <v>4990.848504340595</v>
       </c>
       <c r="H17" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1094,16 +1094,16 @@
         <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>1087.81792903033</v>
+        <v>1106.618293645365</v>
       </c>
       <c r="F18" t="n">
-        <v>18.4</v>
+        <v>18.04</v>
       </c>
       <c r="G18" t="n">
-        <v>20015.84989415807</v>
+        <v>19963.39401736238</v>
       </c>
       <c r="H18" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1131,16 +1131,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>616.2515361501868</v>
+        <v>610.1281790147427</v>
       </c>
       <c r="F19" t="n">
-        <v>8.119999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="G19" t="n">
-        <v>5003.962473539516</v>
+        <v>4990.848504340595</v>
       </c>
       <c r="H19" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1168,16 +1168,16 @@
         <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>30023.7748412371</v>
+        <v>29945.09102604357</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>30023.7748412371</v>
+        <v>29945.09102604357</v>
       </c>
       <c r="H20" t="n">
-        <v>100079.2494707903</v>
+        <v>99816.9700868119</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1202,19 +1202,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.499999999999992</v>
+        <v>2.98</v>
       </c>
       <c r="E21" t="n">
-        <v>40.00502976847048</v>
+        <v>39.71497483560155</v>
       </c>
       <c r="F21" t="n">
         <v>75.05</v>
       </c>
       <c r="G21" t="n">
-        <v>3002.377484123709</v>
+        <v>2980.608861411896</v>
       </c>
       <c r="H21" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1239,19 +1239,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.499999999999988</v>
+        <v>4.95</v>
       </c>
       <c r="E22" t="n">
-        <v>1826.263676474276</v>
+        <v>1808.278443601665</v>
       </c>
       <c r="F22" t="n">
         <v>2.74</v>
       </c>
       <c r="G22" t="n">
-        <v>5003.962473539516</v>
+        <v>4954.682935468562</v>
       </c>
       <c r="H22" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1276,19 +1276,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.499999999999988</v>
+        <v>4.95</v>
       </c>
       <c r="E23" t="n">
-        <v>1260.44394799484</v>
+        <v>1247.712126085149</v>
       </c>
       <c r="F23" t="n">
         <v>3.97</v>
       </c>
       <c r="G23" t="n">
-        <v>5003.962473539516</v>
+        <v>4953.417140558042</v>
       </c>
       <c r="H23" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2.499999999999988</v>
+        <v>4.99</v>
       </c>
       <c r="E24" t="n">
-        <v>675.2985794250359</v>
+        <v>674.4389870730533</v>
       </c>
       <c r="F24" t="n">
         <v>7.41</v>
       </c>
       <c r="G24" t="n">
-        <v>5003.962473539516</v>
+        <v>4997.592894211325</v>
       </c>
       <c r="H24" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1350,19 +1350,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.999999999999995</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>53.02211892492203</v>
+        <v>52.96734947562319</v>
       </c>
       <c r="F25" t="n">
         <v>37.75</v>
       </c>
       <c r="G25" t="n">
-        <v>2001.584989415806</v>
+        <v>1999.517442704775</v>
       </c>
       <c r="H25" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1387,19 +1387,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9.99999999999995</v>
+        <v>19.98</v>
       </c>
       <c r="E26" t="n">
-        <v>666.5284680039316</v>
+        <v>665.8903941748626</v>
       </c>
       <c r="F26" t="n">
         <v>30.03</v>
       </c>
       <c r="G26" t="n">
-        <v>20015.84989415807</v>
+        <v>19996.68853707112</v>
       </c>
       <c r="H26" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1424,19 +1424,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2.499999999999988</v>
+        <v>4.93</v>
       </c>
       <c r="E27" t="n">
-        <v>310.9982892193609</v>
+        <v>306.7515982999751</v>
       </c>
       <c r="F27" t="n">
         <v>16.09</v>
       </c>
       <c r="G27" t="n">
-        <v>5003.962473539516</v>
+        <v>4935.6332166466</v>
       </c>
       <c r="H27" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1461,19 +1461,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9.99999999999995</v>
+        <v>20.35</v>
       </c>
       <c r="E28" t="n">
-        <v>1087.81792903033</v>
+        <v>1106.618293645365</v>
       </c>
       <c r="F28" t="n">
         <v>18.4</v>
       </c>
       <c r="G28" t="n">
-        <v>20015.84989415807</v>
+        <v>20361.77660307471</v>
       </c>
       <c r="H28" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1498,19 +1498,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.499999999999988</v>
+        <v>4.95</v>
       </c>
       <c r="E29" t="n">
-        <v>616.2515361501868</v>
+        <v>610.1281790147427</v>
       </c>
       <c r="F29" t="n">
         <v>8.119999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>5003.962473539516</v>
+        <v>4954.24081359971</v>
       </c>
       <c r="H29" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14.99999999999993</v>
+        <v>29.92</v>
       </c>
       <c r="E30" t="n">
-        <v>30023.7748412371</v>
+        <v>29945.09102604357</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>30023.7748412371</v>
+        <v>29945.09102604357</v>
       </c>
       <c r="H30" t="n">
-        <v>200158.4989415806</v>
+        <v>100079.2494707903</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1900,16 +1900,16 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1222.947139927285</v>
+        <v>1243.91705951017</v>
       </c>
       <c r="F9" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="G9" t="n">
-        <v>4769.493845716412</v>
+        <v>4925.911555660274</v>
       </c>
       <c r="H9" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1937,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>8999.044991917757</v>
+        <v>9122.058436407913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="G10" t="n">
-        <v>4769.493845716412</v>
+        <v>4925.911555660274</v>
       </c>
       <c r="H10" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>3037.894169246122</v>
+        <v>3137.523283860047</v>
       </c>
       <c r="F11" t="n">
         <v>1.57</v>
       </c>
       <c r="G11" t="n">
-        <v>4769.493845716412</v>
+        <v>4925.911555660274</v>
       </c>
       <c r="H11" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -2011,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>851.6953295922162</v>
+        <v>879.627063510763</v>
       </c>
       <c r="F12" t="n">
         <v>1.12</v>
       </c>
       <c r="G12" t="n">
-        <v>953.8987691432823</v>
+        <v>985.1823111320547</v>
       </c>
       <c r="H12" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2048,16 +2048,16 @@
         <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>1080.701022443296</v>
+        <v>1051.546584462582</v>
       </c>
       <c r="F13" t="n">
-        <v>39.72</v>
+        <v>42.16</v>
       </c>
       <c r="G13" t="n">
-        <v>42925.4446114477</v>
+        <v>44333.20400094246</v>
       </c>
       <c r="H13" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>163.4632315744391</v>
+        <v>161.2702946560293</v>
       </c>
       <c r="F14" t="n">
-        <v>52.52</v>
+        <v>54.98</v>
       </c>
       <c r="G14" t="n">
-        <v>8585.08892228954</v>
+        <v>8866.64080018849</v>
       </c>
       <c r="H14" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2122,16 +2122,16 @@
         <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>28616.96307429847</v>
+        <v>29555.46933396164</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>28616.96307429847</v>
+        <v>29555.46933396164</v>
       </c>
       <c r="H15" t="n">
-        <v>95389.87691432823</v>
+        <v>98518.23111320547</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.499999999999987</v>
+        <v>5.09</v>
       </c>
       <c r="E16" t="n">
-        <v>1222.947139927285</v>
+        <v>1243.91705951017</v>
       </c>
       <c r="F16" t="n">
         <v>3.9</v>
       </c>
       <c r="G16" t="n">
-        <v>4769.493845716412</v>
+        <v>4851.276532089663</v>
       </c>
       <c r="H16" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2193,19 +2193,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.499999999999987</v>
+        <v>5.07</v>
       </c>
       <c r="E17" t="n">
-        <v>8999.044991917757</v>
+        <v>9122.058436407913</v>
       </c>
       <c r="F17" t="n">
         <v>0.53</v>
       </c>
       <c r="G17" t="n">
-        <v>4769.493845716412</v>
+        <v>4834.690971296194</v>
       </c>
       <c r="H17" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2230,19 +2230,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.499999999999987</v>
+        <v>5.16</v>
       </c>
       <c r="E18" t="n">
-        <v>3037.894169246122</v>
+        <v>3137.523283860047</v>
       </c>
       <c r="F18" t="n">
         <v>1.57</v>
       </c>
       <c r="G18" t="n">
-        <v>4769.493845716412</v>
+        <v>4925.911555660274</v>
       </c>
       <c r="H18" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4999999999999974</v>
+        <v>1.03</v>
       </c>
       <c r="E19" t="n">
-        <v>851.6953295922162</v>
+        <v>879.627063510763</v>
       </c>
       <c r="F19" t="n">
         <v>1.12</v>
       </c>
       <c r="G19" t="n">
-        <v>953.8987691432823</v>
+        <v>985.1823111320547</v>
       </c>
       <c r="H19" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2304,19 +2304,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22.49999999999988</v>
+        <v>43.79</v>
       </c>
       <c r="E20" t="n">
-        <v>1080.701022443296</v>
+        <v>1051.546584462582</v>
       </c>
       <c r="F20" t="n">
         <v>39.72</v>
       </c>
       <c r="G20" t="n">
-        <v>42925.4446114477</v>
+        <v>41767.43033485375</v>
       </c>
       <c r="H20" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2341,19 +2341,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.499999999999977</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>163.4632315744391</v>
+        <v>161.2702946560293</v>
       </c>
       <c r="F21" t="n">
         <v>52.52</v>
       </c>
       <c r="G21" t="n">
-        <v>8585.08892228954</v>
+        <v>8469.91587533466</v>
       </c>
       <c r="H21" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2378,19 +2378,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14.99999999999992</v>
+        <v>30.98</v>
       </c>
       <c r="E22" t="n">
-        <v>28616.96307429847</v>
+        <v>29555.46933396164</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>28616.96307429847</v>
+        <v>29555.46933396164</v>
       </c>
       <c r="H22" t="n">
-        <v>190779.7538286565</v>
+        <v>95389.87691432823</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3002,16 +3002,16 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>13.28200178359967</v>
+        <v>13.2658076636599</v>
       </c>
       <c r="F16" t="n">
-        <v>75.05</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H16" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -3039,16 +3039,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1277.966966486097</v>
+        <v>1262.931689191865</v>
       </c>
       <c r="F17" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="G17" t="n">
-        <v>4984.071169295778</v>
+        <v>5001.209489199784</v>
       </c>
       <c r="H17" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -3076,16 +3076,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>9403.907866595806</v>
+        <v>9261.499054073673</v>
       </c>
       <c r="F18" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="G18" t="n">
-        <v>4984.071169295778</v>
+        <v>5001.209489199783</v>
       </c>
       <c r="H18" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -3113,16 +3113,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1819.00407638532</v>
+        <v>1812.03242362311</v>
       </c>
       <c r="F19" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>4984.071169295778</v>
+        <v>5001.209489199784</v>
       </c>
       <c r="H19" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -3150,16 +3150,16 @@
         <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1255.433543903218</v>
+        <v>1250.302372299946</v>
       </c>
       <c r="F20" t="n">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4984.071169295778</v>
+        <v>5001.209489199784</v>
       </c>
       <c r="H20" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -3187,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>634.9135247510544</v>
+        <v>637.096750216533</v>
       </c>
       <c r="F21" t="n">
         <v>1.57</v>
       </c>
       <c r="G21" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H21" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -3224,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>890.0127088028173</v>
+        <v>893.0731230713899</v>
       </c>
       <c r="F22" t="n">
         <v>1.12</v>
       </c>
       <c r="G22" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H22" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -3261,16 +3261,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>134.5228385774839</v>
+        <v>135.1678240324266</v>
       </c>
       <c r="F23" t="n">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
       <c r="G23" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H23" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -3298,16 +3298,16 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>26.4056750691167</v>
+        <v>26.53865475829018</v>
       </c>
       <c r="F24" t="n">
-        <v>37.75</v>
+        <v>37.69</v>
       </c>
       <c r="G24" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H24" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -3335,16 +3335,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>33.19394718145706</v>
+        <v>33.36363902067901</v>
       </c>
       <c r="F25" t="n">
-        <v>30.03</v>
+        <v>29.98</v>
       </c>
       <c r="G25" t="n">
-        <v>996.8142338591554</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H25" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -3372,16 +3372,16 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>309.7620366249706</v>
+        <v>307.3884135955614</v>
       </c>
       <c r="F26" t="n">
-        <v>16.09</v>
+        <v>16.27</v>
       </c>
       <c r="G26" t="n">
-        <v>4984.071169295778</v>
+        <v>5001.209489199784</v>
       </c>
       <c r="H26" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -3409,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>25.09602804277834</v>
+        <v>23.72490270018873</v>
       </c>
       <c r="F27" t="n">
-        <v>39.72</v>
+        <v>42.16</v>
       </c>
       <c r="G27" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H27" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -3446,16 +3446,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>54.17468662278019</v>
+        <v>55.44578147671601</v>
       </c>
       <c r="F28" t="n">
-        <v>18.4</v>
+        <v>18.04</v>
       </c>
       <c r="G28" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H28" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -3483,16 +3483,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>122.7603736279748</v>
+        <v>122.2789606161316</v>
       </c>
       <c r="F29" t="n">
-        <v>8.119999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="G29" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H29" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3520,16 +3520,16 @@
         <v>66</v>
       </c>
       <c r="E30" t="n">
-        <v>65789.73943470427</v>
+        <v>66015.96525743716</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>65789.73943470427</v>
+        <v>66015.96525743716</v>
       </c>
       <c r="H30" t="n">
-        <v>99681.42338591556</v>
+        <v>100024.1897839957</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3554,19 +3554,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.4999999999999974</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>13.28200178359967</v>
+        <v>13.2658076636599</v>
       </c>
       <c r="F31" t="n">
         <v>75.05</v>
       </c>
       <c r="G31" t="n">
-        <v>996.8142338591555</v>
+        <v>995.5988651576754</v>
       </c>
       <c r="H31" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3591,19 +3591,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.499999999999987</v>
+        <v>4.94</v>
       </c>
       <c r="E32" t="n">
-        <v>1277.966966486097</v>
+        <v>1262.931689191865</v>
       </c>
       <c r="F32" t="n">
         <v>3.9</v>
       </c>
       <c r="G32" t="n">
-        <v>4984.071169295778</v>
+        <v>4925.433587848273</v>
       </c>
       <c r="H32" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3628,19 +3628,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2.499999999999987</v>
+        <v>4.92</v>
       </c>
       <c r="E33" t="n">
-        <v>9403.907866595806</v>
+        <v>9261.499054073673</v>
       </c>
       <c r="F33" t="n">
         <v>0.53</v>
       </c>
       <c r="G33" t="n">
-        <v>4984.071169295778</v>
+        <v>4908.594498659047</v>
       </c>
       <c r="H33" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3665,19 +3665,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.499999999999987</v>
+        <v>4.98</v>
       </c>
       <c r="E34" t="n">
-        <v>1819.00407638532</v>
+        <v>1812.03242362311</v>
       </c>
       <c r="F34" t="n">
         <v>2.74</v>
       </c>
       <c r="G34" t="n">
-        <v>4984.071169295778</v>
+        <v>4964.968840727322</v>
       </c>
       <c r="H34" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3702,19 +3702,19 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2.499999999999987</v>
+        <v>4.98</v>
       </c>
       <c r="E35" t="n">
-        <v>1255.433543903218</v>
+        <v>1250.302372299946</v>
       </c>
       <c r="F35" t="n">
         <v>3.97</v>
       </c>
       <c r="G35" t="n">
-        <v>4984.071169295778</v>
+        <v>4963.700418030786</v>
       </c>
       <c r="H35" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4999999999999974</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>634.9135247510544</v>
+        <v>637.096750216533</v>
       </c>
       <c r="F36" t="n">
         <v>1.57</v>
       </c>
       <c r="G36" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H36" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3776,19 +3776,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4999999999999974</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>890.0127088028173</v>
+        <v>893.0731230713899</v>
       </c>
       <c r="F37" t="n">
         <v>1.12</v>
       </c>
       <c r="G37" t="n">
-        <v>996.8142338591555</v>
+        <v>1000.241897839957</v>
       </c>
       <c r="H37" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3813,19 +3813,19 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4999999999999974</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>134.5228385774839</v>
+        <v>135.1678240324266</v>
       </c>
       <c r="F38" t="n">
         <v>7.41</v>
       </c>
       <c r="G38" t="n">
-        <v>996.8142338591555</v>
+        <v>1001.593576080281</v>
       </c>
       <c r="H38" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3850,19 +3850,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4999999999999974</v>
+        <v>1.01</v>
       </c>
       <c r="E39" t="n">
-        <v>26.4056750691167</v>
+        <v>26.53865475829018</v>
       </c>
       <c r="F39" t="n">
         <v>37.75</v>
       </c>
       <c r="G39" t="n">
-        <v>996.8142338591555</v>
+        <v>1001.834217125454</v>
       </c>
       <c r="H39" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3887,19 +3887,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4999999999999974</v>
+        <v>1.01</v>
       </c>
       <c r="E40" t="n">
-        <v>33.19394718145706</v>
+        <v>33.36363902067901</v>
       </c>
       <c r="F40" t="n">
         <v>30.03</v>
       </c>
       <c r="G40" t="n">
-        <v>996.8142338591554</v>
+        <v>1001.910079790991</v>
       </c>
       <c r="H40" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3924,19 +3924,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.499999999999987</v>
+        <v>4.96</v>
       </c>
       <c r="E41" t="n">
-        <v>309.7620366249706</v>
+        <v>307.3884135955614</v>
       </c>
       <c r="F41" t="n">
         <v>16.09</v>
       </c>
       <c r="G41" t="n">
-        <v>4984.071169295778</v>
+        <v>4945.879574752583</v>
       </c>
       <c r="H41" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3961,19 +3961,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4999999999999974</v>
+        <v>0.95</v>
       </c>
       <c r="E42" t="n">
-        <v>25.09602804277834</v>
+        <v>23.72490270018873</v>
       </c>
       <c r="F42" t="n">
         <v>39.72</v>
       </c>
       <c r="G42" t="n">
-        <v>996.8142338591555</v>
+        <v>942.3531352514963</v>
       </c>
       <c r="H42" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -3998,19 +3998,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4999999999999974</v>
+        <v>1.02</v>
       </c>
       <c r="E43" t="n">
-        <v>54.17468662278019</v>
+        <v>55.44578147671601</v>
       </c>
       <c r="F43" t="n">
         <v>18.4</v>
       </c>
       <c r="G43" t="n">
-        <v>996.8142338591555</v>
+        <v>1020.202379171574</v>
       </c>
       <c r="H43" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4035,19 +4035,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.4999999999999974</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>122.7603736279748</v>
+        <v>122.2789606161316</v>
       </c>
       <c r="F44" t="n">
         <v>8.119999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>996.8142338591555</v>
+        <v>992.9051602029884</v>
       </c>
       <c r="H44" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>32.99999999999984</v>
+        <v>66.23</v>
       </c>
       <c r="E45" t="n">
-        <v>65789.73943470427</v>
+        <v>66015.96525743716</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>65789.73943470427</v>
+        <v>66015.96525743716</v>
       </c>
       <c r="H45" t="n">
-        <v>199362.8467718311</v>
+        <v>99681.42338591555</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,6 +1552,376 @@
       <c r="I30" t="inlineStr">
         <is>
           <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39.71497483560155</v>
+      </c>
+      <c r="F31" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2998.083450339561</v>
+      </c>
+      <c r="H31" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1808.278443601665</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H32" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1247.712126085149</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4990.848504340596</v>
+      </c>
+      <c r="H33" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E34" t="n">
+        <v>674.4389870730533</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5011.081673952786</v>
+      </c>
+      <c r="H34" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E35" t="n">
+        <v>52.96734947562319</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1991.572340283432</v>
+      </c>
+      <c r="H35" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E36" t="n">
+        <v>665.8903941748626</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20096.57209619735</v>
+      </c>
+      <c r="H36" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E37" t="n">
+        <v>306.7515982999751</v>
+      </c>
+      <c r="F37" t="n">
+        <v>16</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4908.025572799602</v>
+      </c>
+      <c r="H37" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1106.618293645365</v>
+      </c>
+      <c r="F38" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="G38" t="n">
+        <v>21092.14467688065</v>
+      </c>
+      <c r="H38" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E39" t="n">
+        <v>610.1281790147427</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5149.481830884429</v>
+      </c>
+      <c r="H39" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="H40" t="n">
+        <v>101173.7496760626</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>202506111600</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2395,6 +2765,265 @@
       <c r="I22" t="inlineStr">
         <is>
           <t>202506101600</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1243.91705951017</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4888.594043874969</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9122.058436407913</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4834.690971296194</v>
+      </c>
+      <c r="H24" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3137.523283860047</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4957.286788498875</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E26" t="n">
+        <v>879.627063510763</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G26" t="n">
+        <v>993.9785817671622</v>
+      </c>
+      <c r="H26" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>43.67</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1051.546584462582</v>
+      </c>
+      <c r="F27" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>41746.39940316451</v>
+      </c>
+      <c r="H27" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E28" t="n">
+        <v>161.2702946560293</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8616.671843471646</v>
+      </c>
+      <c r="H28" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="E29" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="H29" t="n">
+        <v>95593.09096603499</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>202506111600</t>
         </is>
       </c>
     </row>
@@ -2409,7 +3038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4092,6 +4721,561 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>13.2658076636599</v>
+      </c>
+      <c r="F46" t="n">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1001.435820529686</v>
+      </c>
+      <c r="H46" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1262.931689191865</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4963.321538524029</v>
+      </c>
+      <c r="H47" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9261.499054073673</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4908.594498659047</v>
+      </c>
+      <c r="H48" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1812.03242362311</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5001.209489199783</v>
+      </c>
+      <c r="H49" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1250.302372299946</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5001.209489199784</v>
+      </c>
+      <c r="H50" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E51" t="n">
+        <v>637.096750216533</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1006.612865342122</v>
+      </c>
+      <c r="H51" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E52" t="n">
+        <v>893.0731230713899</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1009.17262907067</v>
+      </c>
+      <c r="H52" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E53" t="n">
+        <v>135.1678240324266</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1004.29693256093</v>
+      </c>
+      <c r="H53" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.53865475829018</v>
+      </c>
+      <c r="F54" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>997.8534189117107</v>
+      </c>
+      <c r="H54" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E55" t="n">
+        <v>33.36363902067901</v>
+      </c>
+      <c r="F55" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1006.914625644093</v>
+      </c>
+      <c r="H55" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E56" t="n">
+        <v>307.3884135955614</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4918.214617528983</v>
+      </c>
+      <c r="H56" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>23.72490270018873</v>
+      </c>
+      <c r="F57" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G57" t="n">
+        <v>941.8786371974926</v>
+      </c>
+      <c r="H57" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>55.44578147671601</v>
+      </c>
+      <c r="F58" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1056.796594946207</v>
+      </c>
+      <c r="H58" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E59" t="n">
+        <v>122.2789606161316</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1032.034427600151</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="H60" t="n">
+        <v>99865.51084235184</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>202506111600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,6 +1922,376 @@
       <c r="I40" t="inlineStr">
         <is>
           <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E41" t="n">
+        <v>39.71497483560155</v>
+      </c>
+      <c r="F41" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2867.421183130432</v>
+      </c>
+      <c r="H41" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1808.278443601665</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H42" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1247.712126085149</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5003.325625601447</v>
+      </c>
+      <c r="H43" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E44" t="n">
+        <v>674.4389870730533</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5058.2924030479</v>
+      </c>
+      <c r="H44" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E45" t="n">
+        <v>52.96734947562319</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1987.864625820138</v>
+      </c>
+      <c r="H45" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="E46" t="n">
+        <v>665.8903941748626</v>
+      </c>
+      <c r="F46" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>20103.23100013911</v>
+      </c>
+      <c r="H46" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E47" t="n">
+        <v>306.7515982999751</v>
+      </c>
+      <c r="F47" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4932.565700663599</v>
+      </c>
+      <c r="H47" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1106.618293645365</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" t="n">
+        <v>22132.3658729073</v>
+      </c>
+      <c r="H48" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E49" t="n">
+        <v>610.1281790147427</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5125.076703723839</v>
+      </c>
+      <c r="H49" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="H50" t="n">
+        <v>102146.0826454179</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>202506121600</t>
         </is>
       </c>
     </row>
@@ -1936,7 +2306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,6 +3394,265 @@
       <c r="I29" t="inlineStr">
         <is>
           <t>202506111600</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1243.91705951017</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4888.594043874969</v>
+      </c>
+      <c r="H30" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9122.058436407913</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4834.690971296194</v>
+      </c>
+      <c r="H31" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3137.523283860047</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4925.911555660274</v>
+      </c>
+      <c r="H32" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E33" t="n">
+        <v>879.627063510763</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G33" t="n">
+        <v>985.1823111320547</v>
+      </c>
+      <c r="H33" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1051.546584462582</v>
+      </c>
+      <c r="F34" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>45647.63723152068</v>
+      </c>
+      <c r="H34" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="E35" t="n">
+        <v>161.2702946560293</v>
+      </c>
+      <c r="F35" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8726.335643837745</v>
+      </c>
+      <c r="H35" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="E36" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="H36" t="n">
+        <v>99563.82109128355</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>202506121600</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5276,6 +5905,561 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.2658076636599</v>
+      </c>
+      <c r="F61" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>957.7913133162448</v>
+      </c>
+      <c r="H61" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1262.931689191865</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4963.321538524029</v>
+      </c>
+      <c r="H62" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9261.499054073673</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4908.594498659047</v>
+      </c>
+      <c r="H63" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1812.03242362311</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5001.209489199783</v>
+      </c>
+      <c r="H64" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1250.302372299946</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5013.712512922783</v>
+      </c>
+      <c r="H65" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>637.096750216533</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H66" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>893.0731230713899</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1000.241897839957</v>
+      </c>
+      <c r="H67" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E68" t="n">
+        <v>135.1678240324266</v>
+      </c>
+      <c r="F68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1013.7586802432</v>
+      </c>
+      <c r="H68" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>26.53865475829018</v>
+      </c>
+      <c r="F69" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="G69" t="n">
+        <v>995.9957130786304</v>
+      </c>
+      <c r="H69" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E70" t="n">
+        <v>33.36363902067901</v>
+      </c>
+      <c r="F70" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1007.248262034299</v>
+      </c>
+      <c r="H70" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E71" t="n">
+        <v>307.3884135955614</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4942.805690616627</v>
+      </c>
+      <c r="H71" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E72" t="n">
+        <v>23.72490270018873</v>
+      </c>
+      <c r="F72" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1029.898026215193</v>
+      </c>
+      <c r="H72" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E73" t="n">
+        <v>55.44578147671601</v>
+      </c>
+      <c r="F73" t="n">
+        <v>20</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1108.91562953432</v>
+      </c>
+      <c r="H73" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E74" t="n">
+        <v>122.2789606161316</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1027.143269175506</v>
+      </c>
+      <c r="H74" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>66.02</v>
+      </c>
+      <c r="E75" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="H75" t="n">
+        <v>99986.84367663674</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>202506121600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2292,6 +2292,376 @@
       <c r="I50" t="inlineStr">
         <is>
           <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39.71497483560155</v>
+      </c>
+      <c r="F51" t="n">
+        <v>71.48</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2838.826401248799</v>
+      </c>
+      <c r="H51" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1808.278443601665</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4972.765719904579</v>
+      </c>
+      <c r="H52" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1247.712126085149</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4965.894261818893</v>
+      </c>
+      <c r="H53" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E54" t="n">
+        <v>674.4389870730533</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5118.991911884475</v>
+      </c>
+      <c r="H54" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>52.96734947562319</v>
+      </c>
+      <c r="F55" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1943.901725755371</v>
+      </c>
+      <c r="H55" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="E56" t="n">
+        <v>665.8903941748626</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20389.56386963429</v>
+      </c>
+      <c r="H56" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E57" t="n">
+        <v>306.7515982999751</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5095.144047762587</v>
+      </c>
+      <c r="H57" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1106.618293645365</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>22243.02770227184</v>
+      </c>
+      <c r="H58" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E59" t="n">
+        <v>610.1281790147427</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4990.848504340595</v>
+      </c>
+      <c r="H59" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="E60" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29945.09102604357</v>
+      </c>
+      <c r="H60" t="n">
+        <v>102504.055170665</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>202506131600</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,6 +4023,265 @@
       <c r="I36" t="inlineStr">
         <is>
           <t>202506121600</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1243.91705951017</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4838.837361494561</v>
+      </c>
+      <c r="H37" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9122.058436407913</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4834.690971296194</v>
+      </c>
+      <c r="H38" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3137.523283860047</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4863.161089983073</v>
+      </c>
+      <c r="H39" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E40" t="n">
+        <v>879.627063510763</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G40" t="n">
+        <v>976.3860404969471</v>
+      </c>
+      <c r="H40" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>44.66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1051.546584462582</v>
+      </c>
+      <c r="F41" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="G41" t="n">
+        <v>43986.1936280698</v>
+      </c>
+      <c r="H41" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="E42" t="n">
+        <v>161.2702946560293</v>
+      </c>
+      <c r="F42" t="n">
+        <v>58.46</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9427.861425591473</v>
+      </c>
+      <c r="H42" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="E43" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>29555.46933396164</v>
+      </c>
+      <c r="H43" t="n">
+        <v>98482.59985089369</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>202506131600</t>
         </is>
       </c>
     </row>
@@ -3667,7 +4296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6460,6 +7089,561 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E76" t="n">
+        <v>13.2658076636599</v>
+      </c>
+      <c r="F76" t="n">
+        <v>71.48</v>
+      </c>
+      <c r="G76" t="n">
+        <v>948.2399317984097</v>
+      </c>
+      <c r="H76" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1262.931689191865</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4912.804270956355</v>
+      </c>
+      <c r="H77" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E78" t="n">
+        <v>9261.499054073673</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4908.594498659047</v>
+      </c>
+      <c r="H78" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1812.03242362311</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4983.089164963552</v>
+      </c>
+      <c r="H79" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1250.302372299946</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4976.203441753785</v>
+      </c>
+      <c r="H80" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E81" t="n">
+        <v>637.096750216533</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G81" t="n">
+        <v>987.4999628356262</v>
+      </c>
+      <c r="H81" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E82" t="n">
+        <v>893.0731230713899</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G82" t="n">
+        <v>991.3111666092428</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E83" t="n">
+        <v>135.1678240324266</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1025.923784406118</v>
+      </c>
+      <c r="H83" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E84" t="n">
+        <v>26.53865475829018</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="G84" t="n">
+        <v>973.9686296292497</v>
+      </c>
+      <c r="H84" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E85" t="n">
+        <v>33.36363902067901</v>
+      </c>
+      <c r="F85" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1021.594626813191</v>
+      </c>
+      <c r="H85" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E86" t="n">
+        <v>307.3884135955614</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5105.721549822275</v>
+      </c>
+      <c r="H86" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E87" t="n">
+        <v>23.72490270018873</v>
+      </c>
+      <c r="F87" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="G87" t="n">
+        <v>992.4126799488945</v>
+      </c>
+      <c r="H87" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E88" t="n">
+        <v>55.44578147671601</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1114.460207681992</v>
+      </c>
+      <c r="H88" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>122.2789606161316</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1000.241897839956</v>
+      </c>
+      <c r="H89" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>66015.96525743716</v>
+      </c>
+      <c r="H90" t="n">
+        <v>99958.03107115487</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>202506131600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2662,6 +2662,413 @@
       <c r="I60" t="inlineStr">
         <is>
           <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F61" t="n">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3056.854135256952</v>
+      </c>
+      <c r="H61" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H62" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H63" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H64" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F65" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2037.902756837968</v>
+      </c>
+      <c r="H65" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20</v>
+      </c>
+      <c r="E66" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F66" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20379.02756837968</v>
+      </c>
+      <c r="H66" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F67" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H67" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F68" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10189.51378418984</v>
+      </c>
+      <c r="H68" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F69" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10189.51378418984</v>
+      </c>
+      <c r="H69" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H70" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>30</v>
+      </c>
+      <c r="E71" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H71" t="n">
+        <v>101895.1378418984</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>202506161355</t>
         </is>
       </c>
     </row>
@@ -2676,7 +3083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4282,6 +4689,265 @@
       <c r="I43" t="inlineStr">
         <is>
           <t>202506131600</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H44" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H45" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H46" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G47" t="n">
+        <v>983.4287546405893</v>
+      </c>
+      <c r="H47" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F48" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="G48" t="n">
+        <v>44254.29395882652</v>
+      </c>
+      <c r="H48" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F49" t="n">
+        <v>60.16</v>
+      </c>
+      <c r="G49" t="n">
+        <v>8850.858791765304</v>
+      </c>
+      <c r="H49" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>30</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H50" t="n">
+        <v>98342.87546405893</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>202506161355</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7644,6 +8310,561 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F91" t="n">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="G91" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H92" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H93" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H94" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H95" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G96" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H96" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G97" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H97" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="G98" t="n">
+        <v>999.4328177345715</v>
+      </c>
+      <c r="H98" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F99" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="G99" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H99" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F100" t="n">
+        <v>30.46</v>
+      </c>
+      <c r="G100" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H100" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F101" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H101" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>10</v>
+      </c>
+      <c r="E102" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F102" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9994.328177345717</v>
+      </c>
+      <c r="H102" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F103" t="n">
+        <v>41.36</v>
+      </c>
+      <c r="G103" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H103" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="G104" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H104" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>57</v>
+      </c>
+      <c r="E105" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H105" t="n">
+        <v>99943.28177345716</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>202506161355</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,6 +3069,413 @@
       <c r="I71" t="inlineStr">
         <is>
           <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E72" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F72" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3091.171891476507</v>
+      </c>
+      <c r="H72" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H73" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5094.756892094918</v>
+      </c>
+      <c r="H74" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E75" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5054.322313586231</v>
+      </c>
+      <c r="H75" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E76" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F76" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2028.932620906907</v>
+      </c>
+      <c r="H76" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F77" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="G77" t="n">
+        <v>20519.52644524638</v>
+      </c>
+      <c r="H77" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E78" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5070.070002248306</v>
+      </c>
+      <c r="H78" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E79" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F79" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10216.58475598631</v>
+      </c>
+      <c r="H79" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="E80" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10272.94890217706</v>
+      </c>
+      <c r="H80" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E81" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5076.732987995526</v>
+      </c>
+      <c r="H81" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="E82" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H82" t="n">
+        <v>102088.3450563826</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>202506171600</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4948,6 +5355,265 @@
       <c r="I50" t="inlineStr">
         <is>
           <t>202506161355</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4955.065190477007</v>
+      </c>
+      <c r="H51" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H52" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H53" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E54" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G54" t="n">
+        <v>974.725845307487</v>
+      </c>
+      <c r="H54" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F55" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="G55" t="n">
+        <v>43291.31367442268</v>
+      </c>
+      <c r="H55" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="E56" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F56" t="n">
+        <v>56</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8238.83132212196</v>
+      </c>
+      <c r="H56" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H57" t="n">
+        <v>96797.0862179527</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>202506171600</t>
         </is>
       </c>
     </row>
@@ -4962,7 +5628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8865,6 +9531,561 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E106" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F106" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1010.652944793057</v>
+      </c>
+      <c r="H106" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5035.702629202468</v>
+      </c>
+      <c r="H107" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H108" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4997.164088672857</v>
+      </c>
+      <c r="H109" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4997.164088672856</v>
+      </c>
+      <c r="H110" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G111" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H111" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E112" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G112" t="n">
+        <v>990.5882795245313</v>
+      </c>
+      <c r="H112" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E113" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>991.5008112446144</v>
+      </c>
+      <c r="H113" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F114" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="G114" t="n">
+        <v>995.033663653759</v>
+      </c>
+      <c r="H114" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E115" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1006.3231950072</v>
+      </c>
+      <c r="H115" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E116" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F116" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4972.950089454577</v>
+      </c>
+      <c r="H116" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="E117" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10020.88059014419</v>
+      </c>
+      <c r="H117" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E118" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F118" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="G118" t="n">
+        <v>977.6850049695545</v>
+      </c>
+      <c r="H118" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>995.8970884265478</v>
+      </c>
+      <c r="H119" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="E120" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H120" t="n">
+        <v>99955.80999104423</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>202506171600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3476,6 +3476,413 @@
       <c r="I82" t="inlineStr">
         <is>
           <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E83" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F83" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3092.887779287485</v>
+      </c>
+      <c r="H83" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H84" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4979.837563701799</v>
+      </c>
+      <c r="H85" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E86" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5054.322313586231</v>
+      </c>
+      <c r="H86" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E87" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F87" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2020.523118471537</v>
+      </c>
+      <c r="H87" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E88" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F88" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20546.28813607814</v>
+      </c>
+      <c r="H88" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E89" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5147.216533018975</v>
+      </c>
+      <c r="H89" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E90" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F90" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10167.85700675267</v>
+      </c>
+      <c r="H90" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E91" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10304.23707142228</v>
+      </c>
+      <c r="H91" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E92" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4914.517851100995</v>
+      </c>
+      <c r="H92" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>30</v>
+      </c>
+      <c r="E93" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H93" t="n">
+        <v>101890.9856180846</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>202506181600</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5614,6 +6021,265 @@
       <c r="I57" t="inlineStr">
         <is>
           <t>202506171600</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4992.986607751065</v>
+      </c>
+      <c r="H58" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H59" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H60" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E61" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>957.3200266412819</v>
+      </c>
+      <c r="H61" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F62" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="G62" t="n">
+        <v>46233.75343232338</v>
+      </c>
+      <c r="H62" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F63" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="G63" t="n">
+        <v>8284.439138369422</v>
+      </c>
+      <c r="H63" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H64" t="n">
+        <v>99805.64939070871</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>202506181600</t>
         </is>
       </c>
     </row>
@@ -5628,7 +6294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10086,6 +10752,561 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E121" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F121" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1011.213951145981</v>
+      </c>
+      <c r="H121" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5074.241169732079</v>
+      </c>
+      <c r="H122" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H123" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4997.164088672857</v>
+      </c>
+      <c r="H124" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4884.44610171031</v>
+      </c>
+      <c r="H125" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G126" t="n">
+        <v>999.4328177345716</v>
+      </c>
+      <c r="H126" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E127" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>972.8992031044504</v>
+      </c>
+      <c r="H127" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E128" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>991.5008112446144</v>
+      </c>
+      <c r="H128" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E129" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F129" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="G129" t="n">
+        <v>990.9094567029974</v>
+      </c>
+      <c r="H129" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E130" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1007.635647821034</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E131" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5048.618837011707</v>
+      </c>
+      <c r="H131" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E132" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F132" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9973.086247106938</v>
+      </c>
+      <c r="H132" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F133" t="n">
+        <v>43.21</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1044.136655084885</v>
+      </c>
+      <c r="H133" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E134" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G134" t="n">
+        <v>964.0755246543387</v>
+      </c>
+      <c r="H134" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="E135" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H135" t="n">
+        <v>99924.1952112702</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>202506181600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,6 +3883,413 @@
       <c r="I93" t="inlineStr">
         <is>
           <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E94" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F94" t="n">
+        <v>71.33</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3059.856938926162</v>
+      </c>
+      <c r="H94" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5057.704114697865</v>
+      </c>
+      <c r="H95" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4941.531120904093</v>
+      </c>
+      <c r="H96" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E97" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5027.365927913771</v>
+      </c>
+      <c r="H97" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E98" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F98" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2009.871082053402</v>
+      </c>
+      <c r="H98" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="E99" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F99" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20552.97855878607</v>
+      </c>
+      <c r="H99" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E100" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F100" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5153.388255480628</v>
+      </c>
+      <c r="H100" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E101" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F101" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="G101" t="n">
+        <v>9945.875038021644</v>
+      </c>
+      <c r="H101" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E102" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9907.920260982955</v>
+      </c>
+      <c r="H102" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E103" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4662.183193709501</v>
+      </c>
+      <c r="H103" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H104" t="n">
+        <v>100887.2158440456</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>202506191600</t>
         </is>
       </c>
     </row>
@@ -3897,7 +4304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6280,6 +6687,265 @@
       <c r="I64" t="inlineStr">
         <is>
           <t>202506181600</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4967.705662901692</v>
+      </c>
+      <c r="H65" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H66" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4885.824386112482</v>
+      </c>
+      <c r="H67" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E68" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>957.3200266412819</v>
+      </c>
+      <c r="H68" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F69" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="G69" t="n">
+        <v>45345.67161448426</v>
+      </c>
+      <c r="H69" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E70" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F70" t="n">
+        <v>51.65</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7598.850674778558</v>
+      </c>
+      <c r="H70" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H71" t="n">
+        <v>98175.3787773389</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>202506191600</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11307,6 +11973,561 @@
         </is>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F136" t="n">
+        <v>71.33</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1000.414578852189</v>
+      </c>
+      <c r="H136" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5048.548809379005</v>
+      </c>
+      <c r="H137" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H138" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4960.821077118873</v>
+      </c>
+      <c r="H139" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4846.873439389462</v>
+      </c>
+      <c r="H140" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G141" t="n">
+        <v>993.0670036088737</v>
+      </c>
+      <c r="H141" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E142" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>972.8992031044504</v>
+      </c>
+      <c r="H142" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G143" t="n">
+        <v>986.2128069179765</v>
+      </c>
+      <c r="H143" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F144" t="n">
+        <v>35.85</v>
+      </c>
+      <c r="G144" t="n">
+        <v>985.6854612320327</v>
+      </c>
+      <c r="H144" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E145" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F145" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1007.963761024492</v>
+      </c>
+      <c r="H145" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E146" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5054.672336816277</v>
+      </c>
+      <c r="H146" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9755.356462159449</v>
+      </c>
+      <c r="H147" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E148" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F148" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1024.080338868258</v>
+      </c>
+      <c r="H148" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E149" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="G149" t="n">
+        <v>914.5753143420133</v>
+      </c>
+      <c r="H149" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="E150" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H150" t="n">
+        <v>99516.0052923568</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>202506191600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4290,6 +4290,413 @@
       <c r="I104" t="inlineStr">
         <is>
           <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F105" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3104.89899396433</v>
+      </c>
+      <c r="H105" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5094.75689209492</v>
+      </c>
+      <c r="H106" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4954.299935169995</v>
+      </c>
+      <c r="H107" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E108" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5013.887735077541</v>
+      </c>
+      <c r="H108" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F109" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2017.71995099308</v>
+      </c>
+      <c r="H109" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E110" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F110" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>20338.88503213205</v>
+      </c>
+      <c r="H110" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5091.671030864093</v>
+      </c>
+      <c r="H111" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F112" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9967.531815458817</v>
+      </c>
+      <c r="H112" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E113" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="G113" t="n">
+        <v>10001.78476871858</v>
+      </c>
+      <c r="H113" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E114" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4722.26287404081</v>
+      </c>
+      <c r="H114" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H115" t="n">
+        <v>100876.2403810837</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>202506201600</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6946,6 +7353,265 @@
       <c r="I71" t="inlineStr">
         <is>
           <t>202506191600</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4967.705662901692</v>
+      </c>
+      <c r="H72" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H73" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4885.824386112482</v>
+      </c>
+      <c r="H74" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E75" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>957.3200266412819</v>
+      </c>
+      <c r="H75" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>43.72</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F76" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="G76" t="n">
+        <v>40808.96449684827</v>
+      </c>
+      <c r="H76" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="E77" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F77" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7304.606698988488</v>
+      </c>
+      <c r="H77" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="E78" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H78" t="n">
+        <v>93344.42768391284</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>202506201600</t>
         </is>
       </c>
     </row>
@@ -6960,7 +7626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12528,6 +13194,561 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E151" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F151" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1015.140995616451</v>
+      </c>
+      <c r="H151" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5048.548809379005</v>
+      </c>
+      <c r="H152" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G153" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H153" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4997.164088672857</v>
+      </c>
+      <c r="H154" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4859.397660163077</v>
+      </c>
+      <c r="H155" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G156" t="n">
+        <v>993.0670036088737</v>
+      </c>
+      <c r="H156" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E157" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>972.8992031044504</v>
+      </c>
+      <c r="H157" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E158" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="G158" t="n">
+        <v>983.5688047546575</v>
+      </c>
+      <c r="H158" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35.99</v>
+      </c>
+      <c r="G159" t="n">
+        <v>989.5347210527436</v>
+      </c>
+      <c r="H159" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F160" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>997.4641385138204</v>
+      </c>
+      <c r="H160" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E161" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F161" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4994.137338770573</v>
+      </c>
+      <c r="H161" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E162" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9776.598392398228</v>
+      </c>
+      <c r="H162" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E163" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F163" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="G163" t="n">
+        <v>921.623976508621</v>
+      </c>
+      <c r="H163" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E164" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="G164" t="n">
+        <v>926.3610787020908</v>
+      </c>
+      <c r="H164" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="E165" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H165" t="n">
+        <v>99440.34091078889</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>202506201600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4697,6 +4697,413 @@
       <c r="I115" t="inlineStr">
         <is>
           <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E116" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F116" t="n">
+        <v>71.72</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3076.586845083196</v>
+      </c>
+      <c r="H116" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5113.283280793446</v>
+      </c>
+      <c r="H117" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4967.068749435897</v>
+      </c>
+      <c r="H118" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E119" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5027.365927913771</v>
+      </c>
+      <c r="H119" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E120" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F120" t="n">
+        <v>36</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2018.280584488771</v>
+      </c>
+      <c r="H120" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="E121" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="G121" t="n">
+        <v>20506.1455998305</v>
+      </c>
+      <c r="H121" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E122" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5116.357920710707</v>
+      </c>
+      <c r="H122" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10021.67375905175</v>
+      </c>
+      <c r="H123" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E124" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F124" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10043.5023277122</v>
+      </c>
+      <c r="H124" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E125" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F125" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4872.46207486908</v>
+      </c>
+      <c r="H125" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H126" t="n">
+        <v>101331.2684224588</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>202506231600</t>
         </is>
       </c>
     </row>
@@ -4711,7 +5118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7612,6 +8019,265 @@
       <c r="I78" t="inlineStr">
         <is>
           <t>202506201600</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5005.627080175751</v>
+      </c>
+      <c r="H79" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4917.143773202947</v>
+      </c>
+      <c r="H80" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4885.824386112482</v>
+      </c>
+      <c r="H81" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E82" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>957.3200266412819</v>
+      </c>
+      <c r="H82" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F83" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="G83" t="n">
+        <v>41739.84543843867</v>
+      </c>
+      <c r="H83" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E84" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F84" t="n">
+        <v>49.51</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7284.009620683183</v>
+      </c>
+      <c r="H84" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="E85" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H85" t="n">
+        <v>94292.632964472</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>202506231600</t>
         </is>
       </c>
     </row>
@@ -7626,7 +8292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13749,6 +14415,561 @@
         </is>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E166" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F166" t="n">
+        <v>71.72</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1005.8843907932</v>
+      </c>
+      <c r="H166" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5087.087349908616</v>
+      </c>
+      <c r="H167" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4997.164088672858</v>
+      </c>
+      <c r="H168" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5015.33559444985</v>
+      </c>
+      <c r="H169" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4871.921880936694</v>
+      </c>
+      <c r="H170" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G171" t="n">
+        <v>993.0670036088737</v>
+      </c>
+      <c r="H171" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E172" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>972.8992031044504</v>
+      </c>
+      <c r="H172" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E173" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G173" t="n">
+        <v>986.2128069179765</v>
+      </c>
+      <c r="H173" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F174" t="n">
+        <v>36</v>
+      </c>
+      <c r="G174" t="n">
+        <v>989.8096681827943</v>
+      </c>
+      <c r="H174" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E175" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1005.666968600283</v>
+      </c>
+      <c r="H175" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E176" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="G176" t="n">
+        <v>5018.351337988855</v>
+      </c>
+      <c r="H176" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="G177" t="n">
+        <v>9829.703217995177</v>
+      </c>
+      <c r="H177" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E178" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F178" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="G178" t="n">
+        <v>942.646862181471</v>
+      </c>
+      <c r="H178" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E179" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G179" t="n">
+        <v>955.8254896022844</v>
+      </c>
+      <c r="H179" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="E180" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H180" t="n">
+        <v>99639.24647381395</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>202506231600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5104,6 +5104,413 @@
       <c r="I126" t="inlineStr">
         <is>
           <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E127" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F127" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3122.915815979597</v>
+      </c>
+      <c r="H127" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5168.862446889028</v>
+      </c>
+      <c r="H128" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5030.912820765408</v>
+      </c>
+      <c r="H129" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E130" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4966.714060150736</v>
+      </c>
+      <c r="H130" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F131" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2039.02402382935</v>
+      </c>
+      <c r="H131" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="G132" t="n">
+        <v>20459.31264087494</v>
+      </c>
+      <c r="H132" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E133" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5039.211389940038</v>
+      </c>
+      <c r="H133" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F134" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="G134" t="n">
+        <v>10037.91634212963</v>
+      </c>
+      <c r="H134" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F135" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="G135" t="n">
+        <v>10043.5023277122</v>
+      </c>
+      <c r="H135" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E136" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5299.027805221366</v>
+      </c>
+      <c r="H136" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H137" t="n">
+        <v>101775.9410260618</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>202506241600</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8278,6 +8685,265 @@
       <c r="I85" t="inlineStr">
         <is>
           <t>202506231600</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5030.908025025124</v>
+      </c>
+      <c r="H86" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5009.92007081055</v>
+      </c>
+      <c r="H87" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4979.782547383877</v>
+      </c>
+      <c r="H88" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E89" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G89" t="n">
+        <v>966.0229359743844</v>
+      </c>
+      <c r="H89" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F90" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="G90" t="n">
+        <v>45912.76000418875</v>
+      </c>
+      <c r="H90" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="E91" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F91" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="G91" t="n">
+        <v>7559.127738046899</v>
+      </c>
+      <c r="H91" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="E92" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H92" t="n">
+        <v>98961.38396064726</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>202506241600</t>
         </is>
       </c>
     </row>
@@ -8292,7 +8958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14970,6 +15636,561 @@
         </is>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E181" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F181" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1021.031562322155</v>
+      </c>
+      <c r="H181" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5112.77971026169</v>
+      </c>
+      <c r="H182" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5091.450203553479</v>
+      </c>
+      <c r="H183" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5069.850111780826</v>
+      </c>
+      <c r="H184" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4934.542984804775</v>
+      </c>
+      <c r="H185" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E186" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1012.164445985967</v>
+      </c>
+      <c r="H186" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E187" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G187" t="n">
+        <v>981.7437413144909</v>
+      </c>
+      <c r="H187" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E188" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G188" t="n">
+        <v>974.3147971830412</v>
+      </c>
+      <c r="H188" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F189" t="n">
+        <v>36.37</v>
+      </c>
+      <c r="G189" t="n">
+        <v>999.982711994673</v>
+      </c>
+      <c r="H189" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F190" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1003.370176176073</v>
+      </c>
+      <c r="H190" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E191" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F191" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4942.682590431725</v>
+      </c>
+      <c r="H191" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="E192" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F192" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="G192" t="n">
+        <v>9845.634665674261</v>
+      </c>
+      <c r="H192" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E193" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F193" t="n">
+        <v>42.91</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1036.887384163213</v>
+      </c>
+      <c r="H193" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E194" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F194" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1039.504416558835</v>
+      </c>
+      <c r="H194" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="E195" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H195" t="n">
+        <v>100033.6101130758</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>202506241600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5511,6 +5511,413 @@
       <c r="I137" t="inlineStr">
         <is>
           <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F138" t="n">
+        <v>73.18000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3139.216750183886</v>
+      </c>
+      <c r="H138" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5242.968001683135</v>
+      </c>
+      <c r="H139" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5107.52570636082</v>
+      </c>
+      <c r="H140" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E141" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4980.192252986965</v>
+      </c>
+      <c r="H141" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F142" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2053.600494717325</v>
+      </c>
+      <c r="H142" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="E143" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F143" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="G143" t="n">
+        <v>20660.02532211308</v>
+      </c>
+      <c r="H143" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E144" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4989.837610246812</v>
+      </c>
+      <c r="H144" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E145" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F145" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G145" t="n">
+        <v>10281.55508829782</v>
+      </c>
+      <c r="H145" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F146" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="G146" t="n">
+        <v>10147.79622519623</v>
+      </c>
+      <c r="H146" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E147" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5581.402302778513</v>
+      </c>
+      <c r="H147" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H148" t="n">
+        <v>102752.6611071341</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>202506251600</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8944,6 +9351,265 @@
       <c r="I92" t="inlineStr">
         <is>
           <t>202506241600</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5005.627080175751</v>
+      </c>
+      <c r="H93" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5102.696368418153</v>
+      </c>
+      <c r="H94" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4979.782547383877</v>
+      </c>
+      <c r="H95" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E96" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>966.0229359743844</v>
+      </c>
+      <c r="H96" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F97" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="G97" t="n">
+        <v>48127.61465831765</v>
+      </c>
+      <c r="H97" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E98" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F98" t="n">
+        <v>51.49</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7575.311156715353</v>
+      </c>
+      <c r="H98" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H99" t="n">
+        <v>101259.9173862028</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>202506251600</t>
         </is>
       </c>
     </row>
@@ -8958,7 +9624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16191,6 +16857,561 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E196" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F196" t="n">
+        <v>73.18000000000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1026.361122674936</v>
+      </c>
+      <c r="H196" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G197" t="n">
+        <v>5087.087349908616</v>
+      </c>
+      <c r="H197" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E198" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5185.736318434098</v>
+      </c>
+      <c r="H198" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5142.536134888795</v>
+      </c>
+      <c r="H199" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5009.688309446472</v>
+      </c>
+      <c r="H200" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E201" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1012.164445985967</v>
+      </c>
+      <c r="H201" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E202" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G202" t="n">
+        <v>981.7437413144909</v>
+      </c>
+      <c r="H202" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E203" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G203" t="n">
+        <v>976.95879934636</v>
+      </c>
+      <c r="H203" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F204" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1007.131337375993</v>
+      </c>
+      <c r="H204" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E205" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F205" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1013.213572279828</v>
+      </c>
+      <c r="H205" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E206" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F206" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="G206" t="n">
+        <v>4894.254591995163</v>
+      </c>
+      <c r="H206" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="E207" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F207" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="G207" t="n">
+        <v>10084.60638086053</v>
+      </c>
+      <c r="H207" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F208" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1086.907353522752</v>
+      </c>
+      <c r="H208" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E209" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F209" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1094.897509051199</v>
+      </c>
+      <c r="H209" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>56.64</v>
+      </c>
+      <c r="E210" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H210" t="n">
+        <v>100570.9575779558</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>202506251600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5918,6 +5918,413 @@
       <c r="I148" t="inlineStr">
         <is>
           <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>42.89719527444501</v>
+      </c>
+      <c r="F149" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3135.78497456193</v>
+      </c>
+      <c r="H149" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1852.638869852698</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5242.968001683135</v>
+      </c>
+      <c r="H150" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1276.881426590205</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5094.756892094918</v>
+      </c>
+      <c r="H151" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E152" t="n">
+        <v>673.9096418114974</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4993.670445823196</v>
+      </c>
+      <c r="H152" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>56.06334956913254</v>
+      </c>
+      <c r="F153" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2056.964295691473</v>
+      </c>
+      <c r="H153" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="E154" t="n">
+        <v>669.0422707938175</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="G154" t="n">
+        <v>20813.90504439566</v>
+      </c>
+      <c r="H154" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E155" t="n">
+        <v>308.5861230826723</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4943.54969178441</v>
+      </c>
+      <c r="H155" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>10</v>
+      </c>
+      <c r="E156" t="n">
+        <v>541.4194359293219</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G156" t="n">
+        <v>10276.14089393853</v>
+      </c>
+      <c r="H156" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E157" t="n">
+        <v>521.4694874201556</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="G157" t="n">
+        <v>10262.51951242866</v>
+      </c>
+      <c r="H157" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E158" t="n">
+        <v>600.7968033130801</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5365.115453585805</v>
+      </c>
+      <c r="H158" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30568.54135256952</v>
+      </c>
+      <c r="H159" t="n">
+        <v>102753.9165585572</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>202506261600</t>
         </is>
       </c>
     </row>
@@ -5932,7 +6339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9610,6 +10017,265 @@
       <c r="I99" t="inlineStr">
         <is>
           <t>202506251600</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1264.047242468624</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4992.986607751065</v>
+      </c>
+      <c r="H100" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9277.629760760277</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5102.696368418153</v>
+      </c>
+      <c r="H101" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3131.938709046463</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5011.101934474341</v>
+      </c>
+      <c r="H102" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E103" t="n">
+        <v>870.2909333102562</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G103" t="n">
+        <v>966.0229359743844</v>
+      </c>
+      <c r="H103" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1069.978093782073</v>
+      </c>
+      <c r="F104" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>48202.51312488239</v>
+      </c>
+      <c r="H104" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E105" t="n">
+        <v>147.121987895035</v>
+      </c>
+      <c r="F105" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="G105" t="n">
+        <v>7438.48770797297</v>
+      </c>
+      <c r="H105" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="E106" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>29502.86263921768</v>
+      </c>
+      <c r="H106" t="n">
+        <v>101216.671318691</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>202506261600</t>
         </is>
       </c>
     </row>
@@ -9624,7 +10290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17412,6 +18078,561 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E211" t="n">
+        <v>14.02515882310653</v>
+      </c>
+      <c r="F211" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1025.239109969087</v>
+      </c>
+      <c r="H211" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1284.618017653691</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G212" t="n">
+        <v>5074.241169732079</v>
+      </c>
+      <c r="H212" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9428.611488061997</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G213" t="n">
+        <v>5185.736318434098</v>
+      </c>
+      <c r="H213" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1817.150577699221</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5142.536134888795</v>
+      </c>
+      <c r="H214" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1252.422077361618</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4997.164088672856</v>
+      </c>
+      <c r="H215" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E216" t="n">
+        <v>636.5814125697908</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1018.530260111665</v>
+      </c>
+      <c r="H216" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E217" t="n">
+        <v>884.4538210040457</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G217" t="n">
+        <v>981.7437413144909</v>
+      </c>
+      <c r="H217" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E218" t="n">
+        <v>132.2001081659486</v>
+      </c>
+      <c r="F218" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G218" t="n">
+        <v>979.6028015096791</v>
+      </c>
+      <c r="H218" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27.49471300507762</v>
+      </c>
+      <c r="F219" t="n">
+        <v>36.69</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1008.781020156298</v>
+      </c>
+      <c r="H219" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E220" t="n">
+        <v>32.81132034584936</v>
+      </c>
+      <c r="F220" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1020.760175959374</v>
+      </c>
+      <c r="H220" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E221" t="n">
+        <v>302.6749902285196</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4848.853343460884</v>
+      </c>
+      <c r="H221" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>XD紫金矿</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="E222" t="n">
+        <v>531.0482559694855</v>
+      </c>
+      <c r="F222" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G222" t="n">
+        <v>10079.29589830083</v>
+      </c>
+      <c r="H222" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E223" t="n">
+        <v>24.16423640557475</v>
+      </c>
+      <c r="F223" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1088.598850071143</v>
+      </c>
+      <c r="H223" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E224" t="n">
+        <v>117.8576436007749</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1052.46875735492</v>
+      </c>
+      <c r="H224" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>56967.67061087058</v>
+      </c>
+      <c r="H225" t="n">
+        <v>100471.2222808068</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>202506261600</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2685,16 +2685,16 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>42.89719527444501</v>
+        <v>42.69191156535827</v>
       </c>
       <c r="F61" t="n">
-        <v>71.26000000000001</v>
+        <v>72.28</v>
       </c>
       <c r="G61" t="n">
-        <v>3056.854135256952</v>
+        <v>3085.771367944096</v>
       </c>
       <c r="H61" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2722,16 +2722,16 @@
         <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>1852.638869852698</v>
+        <v>1843.352071651192</v>
       </c>
       <c r="F62" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="G62" t="n">
-        <v>5094.75689209492</v>
+        <v>5142.952279906826</v>
       </c>
       <c r="H62" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2759,16 +2759,16 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>1276.881426590205</v>
+        <v>1298.725323208795</v>
       </c>
       <c r="F63" t="n">
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="G63" t="n">
-        <v>5094.75689209492</v>
+        <v>5142.952279906826</v>
       </c>
       <c r="H63" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2796,16 +2796,16 @@
         <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>673.9096418114974</v>
+        <v>701.630597531627</v>
       </c>
       <c r="F64" t="n">
-        <v>7.56</v>
+        <v>7.33</v>
       </c>
       <c r="G64" t="n">
-        <v>5094.75689209492</v>
+        <v>5142.952279906826</v>
       </c>
       <c r="H64" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2833,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>56.06334956913254</v>
+        <v>56.22249007823805</v>
       </c>
       <c r="F65" t="n">
-        <v>36.35</v>
+        <v>36.59</v>
       </c>
       <c r="G65" t="n">
-        <v>2037.902756837968</v>
+        <v>2057.180911962731</v>
       </c>
       <c r="H65" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2870,16 +2870,16 @@
         <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>669.0422707938175</v>
+        <v>680.7349146137427</v>
       </c>
       <c r="F66" t="n">
-        <v>30.46</v>
+        <v>30.22</v>
       </c>
       <c r="G66" t="n">
-        <v>20379.02756837968</v>
+        <v>20571.80911962731</v>
       </c>
       <c r="H66" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2907,16 +2907,16 @@
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>308.5861230826723</v>
+        <v>316.4893710711893</v>
       </c>
       <c r="F67" t="n">
-        <v>16.51</v>
+        <v>16.25</v>
       </c>
       <c r="G67" t="n">
-        <v>5094.75689209492</v>
+        <v>5142.952279906826</v>
       </c>
       <c r="H67" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2944,16 +2944,16 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>541.4194359293219</v>
+        <v>520.0153973616609</v>
       </c>
       <c r="F68" t="n">
-        <v>18.82</v>
+        <v>19.78</v>
       </c>
       <c r="G68" t="n">
-        <v>10189.51378418984</v>
+        <v>10285.90455981365</v>
       </c>
       <c r="H68" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2981,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>521.4694874201556</v>
+        <v>501.7514419421294</v>
       </c>
       <c r="F69" t="n">
-        <v>19.54</v>
+        <v>20.5</v>
       </c>
       <c r="G69" t="n">
-        <v>10189.51378418984</v>
+        <v>10285.90455981365</v>
       </c>
       <c r="H69" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
         <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>600.7968033130801</v>
+        <v>578.5098177622976</v>
       </c>
       <c r="F70" t="n">
-        <v>8.48</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>5094.75689209492</v>
+        <v>5142.952279906826</v>
       </c>
       <c r="H70" t="n">
-        <v>101895.1378418984</v>
+        <v>236555.2330665944</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6325,6 +6325,746 @@
       <c r="I159" t="inlineStr">
         <is>
           <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>43.40344342478091</v>
+      </c>
+      <c r="F160" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3137.200890743164</v>
+      </c>
+      <c r="H160" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1880.219113084216</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5245.811325504962</v>
+      </c>
+      <c r="H161" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1288.335520623124</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5101.808661667571</v>
+      </c>
+      <c r="H162" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E163" t="n">
+        <v>681.9849408007415</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4998.949616069435</v>
+      </c>
+      <c r="H163" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>56.22249007823805</v>
+      </c>
+      <c r="F164" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2057.180911962731</v>
+      </c>
+      <c r="H164" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>30</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1021.102371920614</v>
+      </c>
+      <c r="F165" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30857.71367944096</v>
+      </c>
+      <c r="H165" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E166" t="n">
+        <v>304.4627749704841</v>
+      </c>
+      <c r="F166" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4947.520093270366</v>
+      </c>
+      <c r="H166" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>10</v>
+      </c>
+      <c r="E167" t="n">
+        <v>520.0153973616609</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G167" t="n">
+        <v>10285.90455981365</v>
+      </c>
+      <c r="H167" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E168" t="n">
+        <v>501.2496905001872</v>
+      </c>
+      <c r="F168" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>10275.61865525384</v>
+      </c>
+      <c r="H168" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E169" t="n">
+        <v>603.9642497438386</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5369.242180222726</v>
+      </c>
+      <c r="H169" t="n">
+        <v>236555.2330665944</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E170" t="n">
+        <v>43.40344342478091</v>
+      </c>
+      <c r="F170" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3137.200890743164</v>
+      </c>
+      <c r="H170" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1880.219113084216</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5245.811325504962</v>
+      </c>
+      <c r="H171" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1288.335520623124</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5101.808661667571</v>
+      </c>
+      <c r="H172" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E173" t="n">
+        <v>681.9849408007415</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4998.949616069435</v>
+      </c>
+      <c r="H173" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>56.22249007823805</v>
+      </c>
+      <c r="F174" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2057.180911962731</v>
+      </c>
+      <c r="H174" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1021.102371920614</v>
+      </c>
+      <c r="F175" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G175" t="n">
+        <v>30857.71367944096</v>
+      </c>
+      <c r="H175" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E176" t="n">
+        <v>304.4627749704841</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4947.520093270366</v>
+      </c>
+      <c r="H176" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>520.0153973616609</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G177" t="n">
+        <v>10285.90455981365</v>
+      </c>
+      <c r="H177" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="E178" t="n">
+        <v>501.2496905001872</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G178" t="n">
+        <v>10275.61865525384</v>
+      </c>
+      <c r="H178" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E179" t="n">
+        <v>603.9642497438386</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5369.242180222726</v>
+      </c>
+      <c r="H179" t="n">
+        <v>82276.95057394942</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>202506271600</t>
         </is>
       </c>
     </row>
@@ -6339,7 +7079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7968,16 +8708,16 @@
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.047242468624</v>
+        <v>1266.008810812964</v>
       </c>
       <c r="F44" t="n">
-        <v>3.89</v>
+        <v>3.97</v>
       </c>
       <c r="G44" t="n">
-        <v>4917.143773202947</v>
+        <v>5026.054978927468</v>
       </c>
       <c r="H44" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -8005,16 +8745,16 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>9277.629760760277</v>
+        <v>9138.281779868123</v>
       </c>
       <c r="F45" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="G45" t="n">
-        <v>4917.143773202947</v>
+        <v>5026.054978927468</v>
       </c>
       <c r="H45" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -8042,16 +8782,16 @@
         <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>3131.938709046463</v>
+        <v>3102.503073412017</v>
       </c>
       <c r="F46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G46" t="n">
-        <v>4917.143773202947</v>
+        <v>5026.054978927468</v>
       </c>
       <c r="H46" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -8079,16 +8819,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>870.2909333102562</v>
+        <v>905.5954916986428</v>
       </c>
       <c r="F47" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="G47" t="n">
-        <v>983.4287546405893</v>
+        <v>1005.210995785494</v>
       </c>
       <c r="H47" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -8116,16 +8856,16 @@
         <v>45</v>
       </c>
       <c r="E48" t="n">
-        <v>1069.978093782073</v>
+        <v>1019.483768545125</v>
       </c>
       <c r="F48" t="n">
-        <v>41.36</v>
+        <v>44.37</v>
       </c>
       <c r="G48" t="n">
-        <v>44254.29395882652</v>
+        <v>45234.49481034721</v>
       </c>
       <c r="H48" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -8153,16 +8893,16 @@
         <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>147.121987895035</v>
+        <v>180.28893906077</v>
       </c>
       <c r="F49" t="n">
-        <v>60.16</v>
+        <v>50.18</v>
       </c>
       <c r="G49" t="n">
-        <v>8850.858791765304</v>
+        <v>9046.898962069441</v>
       </c>
       <c r="H49" t="n">
-        <v>98342.87546405893</v>
+        <v>212461.3960692219</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -10276,6 +11016,487 @@
       <c r="I106" t="inlineStr">
         <is>
           <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1248.284687461583</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4955.690209222483</v>
+      </c>
+      <c r="H107" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>18276.56355973625</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G108" t="n">
+        <v>10052.10995785494</v>
+      </c>
+      <c r="H108" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3071.478042677897</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4975.794429138194</v>
+      </c>
+      <c r="H109" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>860.3157171137105</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>954.9504459962188</v>
+      </c>
+      <c r="H110" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>42</v>
+      </c>
+      <c r="E111" t="n">
+        <v>951.5181839754504</v>
+      </c>
+      <c r="F111" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G111" t="n">
+        <v>42218.86182299073</v>
+      </c>
+      <c r="H111" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E112" t="n">
+        <v>147.2359668996289</v>
+      </c>
+      <c r="F112" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="G112" t="n">
+        <v>7388.300819023378</v>
+      </c>
+      <c r="H112" t="n">
+        <v>212461.3960692219</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1248.284687461583</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4955.690209222483</v>
+      </c>
+      <c r="H113" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>18276.56355973625</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G114" t="n">
+        <v>10052.10995785494</v>
+      </c>
+      <c r="H114" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3071.478042677897</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4975.794429138194</v>
+      </c>
+      <c r="H115" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E116" t="n">
+        <v>860.3157171137105</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>954.9504459962188</v>
+      </c>
+      <c r="H116" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>59.01</v>
+      </c>
+      <c r="E117" t="n">
+        <v>951.5181839754504</v>
+      </c>
+      <c r="F117" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G117" t="n">
+        <v>42218.86182299073</v>
+      </c>
+      <c r="H117" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="E118" t="n">
+        <v>147.2359668996289</v>
+      </c>
+      <c r="F118" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="G118" t="n">
+        <v>7388.300819023378</v>
+      </c>
+      <c r="H118" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E119" t="n">
+        <v>136.763400787142</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1005.210995785494</v>
+      </c>
+      <c r="H119" t="n">
+        <v>71550.91868001144</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>202506271600</t>
         </is>
       </c>
     </row>
@@ -10290,7 +11511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13658,16 +14879,16 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>14.02515882310653</v>
+        <v>13.94834909583761</v>
       </c>
       <c r="F91" t="n">
-        <v>71.26000000000001</v>
+        <v>72.28</v>
       </c>
       <c r="G91" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H91" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -13695,16 +14916,16 @@
         <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>1284.618017653691</v>
+        <v>1269.756514668945</v>
       </c>
       <c r="F92" t="n">
-        <v>3.89</v>
+        <v>3.97</v>
       </c>
       <c r="G92" t="n">
-        <v>4997.164088672858</v>
+        <v>5040.933363235712</v>
       </c>
       <c r="H92" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -13732,16 +14953,16 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>9428.611488061997</v>
+        <v>9165.333387701294</v>
       </c>
       <c r="F93" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="G93" t="n">
-        <v>4997.164088672858</v>
+        <v>5040.933363235712</v>
       </c>
       <c r="H93" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -13769,16 +14990,16 @@
         <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>1817.150577699221</v>
+        <v>1806.786151697388</v>
       </c>
       <c r="F94" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="G94" t="n">
-        <v>4997.164088672858</v>
+        <v>5040.933363235712</v>
       </c>
       <c r="H94" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -13806,16 +15027,16 @@
         <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>1252.422077361618</v>
+        <v>1272.962970514069</v>
       </c>
       <c r="F95" t="n">
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="G95" t="n">
-        <v>4997.164088672858</v>
+        <v>5040.933363235712</v>
       </c>
       <c r="H95" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -13843,16 +15064,16 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>636.5814125697908</v>
+        <v>622.3374522513224</v>
       </c>
       <c r="F96" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G96" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H96" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -13880,16 +15101,16 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>884.4538210040457</v>
+        <v>908.276281664092</v>
       </c>
       <c r="F97" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="G97" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H97" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -13917,16 +15138,16 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>132.2001081659486</v>
+        <v>137.5425201428571</v>
       </c>
       <c r="F98" t="n">
-        <v>7.56</v>
+        <v>7.33</v>
       </c>
       <c r="G98" t="n">
-        <v>999.4328177345715</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H98" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -13954,16 +15175,16 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>27.49471300507762</v>
+        <v>27.55361226146877</v>
       </c>
       <c r="F99" t="n">
-        <v>36.35</v>
+        <v>36.59</v>
       </c>
       <c r="G99" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H99" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -13991,16 +15212,16 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>32.81132034584936</v>
+        <v>33.36157090162615</v>
       </c>
       <c r="F100" t="n">
-        <v>30.46</v>
+        <v>30.22</v>
       </c>
       <c r="G100" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H100" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -14028,16 +15249,16 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>302.6749902285196</v>
+        <v>310.2112838914284</v>
       </c>
       <c r="F101" t="n">
-        <v>16.51</v>
+        <v>16.25</v>
       </c>
       <c r="G101" t="n">
-        <v>4997.164088672858</v>
+        <v>5040.933363235712</v>
       </c>
       <c r="H101" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -14065,16 +15286,16 @@
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>531.0482559694855</v>
+        <v>509.7000367275745</v>
       </c>
       <c r="F102" t="n">
-        <v>18.82</v>
+        <v>19.78</v>
       </c>
       <c r="G102" t="n">
-        <v>9994.328177345717</v>
+        <v>10081.86672647142</v>
       </c>
       <c r="H102" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -14102,16 +15323,16 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>24.16423640557475</v>
+        <v>22.72225991992658</v>
       </c>
       <c r="F103" t="n">
-        <v>41.36</v>
+        <v>44.37</v>
       </c>
       <c r="G103" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H103" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -14139,16 +15360,16 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>117.8576436007749</v>
+        <v>113.406824819701</v>
       </c>
       <c r="F104" t="n">
-        <v>8.48</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>999.4328177345716</v>
+        <v>1008.186672647142</v>
       </c>
       <c r="H104" t="n">
-        <v>99943.28177345716</v>
+        <v>148969.6627503418</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -18630,6 +19851,1079 @@
       <c r="I225" t="inlineStr">
         <is>
           <t>202506261600</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E226" t="n">
+        <v>14.22731607775436</v>
+      </c>
+      <c r="F226" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1028.350406100085</v>
+      </c>
+      <c r="H226" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1282.454079815634</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5091.342696868068</v>
+      </c>
+      <c r="H227" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9458.624056107734</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G228" t="n">
+        <v>5202.243230859254</v>
+      </c>
+      <c r="H228" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1850.149019338125</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5161.915763953369</v>
+      </c>
+      <c r="H229" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1265.325192690984</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5010.687763056297</v>
+      </c>
+      <c r="H230" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E231" t="n">
+        <v>628.5608267738355</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1018.268539373614</v>
+      </c>
+      <c r="H231" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E232" t="n">
+        <v>890.1107560308102</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G232" t="n">
+        <v>988.0229391941994</v>
+      </c>
+      <c r="H232" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E233" t="n">
+        <v>134.7916697399999</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G233" t="n">
+        <v>988.0229391941994</v>
+      </c>
+      <c r="H233" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>27.55361226146877</v>
+      </c>
+      <c r="F234" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1008.186672647142</v>
+      </c>
+      <c r="H234" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>10</v>
+      </c>
+      <c r="E235" t="n">
+        <v>333.6157090162616</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G235" t="n">
+        <v>10081.86672647142</v>
+      </c>
+      <c r="H235" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E236" t="n">
+        <v>299.6641002391199</v>
+      </c>
+      <c r="F236" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G236" t="n">
+        <v>4869.541628885698</v>
+      </c>
+      <c r="H236" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="E237" t="n">
+        <v>511.2291368377572</v>
+      </c>
+      <c r="F237" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10112.11232665084</v>
+      </c>
+      <c r="H237" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E238" t="n">
+        <v>24.54004071352071</v>
+      </c>
+      <c r="F238" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1088.841606458914</v>
+      </c>
+      <c r="H238" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E239" t="n">
+        <v>119.0771660606861</v>
+      </c>
+      <c r="F239" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1058.5960062795</v>
+      </c>
+      <c r="H239" t="n">
+        <v>148969.6627503418</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>202506271437</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E240" t="n">
+        <v>14.22731607775436</v>
+      </c>
+      <c r="F240" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1028.350406100085</v>
+      </c>
+      <c r="H240" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1282.454079815634</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G241" t="n">
+        <v>5091.342696868068</v>
+      </c>
+      <c r="H241" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E242" t="n">
+        <v>9458.624056107734</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G242" t="n">
+        <v>5202.243230859254</v>
+      </c>
+      <c r="H242" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1850.149019338125</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G243" t="n">
+        <v>5161.915763953369</v>
+      </c>
+      <c r="H243" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1265.325192690984</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5010.687763056297</v>
+      </c>
+      <c r="H244" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E245" t="n">
+        <v>628.5608267738355</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1018.268539373614</v>
+      </c>
+      <c r="H245" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E246" t="n">
+        <v>890.1107560308102</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G246" t="n">
+        <v>988.0229391941994</v>
+      </c>
+      <c r="H246" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E247" t="n">
+        <v>134.7916697399999</v>
+      </c>
+      <c r="F247" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G247" t="n">
+        <v>988.0229391941994</v>
+      </c>
+      <c r="H247" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E248" t="n">
+        <v>27.55361226146877</v>
+      </c>
+      <c r="F248" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1008.186672647142</v>
+      </c>
+      <c r="H248" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="E249" t="n">
+        <v>333.6157090162616</v>
+      </c>
+      <c r="F249" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10081.86672647142</v>
+      </c>
+      <c r="H249" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E250" t="n">
+        <v>299.6641002391199</v>
+      </c>
+      <c r="F250" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4869.541628885698</v>
+      </c>
+      <c r="H250" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="E251" t="n">
+        <v>511.2291368377572</v>
+      </c>
+      <c r="F251" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10112.11232665084</v>
+      </c>
+      <c r="H251" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E252" t="n">
+        <v>24.54004071352071</v>
+      </c>
+      <c r="F252" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1088.841606458914</v>
+      </c>
+      <c r="H252" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E253" t="n">
+        <v>27.43365095638482</v>
+      </c>
+      <c r="F253" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G253" t="n">
+        <v>201.6373345294284</v>
+      </c>
+      <c r="H253" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>119.0771660606861</v>
+      </c>
+      <c r="F254" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1058.5960062795</v>
+      </c>
+      <c r="H254" t="n">
+        <v>52909.63658052203</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>202506271600</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2685,16 +2685,16 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>42.69191156535827</v>
+        <v>42.89719527444501</v>
       </c>
       <c r="F61" t="n">
-        <v>72.28</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>3085.771367944096</v>
+        <v>3056.854135256952</v>
       </c>
       <c r="H61" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2722,16 +2722,16 @@
         <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>1843.352071651192</v>
+        <v>1852.638869852698</v>
       </c>
       <c r="F62" t="n">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="G62" t="n">
-        <v>5142.952279906826</v>
+        <v>5094.75689209492</v>
       </c>
       <c r="H62" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2759,16 +2759,16 @@
         <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>1298.725323208795</v>
+        <v>1276.881426590205</v>
       </c>
       <c r="F63" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="G63" t="n">
-        <v>5142.952279906826</v>
+        <v>5094.75689209492</v>
       </c>
       <c r="H63" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2796,16 +2796,16 @@
         <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>701.630597531627</v>
+        <v>673.9096418114974</v>
       </c>
       <c r="F64" t="n">
-        <v>7.33</v>
+        <v>7.56</v>
       </c>
       <c r="G64" t="n">
-        <v>5142.952279906826</v>
+        <v>5094.75689209492</v>
       </c>
       <c r="H64" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2833,16 +2833,16 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>56.22249007823805</v>
+        <v>56.06334956913254</v>
       </c>
       <c r="F65" t="n">
-        <v>36.59</v>
+        <v>36.35</v>
       </c>
       <c r="G65" t="n">
-        <v>2057.180911962731</v>
+        <v>2037.902756837968</v>
       </c>
       <c r="H65" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2870,16 +2870,16 @@
         <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>680.7349146137427</v>
+        <v>669.0422707938175</v>
       </c>
       <c r="F66" t="n">
-        <v>30.22</v>
+        <v>30.46</v>
       </c>
       <c r="G66" t="n">
-        <v>20571.80911962731</v>
+        <v>20379.02756837968</v>
       </c>
       <c r="H66" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2907,16 +2907,16 @@
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>316.4893710711893</v>
+        <v>308.5861230826723</v>
       </c>
       <c r="F67" t="n">
-        <v>16.25</v>
+        <v>16.51</v>
       </c>
       <c r="G67" t="n">
-        <v>5142.952279906826</v>
+        <v>5094.75689209492</v>
       </c>
       <c r="H67" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2944,16 +2944,16 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>520.0153973616609</v>
+        <v>541.4194359293219</v>
       </c>
       <c r="F68" t="n">
-        <v>19.78</v>
+        <v>18.82</v>
       </c>
       <c r="G68" t="n">
-        <v>10285.90455981365</v>
+        <v>10189.51378418984</v>
       </c>
       <c r="H68" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2981,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>501.7514419421294</v>
+        <v>521.4694874201556</v>
       </c>
       <c r="F69" t="n">
-        <v>20.5</v>
+        <v>19.54</v>
       </c>
       <c r="G69" t="n">
-        <v>10285.90455981365</v>
+        <v>10189.51378418984</v>
       </c>
       <c r="H69" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3018,16 +3018,16 @@
         <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>578.5098177622976</v>
+        <v>600.7968033130801</v>
       </c>
       <c r="F70" t="n">
-        <v>8.890000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="G70" t="n">
-        <v>5142.952279906826</v>
+        <v>5094.75689209492</v>
       </c>
       <c r="H70" t="n">
-        <v>236555.2330665944</v>
+        <v>101895.1378418984</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6348,16 +6348,16 @@
         <v>3.05</v>
       </c>
       <c r="E160" t="n">
-        <v>43.40344342478091</v>
+        <v>43.36408781678502</v>
       </c>
       <c r="F160" t="n">
-        <v>72.28</v>
+        <v>72.38</v>
       </c>
       <c r="G160" t="n">
-        <v>3137.200890743164</v>
+        <v>3138.692676178899</v>
       </c>
       <c r="H160" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -6385,16 +6385,16 @@
         <v>5.1</v>
       </c>
       <c r="E161" t="n">
-        <v>1880.219113084216</v>
+        <v>1874.394923713394</v>
       </c>
       <c r="F161" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="G161" t="n">
-        <v>5245.811325504962</v>
+        <v>5248.305786397504</v>
       </c>
       <c r="H161" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -6422,16 +6422,16 @@
         <v>4.96</v>
       </c>
       <c r="E162" t="n">
-        <v>1288.335520623124</v>
+        <v>1288.948143222996</v>
       </c>
       <c r="F162" t="n">
         <v>3.96</v>
       </c>
       <c r="G162" t="n">
-        <v>5101.808661667571</v>
+        <v>5104.234647163063</v>
       </c>
       <c r="H162" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -6459,16 +6459,16 @@
         <v>4.86</v>
       </c>
       <c r="E163" t="n">
-        <v>681.9849408007415</v>
+        <v>683.2413511703597</v>
       </c>
       <c r="F163" t="n">
-        <v>7.33</v>
+        <v>7.32</v>
       </c>
       <c r="G163" t="n">
-        <v>4998.949616069435</v>
+        <v>5001.326690567033</v>
       </c>
       <c r="H163" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -6496,16 +6496,16 @@
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>56.22249007823805</v>
+        <v>56.35704085215197</v>
       </c>
       <c r="F164" t="n">
-        <v>36.59</v>
+        <v>36.52</v>
       </c>
       <c r="G164" t="n">
-        <v>2057.180911962731</v>
+        <v>2058.15913192059</v>
       </c>
       <c r="H164" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -6533,16 +6533,16 @@
         <v>30</v>
       </c>
       <c r="E165" t="n">
-        <v>1021.102371920614</v>
+        <v>1021.587921204793</v>
       </c>
       <c r="F165" t="n">
         <v>30.22</v>
       </c>
       <c r="G165" t="n">
-        <v>30857.71367944096</v>
+        <v>30872.38697880885</v>
       </c>
       <c r="H165" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -6570,16 +6570,16 @@
         <v>4.81</v>
       </c>
       <c r="E166" t="n">
-        <v>304.4627749704841</v>
+        <v>304.6075515242472</v>
       </c>
       <c r="F166" t="n">
         <v>16.25</v>
       </c>
       <c r="G166" t="n">
-        <v>4947.520093270366</v>
+        <v>4949.872712269018</v>
       </c>
       <c r="H166" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -6607,16 +6607,16 @@
         <v>10</v>
       </c>
       <c r="E167" t="n">
-        <v>520.0153973616609</v>
+        <v>520.52583002544</v>
       </c>
       <c r="F167" t="n">
-        <v>19.78</v>
+        <v>19.77</v>
       </c>
       <c r="G167" t="n">
-        <v>10285.90455981365</v>
+        <v>10290.79565960295</v>
       </c>
       <c r="H167" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -6644,16 +6644,16 @@
         <v>9.99</v>
       </c>
       <c r="E168" t="n">
-        <v>501.2496905001872</v>
+        <v>497.8452718616633</v>
       </c>
       <c r="F168" t="n">
-        <v>20.5</v>
+        <v>20.65</v>
       </c>
       <c r="G168" t="n">
-        <v>10275.61865525384</v>
+        <v>10280.50486394335</v>
       </c>
       <c r="H168" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -6681,16 +6681,16 @@
         <v>5.22</v>
       </c>
       <c r="E169" t="n">
-        <v>603.9642497438386</v>
+        <v>608.357342504274</v>
       </c>
       <c r="F169" t="n">
-        <v>8.890000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="G169" t="n">
-        <v>5369.242180222726</v>
+        <v>5371.795334312739</v>
       </c>
       <c r="H169" t="n">
-        <v>236555.2330665944</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -6706,32 +6706,32 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>000333</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3.81</v>
+        <v>20.00999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>43.40344342478091</v>
+        <v>20591.88211486549</v>
       </c>
       <c r="F170" t="n">
-        <v>72.28</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>3137.200890743164</v>
+        <v>20591.88211486549</v>
       </c>
       <c r="H170" t="n">
-        <v>82276.95057394942</v>
+        <v>102907.9565960295</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>202506271600</t>
+          <t>202506271437</t>
         </is>
       </c>
     </row>
@@ -6743,28 +6743,28 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>000333</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>6.38</v>
+        <v>3.05</v>
       </c>
       <c r="E171" t="n">
-        <v>1880.219113084216</v>
+        <v>43.36476491361748</v>
       </c>
       <c r="F171" t="n">
-        <v>2.79</v>
+        <v>72.3</v>
       </c>
       <c r="G171" t="n">
-        <v>5245.811325504962</v>
+        <v>3135.272503254544</v>
       </c>
       <c r="H171" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -6780,28 +6780,28 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="E172" t="n">
-        <v>1288.335520623124</v>
+        <v>1872.352431685969</v>
       </c>
       <c r="F172" t="n">
-        <v>3.96</v>
+        <v>2.8</v>
       </c>
       <c r="G172" t="n">
-        <v>5101.808661667571</v>
+        <v>5242.586808720712</v>
       </c>
       <c r="H172" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -6817,28 +6817,28 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>6.08</v>
+        <v>4.96</v>
       </c>
       <c r="E173" t="n">
-        <v>681.9849408007415</v>
+        <v>1287.543601270288</v>
       </c>
       <c r="F173" t="n">
-        <v>7.33</v>
+        <v>3.96</v>
       </c>
       <c r="G173" t="n">
-        <v>4998.949616069435</v>
+        <v>5098.672661030339</v>
       </c>
       <c r="H173" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -6854,28 +6854,28 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>600085</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>同仁堂</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>2.5</v>
+        <v>4.86</v>
       </c>
       <c r="E174" t="n">
-        <v>56.22249007823805</v>
+        <v>681.5657355049799</v>
       </c>
       <c r="F174" t="n">
-        <v>36.59</v>
+        <v>7.33</v>
       </c>
       <c r="G174" t="n">
-        <v>2057.180911962731</v>
+        <v>4995.876841251503</v>
       </c>
       <c r="H174" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -6891,28 +6891,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>600900</t>
+          <t>600085</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>同仁堂</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>37.5</v>
+        <v>2</v>
       </c>
       <c r="E175" t="n">
-        <v>1021.102371920614</v>
+        <v>56.17257911411885</v>
       </c>
       <c r="F175" t="n">
-        <v>30.22</v>
+        <v>36.6</v>
       </c>
       <c r="G175" t="n">
-        <v>30857.71367944096</v>
+        <v>2055.91639557675</v>
       </c>
       <c r="H175" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -6928,28 +6928,28 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>600989</t>
+          <t>600900</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>宝丰能源</t>
+          <t>长江电力</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6.01</v>
+        <v>30</v>
       </c>
       <c r="E176" t="n">
-        <v>304.4627749704841</v>
+        <v>1020.137146333154</v>
       </c>
       <c r="F176" t="n">
-        <v>16.25</v>
+        <v>30.23</v>
       </c>
       <c r="G176" t="n">
-        <v>4947.520093270366</v>
+        <v>30838.74593365125</v>
       </c>
       <c r="H176" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -6965,28 +6965,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>601899</t>
+          <t>600989</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>宝丰能源</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>12.5</v>
+        <v>4.81</v>
       </c>
       <c r="E177" t="n">
-        <v>520.0153973616609</v>
+        <v>304.275626545359</v>
       </c>
       <c r="F177" t="n">
-        <v>19.78</v>
+        <v>16.25</v>
       </c>
       <c r="G177" t="n">
-        <v>10285.90455981365</v>
+        <v>4944.478931362083</v>
       </c>
       <c r="H177" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>HK02899</t>
+          <t>601899</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7011,19 +7011,19 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>12.49</v>
+        <v>10</v>
       </c>
       <c r="E178" t="n">
-        <v>501.2496905001872</v>
+        <v>520.2217600143598</v>
       </c>
       <c r="F178" t="n">
-        <v>20.5</v>
+        <v>19.76</v>
       </c>
       <c r="G178" t="n">
-        <v>10275.61865525384</v>
+        <v>10279.58197788375</v>
       </c>
       <c r="H178" t="n">
-        <v>82276.95057394942</v>
+        <v>102795.8197788375</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -7039,32 +7039,513 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E179" t="n">
+        <v>504.6340243688386</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="G179" t="n">
+        <v>10269.30239590587</v>
+      </c>
+      <c r="H179" t="n">
+        <v>102795.8197788375</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>HK06881</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>中国银河</t>
         </is>
       </c>
-      <c r="D179" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="E179" t="n">
-        <v>603.9642497438386</v>
-      </c>
-      <c r="F179" t="n">
+      <c r="D180" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E180" t="n">
+        <v>604.9539788562929</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5365.941792455317</v>
+      </c>
+      <c r="H180" t="n">
+        <v>102795.8197788375</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20.00999999999999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="H181" t="n">
+        <v>102795.8197788375</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>43.36476491361748</v>
+      </c>
+      <c r="F182" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3134.405207956271</v>
+      </c>
+      <c r="H182" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1872.352431685969</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5223.863284403853</v>
+      </c>
+      <c r="H183" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1287.543601270288</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5098.67266103034</v>
+      </c>
+      <c r="H184" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E185" t="n">
+        <v>681.5657355049799</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4995.876841251503</v>
+      </c>
+      <c r="H185" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>56.17257911411885</v>
+      </c>
+      <c r="F186" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2055.354669785609</v>
+      </c>
+      <c r="H186" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1020.137146333154</v>
+      </c>
+      <c r="F187" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G187" t="n">
+        <v>30828.54456218791</v>
+      </c>
+      <c r="H187" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E188" t="n">
+        <v>304.275626545359</v>
+      </c>
+      <c r="F188" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4944.478931362083</v>
+      </c>
+      <c r="H188" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" t="n">
+        <v>520.2217600143598</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G189" t="n">
+        <v>10289.98641308404</v>
+      </c>
+      <c r="H189" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="E190" t="n">
+        <v>504.6340243688386</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>10344.99749956119</v>
+      </c>
+      <c r="H190" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E191" t="n">
+        <v>604.9539788562929</v>
+      </c>
+      <c r="F191" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="G179" t="n">
-        <v>5369.242180222726</v>
-      </c>
-      <c r="H179" t="n">
-        <v>82276.95057394942</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>202506271600</t>
+      <c r="G191" t="n">
+        <v>5378.040872032444</v>
+      </c>
+      <c r="H191" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20</v>
+      </c>
+      <c r="E192" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="H192" t="n">
+        <v>102863.6644804006</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>202506271630</t>
         </is>
       </c>
     </row>
@@ -7079,7 +7560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8708,16 +9189,16 @@
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.008810812964</v>
+        <v>1264.047242468624</v>
       </c>
       <c r="F44" t="n">
-        <v>3.97</v>
+        <v>3.89</v>
       </c>
       <c r="G44" t="n">
-        <v>5026.054978927468</v>
+        <v>4917.143773202947</v>
       </c>
       <c r="H44" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -8745,16 +9226,16 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>9138.281779868123</v>
+        <v>9277.629760760277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="G45" t="n">
-        <v>5026.054978927468</v>
+        <v>4917.143773202947</v>
       </c>
       <c r="H45" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -8782,16 +9263,16 @@
         <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>3102.503073412017</v>
+        <v>3131.938709046463</v>
       </c>
       <c r="F46" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G46" t="n">
-        <v>5026.054978927468</v>
+        <v>4917.143773202947</v>
       </c>
       <c r="H46" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -8819,16 +9300,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>905.5954916986428</v>
+        <v>870.2909333102562</v>
       </c>
       <c r="F47" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>1005.210995785494</v>
+        <v>983.4287546405893</v>
       </c>
       <c r="H47" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -8856,16 +9337,16 @@
         <v>45</v>
       </c>
       <c r="E48" t="n">
-        <v>1019.483768545125</v>
+        <v>1069.978093782073</v>
       </c>
       <c r="F48" t="n">
-        <v>44.37</v>
+        <v>41.36</v>
       </c>
       <c r="G48" t="n">
-        <v>45234.49481034721</v>
+        <v>44254.29395882652</v>
       </c>
       <c r="H48" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -8893,16 +9374,16 @@
         <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>180.28893906077</v>
+        <v>147.121987895035</v>
       </c>
       <c r="F49" t="n">
-        <v>50.18</v>
+        <v>60.16</v>
       </c>
       <c r="G49" t="n">
-        <v>9046.898962069441</v>
+        <v>8850.858791765304</v>
       </c>
       <c r="H49" t="n">
-        <v>212461.3960692219</v>
+        <v>98342.87546405893</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -11039,16 +11520,16 @@
         <v>4.93</v>
       </c>
       <c r="E107" t="n">
-        <v>1248.284687461583</v>
+        <v>1244.559347113493</v>
       </c>
       <c r="F107" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="G107" t="n">
-        <v>4955.690209222483</v>
+        <v>4953.346201511701</v>
       </c>
       <c r="H107" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -11076,16 +11557,16 @@
         <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>18276.56355973625</v>
+        <v>18267.91886967251</v>
       </c>
       <c r="F108" t="n">
         <v>0.55</v>
       </c>
       <c r="G108" t="n">
-        <v>10052.10995785494</v>
+        <v>10047.35537831988</v>
       </c>
       <c r="H108" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -11113,16 +11594,16 @@
         <v>4.95</v>
       </c>
       <c r="E109" t="n">
-        <v>3071.478042677897</v>
+        <v>3070.025254486631</v>
       </c>
       <c r="F109" t="n">
         <v>1.62</v>
       </c>
       <c r="G109" t="n">
-        <v>4975.794429138194</v>
+        <v>4973.440912268342</v>
       </c>
       <c r="H109" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -11150,16 +11631,16 @@
         <v>0.95</v>
       </c>
       <c r="E110" t="n">
-        <v>860.3157171137105</v>
+        <v>859.9087936399898</v>
       </c>
       <c r="F110" t="n">
         <v>1.11</v>
       </c>
       <c r="G110" t="n">
-        <v>954.9504459962188</v>
+        <v>954.4987609403887</v>
       </c>
       <c r="H110" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -11187,16 +11668,16 @@
         <v>42</v>
       </c>
       <c r="E111" t="n">
-        <v>951.5181839754504</v>
+        <v>952.5709388023365</v>
       </c>
       <c r="F111" t="n">
-        <v>44.37</v>
+        <v>44.3</v>
       </c>
       <c r="G111" t="n">
-        <v>42218.86182299073</v>
+        <v>42198.8925889435</v>
       </c>
       <c r="H111" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -11224,16 +11705,16 @@
         <v>7.35</v>
       </c>
       <c r="E112" t="n">
-        <v>147.2359668996289</v>
+        <v>146.8736317236498</v>
       </c>
       <c r="F112" t="n">
-        <v>50.18</v>
+        <v>50.28</v>
       </c>
       <c r="G112" t="n">
-        <v>7388.300819023378</v>
+        <v>7384.806203065114</v>
       </c>
       <c r="H112" t="n">
-        <v>212461.3960692219</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -11249,32 +11730,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>000725</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>京东方A</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6.93</v>
+        <v>29.81999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>1248.284687461583</v>
+        <v>29961.21373814988</v>
       </c>
       <c r="F113" t="n">
-        <v>3.97</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>4955.690209222483</v>
+        <v>29961.21373814988</v>
       </c>
       <c r="H113" t="n">
-        <v>71550.91868001144</v>
+        <v>100473.5537831988</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>202506271600</t>
+          <t>202506271437</t>
         </is>
       </c>
     </row>
@@ -11286,28 +11767,28 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>000725</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>京东方A</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14.05</v>
+        <v>4.93</v>
       </c>
       <c r="E114" t="n">
-        <v>18276.56355973625</v>
+        <v>1248.221835380318</v>
       </c>
       <c r="F114" t="n">
-        <v>0.55</v>
+        <v>3.97</v>
       </c>
       <c r="G114" t="n">
-        <v>10052.10995785494</v>
+        <v>4955.440686459862</v>
       </c>
       <c r="H114" t="n">
-        <v>71550.91868001144</v>
+        <v>100516.0382649059</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -11323,28 +11804,28 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>6.95</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>3071.478042677897</v>
+        <v>18275.64332089199</v>
       </c>
       <c r="F115" t="n">
-        <v>1.62</v>
+        <v>0.55</v>
       </c>
       <c r="G115" t="n">
-        <v>4975.794429138194</v>
+        <v>10051.60382649059</v>
       </c>
       <c r="H115" t="n">
-        <v>71550.91868001144</v>
+        <v>100516.0382649059</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -11360,28 +11841,28 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1.33</v>
+        <v>4.95</v>
       </c>
       <c r="E116" t="n">
-        <v>860.3157171137105</v>
+        <v>3071.323391427681</v>
       </c>
       <c r="F116" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="G116" t="n">
-        <v>954.9504459962188</v>
+        <v>4975.543894112844</v>
       </c>
       <c r="H116" t="n">
-        <v>71550.91868001144</v>
+        <v>100516.0382649059</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -11397,28 +11878,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>603119</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>59.01</v>
+        <v>0.95</v>
       </c>
       <c r="E117" t="n">
-        <v>951.5181839754504</v>
+        <v>860.2723995645101</v>
       </c>
       <c r="F117" t="n">
-        <v>44.37</v>
+        <v>1.11</v>
       </c>
       <c r="G117" t="n">
-        <v>42218.86182299073</v>
+        <v>954.9023635166063</v>
       </c>
       <c r="H117" t="n">
-        <v>71550.91868001144</v>
+        <v>100516.0382649059</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -11434,28 +11915,28 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>688290</t>
+          <t>603119</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>景业智能</t>
+          <t>浙江荣泰</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>10.33</v>
+        <v>42</v>
       </c>
       <c r="E118" t="n">
-        <v>147.2359668996289</v>
+        <v>951.4702743128352</v>
       </c>
       <c r="F118" t="n">
-        <v>50.18</v>
+        <v>44.37</v>
       </c>
       <c r="G118" t="n">
-        <v>7388.300819023378</v>
+        <v>42216.73607126049</v>
       </c>
       <c r="H118" t="n">
-        <v>71550.91868001144</v>
+        <v>100516.0382649059</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11471,32 +11952,402 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E119" t="n">
+        <v>147.1698966627607</v>
+      </c>
+      <c r="F119" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>7387.928812470585</v>
+      </c>
+      <c r="H119" t="n">
+        <v>100516.0382649059</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>HK01896</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>猫眼娱乐</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>136.763400787142</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>136.3853979171044</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1005.160382649059</v>
+      </c>
+      <c r="H120" t="n">
+        <v>100516.0382649059</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>28.81999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100516.0382649059</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1248.221835380318</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G122" t="n">
+        <v>4955.440686459862</v>
+      </c>
+      <c r="H122" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>18275.64332089199</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10051.6038264906</v>
+      </c>
+      <c r="H123" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3071.323391427681</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4975.543894112844</v>
+      </c>
+      <c r="H124" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E125" t="n">
+        <v>860.2723995645101</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>954.9023635166063</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>42</v>
+      </c>
+      <c r="E126" t="n">
+        <v>951.4702743128352</v>
+      </c>
+      <c r="F126" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G126" t="n">
+        <v>42216.73607126049</v>
+      </c>
+      <c r="H126" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
         <v>7.35</v>
       </c>
-      <c r="G119" t="n">
-        <v>1005.210995785494</v>
-      </c>
-      <c r="H119" t="n">
-        <v>71550.91868001144</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>202506271600</t>
+      <c r="E127" t="n">
+        <v>147.1698966627607</v>
+      </c>
+      <c r="F127" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="G127" t="n">
+        <v>7384.985414537331</v>
+      </c>
+      <c r="H127" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>136.3853979171044</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1002.432674690717</v>
+      </c>
+      <c r="H128" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="E129" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="H129" t="n">
+        <v>100510.3671590143</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>202506271630</t>
         </is>
       </c>
     </row>
@@ -11511,7 +12362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14879,16 +15730,16 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>13.94834909583761</v>
+        <v>14.02515882310653</v>
       </c>
       <c r="F91" t="n">
-        <v>72.28</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H91" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -14916,16 +15767,16 @@
         <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>1269.756514668945</v>
+        <v>1284.618017653691</v>
       </c>
       <c r="F92" t="n">
-        <v>3.97</v>
+        <v>3.89</v>
       </c>
       <c r="G92" t="n">
-        <v>5040.933363235712</v>
+        <v>4997.164088672858</v>
       </c>
       <c r="H92" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -14953,16 +15804,16 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>9165.333387701294</v>
+        <v>9428.611488061997</v>
       </c>
       <c r="F93" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="G93" t="n">
-        <v>5040.933363235712</v>
+        <v>4997.164088672858</v>
       </c>
       <c r="H93" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -14990,16 +15841,16 @@
         <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>1806.786151697388</v>
+        <v>1817.150577699221</v>
       </c>
       <c r="F94" t="n">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="G94" t="n">
-        <v>5040.933363235712</v>
+        <v>4997.164088672858</v>
       </c>
       <c r="H94" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -15027,16 +15878,16 @@
         <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>1272.962970514069</v>
+        <v>1252.422077361618</v>
       </c>
       <c r="F95" t="n">
-        <v>3.96</v>
+        <v>3.99</v>
       </c>
       <c r="G95" t="n">
-        <v>5040.933363235712</v>
+        <v>4997.164088672858</v>
       </c>
       <c r="H95" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -15064,16 +15915,16 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>622.3374522513224</v>
+        <v>636.5814125697908</v>
       </c>
       <c r="F96" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G96" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H96" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -15101,16 +15952,16 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>908.276281664092</v>
+        <v>884.4538210040457</v>
       </c>
       <c r="F97" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="G97" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H97" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -15138,16 +15989,16 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>137.5425201428571</v>
+        <v>132.2001081659486</v>
       </c>
       <c r="F98" t="n">
-        <v>7.33</v>
+        <v>7.56</v>
       </c>
       <c r="G98" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345715</v>
       </c>
       <c r="H98" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -15175,16 +16026,16 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>27.55361226146877</v>
+        <v>27.49471300507762</v>
       </c>
       <c r="F99" t="n">
-        <v>36.59</v>
+        <v>36.35</v>
       </c>
       <c r="G99" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H99" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -15212,16 +16063,16 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>33.36157090162615</v>
+        <v>32.81132034584936</v>
       </c>
       <c r="F100" t="n">
-        <v>30.22</v>
+        <v>30.46</v>
       </c>
       <c r="G100" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H100" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -15249,16 +16100,16 @@
         <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>310.2112838914284</v>
+        <v>302.6749902285196</v>
       </c>
       <c r="F101" t="n">
-        <v>16.25</v>
+        <v>16.51</v>
       </c>
       <c r="G101" t="n">
-        <v>5040.933363235712</v>
+        <v>4997.164088672858</v>
       </c>
       <c r="H101" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -15286,16 +16137,16 @@
         <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>509.7000367275745</v>
+        <v>531.0482559694855</v>
       </c>
       <c r="F102" t="n">
-        <v>19.78</v>
+        <v>18.82</v>
       </c>
       <c r="G102" t="n">
-        <v>10081.86672647142</v>
+        <v>9994.328177345717</v>
       </c>
       <c r="H102" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -15323,16 +16174,16 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>22.72225991992658</v>
+        <v>24.16423640557475</v>
       </c>
       <c r="F103" t="n">
-        <v>44.37</v>
+        <v>41.36</v>
       </c>
       <c r="G103" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H103" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -15360,16 +16211,16 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>113.406824819701</v>
+        <v>117.8576436007749</v>
       </c>
       <c r="F104" t="n">
-        <v>8.890000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="G104" t="n">
-        <v>1008.186672647142</v>
+        <v>999.4328177345716</v>
       </c>
       <c r="H104" t="n">
-        <v>148969.6627503418</v>
+        <v>99943.28177345716</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -19874,16 +20725,16 @@
         <v>1.02</v>
       </c>
       <c r="E226" t="n">
-        <v>14.22731607775436</v>
+        <v>14.2097876134002</v>
       </c>
       <c r="F226" t="n">
-        <v>72.28</v>
+        <v>72.38</v>
       </c>
       <c r="G226" t="n">
-        <v>1028.350406100085</v>
+        <v>1028.504427457906</v>
       </c>
       <c r="H226" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
@@ -19911,16 +20762,16 @@
         <v>5.05</v>
       </c>
       <c r="E227" t="n">
-        <v>1282.454079815634</v>
+        <v>1279.423430550405</v>
       </c>
       <c r="F227" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="G227" t="n">
-        <v>5091.342696868068</v>
+        <v>5092.105253590612</v>
       </c>
       <c r="H227" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -19948,16 +20799,16 @@
         <v>5.16</v>
       </c>
       <c r="E228" t="n">
-        <v>9458.624056107734</v>
+        <v>9460.040723142236</v>
       </c>
       <c r="F228" t="n">
         <v>0.55</v>
       </c>
       <c r="G228" t="n">
-        <v>5202.243230859254</v>
+        <v>5203.02239772823</v>
       </c>
       <c r="H228" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -19985,16 +20836,16 @@
         <v>5.12</v>
       </c>
       <c r="E229" t="n">
-        <v>1850.149019338125</v>
+        <v>1843.817460988963</v>
       </c>
       <c r="F229" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="G229" t="n">
-        <v>5161.915763953369</v>
+        <v>5162.688890769096</v>
       </c>
       <c r="H229" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -20022,16 +20873,16 @@
         <v>4.97</v>
       </c>
       <c r="E230" t="n">
-        <v>1265.325192690984</v>
+        <v>1265.514706987966</v>
       </c>
       <c r="F230" t="n">
         <v>3.96</v>
       </c>
       <c r="G230" t="n">
-        <v>5010.687763056297</v>
+        <v>5011.438239672345</v>
       </c>
       <c r="H230" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -20059,16 +20910,16 @@
         <v>1.01</v>
       </c>
       <c r="E231" t="n">
-        <v>628.5608267738355</v>
+        <v>628.6549695790879</v>
       </c>
       <c r="F231" t="n">
         <v>1.62</v>
       </c>
       <c r="G231" t="n">
-        <v>1018.268539373614</v>
+        <v>1018.421050718123</v>
       </c>
       <c r="H231" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -20096,16 +20947,16 @@
         <v>0.98</v>
       </c>
       <c r="E232" t="n">
-        <v>890.1107560308102</v>
+        <v>890.2440725214165</v>
       </c>
       <c r="F232" t="n">
         <v>1.11</v>
       </c>
       <c r="G232" t="n">
-        <v>988.0229391941994</v>
+        <v>988.1709204987724</v>
       </c>
       <c r="H232" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -20133,16 +20984,16 @@
         <v>0.98</v>
       </c>
       <c r="E233" t="n">
-        <v>134.7916697399999</v>
+        <v>134.9960273905427</v>
       </c>
       <c r="F233" t="n">
-        <v>7.33</v>
+        <v>7.32</v>
       </c>
       <c r="G233" t="n">
-        <v>988.0229391941994</v>
+        <v>988.1709204987725</v>
       </c>
       <c r="H233" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -20170,16 +21021,16 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>27.55361226146877</v>
+        <v>27.61056062372232</v>
       </c>
       <c r="F234" t="n">
-        <v>36.59</v>
+        <v>36.52</v>
       </c>
       <c r="G234" t="n">
-        <v>1008.186672647142</v>
+        <v>1008.337673978339</v>
       </c>
       <c r="H234" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -20207,16 +21058,16 @@
         <v>10</v>
       </c>
       <c r="E235" t="n">
-        <v>333.6157090162616</v>
+        <v>333.6656763660951</v>
       </c>
       <c r="F235" t="n">
         <v>30.22</v>
       </c>
       <c r="G235" t="n">
-        <v>10081.86672647142</v>
+        <v>10083.37673978339</v>
       </c>
       <c r="H235" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -20244,16 +21095,16 @@
         <v>4.83</v>
       </c>
       <c r="E236" t="n">
-        <v>299.6641002391199</v>
+        <v>299.7089824809464</v>
       </c>
       <c r="F236" t="n">
         <v>16.25</v>
       </c>
       <c r="G236" t="n">
-        <v>4869.541628885698</v>
+        <v>4870.270965315378</v>
       </c>
       <c r="H236" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -20281,16 +21132,16 @@
         <v>10.03</v>
       </c>
       <c r="E237" t="n">
-        <v>511.2291368377572</v>
+        <v>511.564333333472</v>
       </c>
       <c r="F237" t="n">
-        <v>19.78</v>
+        <v>19.77</v>
       </c>
       <c r="G237" t="n">
-        <v>10112.11232665084</v>
+        <v>10113.62687000274</v>
       </c>
       <c r="H237" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -20318,16 +21169,16 @@
         <v>1.08</v>
       </c>
       <c r="E238" t="n">
-        <v>24.54004071352071</v>
+        <v>24.58249859811753</v>
       </c>
       <c r="F238" t="n">
-        <v>44.37</v>
+        <v>44.3</v>
       </c>
       <c r="G238" t="n">
-        <v>1088.841606458914</v>
+        <v>1089.004687896606</v>
       </c>
       <c r="H238" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -20355,16 +21206,16 @@
         <v>1.05</v>
       </c>
       <c r="E239" t="n">
-        <v>119.0771660606861</v>
+        <v>119.9042534175828</v>
       </c>
       <c r="F239" t="n">
-        <v>8.890000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="G239" t="n">
-        <v>1058.5960062795</v>
+        <v>1058.754557677256</v>
       </c>
       <c r="H239" t="n">
-        <v>148969.6627503418</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -20380,32 +21231,32 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>000333</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>美的集团</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1.94</v>
+        <v>47.72</v>
       </c>
       <c r="E240" t="n">
-        <v>14.22731607775436</v>
+        <v>48117.87380224634</v>
       </c>
       <c r="F240" t="n">
-        <v>72.28</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
-        <v>1028.350406100085</v>
+        <v>48117.87380224634</v>
       </c>
       <c r="H240" t="n">
-        <v>52909.63658052203</v>
+        <v>100833.7673978339</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>202506271600</t>
+          <t>202506271437</t>
         </is>
       </c>
     </row>
@@ -20417,28 +21268,28 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>000725</t>
+          <t>000333</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>京东方A</t>
+          <t>美的集团</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>9.619999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="E241" t="n">
-        <v>1282.454079815634</v>
+        <v>14.22471587925232</v>
       </c>
       <c r="F241" t="n">
-        <v>3.97</v>
+        <v>72.3</v>
       </c>
       <c r="G241" t="n">
-        <v>5091.342696868068</v>
+        <v>1028.446958069943</v>
       </c>
       <c r="H241" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -20454,28 +21305,28 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>159781</t>
+          <t>000725</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>科创创业ETF</t>
+          <t>京东方A</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>9.83</v>
+        <v>5.05</v>
       </c>
       <c r="E242" t="n">
-        <v>9458.624056107734</v>
+        <v>1282.574489616538</v>
       </c>
       <c r="F242" t="n">
-        <v>0.55</v>
+        <v>3.97</v>
       </c>
       <c r="G242" t="n">
-        <v>5202.243230859254</v>
+        <v>5091.820723777657</v>
       </c>
       <c r="H242" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -20491,28 +21342,28 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>510050</t>
+          <t>159781</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>上证50ETF</t>
+          <t>科创创业ETF</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>9.76</v>
+        <v>5.16</v>
       </c>
       <c r="E243" t="n">
-        <v>1850.149019338125</v>
+        <v>9459.512127702146</v>
       </c>
       <c r="F243" t="n">
-        <v>2.79</v>
+        <v>0.55</v>
       </c>
       <c r="G243" t="n">
-        <v>5161.915763953369</v>
+        <v>5202.73167023618</v>
       </c>
       <c r="H243" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -20528,28 +21379,28 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>510050</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>上证50ETF</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>9.470000000000001</v>
+        <v>5.12</v>
       </c>
       <c r="E244" t="n">
-        <v>1265.325192690984</v>
+        <v>1843.714434635192</v>
       </c>
       <c r="F244" t="n">
-        <v>3.96</v>
+        <v>2.8</v>
       </c>
       <c r="G244" t="n">
-        <v>5010.687763056297</v>
+        <v>5162.400416978536</v>
       </c>
       <c r="H244" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -20565,28 +21416,28 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>513100</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>纳指ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1.92</v>
+        <v>4.97</v>
       </c>
       <c r="E245" t="n">
-        <v>628.5608267738355</v>
+        <v>1265.443994258174</v>
       </c>
       <c r="F245" t="n">
-        <v>1.62</v>
+        <v>3.96</v>
       </c>
       <c r="G245" t="n">
-        <v>1018.268539373614</v>
+        <v>5011.158217262368</v>
       </c>
       <c r="H245" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -20602,28 +21453,28 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>513290</t>
+          <t>513100</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>纳指生物科技ETF</t>
+          <t>纳指ETF</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="E246" t="n">
-        <v>890.1107560308102</v>
+        <v>628.619842441686</v>
       </c>
       <c r="F246" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="G246" t="n">
-        <v>988.0229391941994</v>
+        <v>1018.364144755531</v>
       </c>
       <c r="H246" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -20639,28 +21490,28 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>518880</t>
+          <t>513290</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>纳指生物科技ETF</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1.87</v>
+        <v>0.98</v>
       </c>
       <c r="E247" t="n">
-        <v>134.7916697399999</v>
+        <v>890.1943286597277</v>
       </c>
       <c r="F247" t="n">
-        <v>7.33</v>
+        <v>1.11</v>
       </c>
       <c r="G247" t="n">
-        <v>988.0229391941994</v>
+        <v>988.1157048122978</v>
       </c>
       <c r="H247" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -20676,28 +21527,28 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>600085</t>
+          <t>518880</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>同仁堂</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="E248" t="n">
-        <v>27.55361226146877</v>
+        <v>134.8043253495631</v>
       </c>
       <c r="F248" t="n">
-        <v>36.59</v>
+        <v>7.33</v>
       </c>
       <c r="G248" t="n">
-        <v>1008.186672647142</v>
+        <v>988.1157048122977</v>
       </c>
       <c r="H248" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -20713,28 +21564,28 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>600900</t>
+          <t>600085</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>同仁堂</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>19.05</v>
+        <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>333.6157090162616</v>
+        <v>27.5486702579541</v>
       </c>
       <c r="F249" t="n">
-        <v>30.22</v>
+        <v>36.6</v>
       </c>
       <c r="G249" t="n">
-        <v>10081.86672647142</v>
+        <v>1008.28133144112</v>
       </c>
       <c r="H249" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -20750,28 +21601,28 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>600989</t>
+          <t>600900</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>宝丰能源</t>
+          <t>长江电力</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E250" t="n">
-        <v>299.6641002391199</v>
+        <v>333.5366627327556</v>
       </c>
       <c r="F250" t="n">
-        <v>16.25</v>
+        <v>30.23</v>
       </c>
       <c r="G250" t="n">
-        <v>4869.541628885698</v>
+        <v>10082.8133144112</v>
       </c>
       <c r="H250" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -20787,28 +21638,28 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>601899</t>
+          <t>600989</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>紫金矿业</t>
+          <t>宝丰能源</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>19.11</v>
+        <v>4.83</v>
       </c>
       <c r="E251" t="n">
-        <v>511.2291368377572</v>
+        <v>299.6922357452684</v>
       </c>
       <c r="F251" t="n">
-        <v>19.78</v>
+        <v>16.25</v>
       </c>
       <c r="G251" t="n">
-        <v>10112.11232665084</v>
+        <v>4869.998830860612</v>
       </c>
       <c r="H251" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -20824,28 +21675,28 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>603119</t>
+          <t>601899</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>浙江荣泰</t>
+          <t>紫金矿业</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2.06</v>
+        <v>10.03</v>
       </c>
       <c r="E252" t="n">
-        <v>24.54004071352071</v>
+        <v>511.7946231960747</v>
       </c>
       <c r="F252" t="n">
-        <v>44.37</v>
+        <v>19.76</v>
       </c>
       <c r="G252" t="n">
-        <v>1088.841606458914</v>
+        <v>10113.06175435444</v>
       </c>
       <c r="H252" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -20861,28 +21712,28 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>HK01896</t>
+          <t>603119</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>猫眼娱乐</t>
+          <t>浙江荣泰</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>0.38</v>
+        <v>1.08</v>
       </c>
       <c r="E253" t="n">
-        <v>27.43365095638482</v>
+        <v>24.54234478152828</v>
       </c>
       <c r="F253" t="n">
-        <v>7.35</v>
+        <v>44.37</v>
       </c>
       <c r="G253" t="n">
-        <v>201.6373345294284</v>
+        <v>1088.94383795641</v>
       </c>
       <c r="H253" t="n">
-        <v>52909.63658052203</v>
+        <v>100828.133144112</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -20898,32 +21749,698 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>27.36177290206568</v>
+      </c>
+      <c r="F254" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G254" t="n">
+        <v>201.6562662882241</v>
+      </c>
+      <c r="H254" t="n">
+        <v>100828.133144112</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
           <t>HK06881</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>中国银河</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>2</v>
-      </c>
-      <c r="E254" t="n">
-        <v>119.0771660606861</v>
-      </c>
-      <c r="F254" t="n">
+      <c r="D255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E255" t="n">
+        <v>119.3568656159162</v>
+      </c>
+      <c r="F255" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1058.695398013176</v>
+      </c>
+      <c r="H255" t="n">
+        <v>100828.133144112</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="E256" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="H256" t="n">
+        <v>100828.133144112</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>202506271600</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E257" t="n">
+        <v>14.22471587925232</v>
+      </c>
+      <c r="F257" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1028.162463752358</v>
+      </c>
+      <c r="H257" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1282.574489616538</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G258" t="n">
+        <v>5091.820723777656</v>
+      </c>
+      <c r="H258" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9459.512127702146</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G259" t="n">
+        <v>5202.73167023618</v>
+      </c>
+      <c r="H259" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1843.714434635192</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G260" t="n">
+        <v>5143.963272632186</v>
+      </c>
+      <c r="H260" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1265.443994258174</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G261" t="n">
+        <v>5011.158217262368</v>
+      </c>
+      <c r="H261" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E262" t="n">
+        <v>628.619842441686</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1018.364144755531</v>
+      </c>
+      <c r="H262" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E263" t="n">
+        <v>890.1943286597277</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G263" t="n">
+        <v>988.1157048122978</v>
+      </c>
+      <c r="H263" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E264" t="n">
+        <v>134.8043253495631</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G264" t="n">
+        <v>988.1157048122975</v>
+      </c>
+      <c r="H264" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>27.5486702579541</v>
+      </c>
+      <c r="F265" t="n">
+        <v>36.59</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1008.005844738541</v>
+      </c>
+      <c r="H265" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>10</v>
+      </c>
+      <c r="E266" t="n">
+        <v>333.5366627327556</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="G266" t="n">
+        <v>10079.47794778387</v>
+      </c>
+      <c r="H266" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E267" t="n">
+        <v>299.6922357452684</v>
+      </c>
+      <c r="F267" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="G267" t="n">
+        <v>4869.998830860612</v>
+      </c>
+      <c r="H267" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E268" t="n">
+        <v>511.7946231960747</v>
+      </c>
+      <c r="F268" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="G268" t="n">
+        <v>10123.29764681836</v>
+      </c>
+      <c r="H268" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E269" t="n">
+        <v>24.54234478152828</v>
+      </c>
+      <c r="F269" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1088.94383795641</v>
+      </c>
+      <c r="H269" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>27.36177290206568</v>
+      </c>
+      <c r="F270" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G270" t="n">
+        <v>201.1090308301827</v>
+      </c>
+      <c r="H270" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E271" t="n">
+        <v>119.3568656159162</v>
+      </c>
+      <c r="F271" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="G254" t="n">
-        <v>1058.5960062795</v>
-      </c>
-      <c r="H254" t="n">
-        <v>52909.63658052203</v>
-      </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>202506271600</t>
+      <c r="G271" t="n">
+        <v>1061.082535325495</v>
+      </c>
+      <c r="H271" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="E272" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="H272" t="n">
+        <v>100817.8764464364</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>202506271630</t>
         </is>
       </c>
     </row>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7546,6 +7546,413 @@
       <c r="I192" t="inlineStr">
         <is>
           <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>43.36476491361748</v>
+      </c>
+      <c r="F193" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="G193" t="n">
+        <v>3130.936026763182</v>
+      </c>
+      <c r="H193" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1872.352431685969</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5261.310333037572</v>
+      </c>
+      <c r="H194" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1287.543601270288</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5124.423533055747</v>
+      </c>
+      <c r="H195" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E196" t="n">
+        <v>681.5657355049799</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4982.245526541403</v>
+      </c>
+      <c r="H196" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E197" t="n">
+        <v>56.17257911411885</v>
+      </c>
+      <c r="F197" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2025.583202855126</v>
+      </c>
+      <c r="H197" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1020.137146333154</v>
+      </c>
+      <c r="F198" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="G198" t="n">
+        <v>30746.93359048126</v>
+      </c>
+      <c r="H198" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>304.275626545359</v>
+      </c>
+      <c r="F199" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4911.008612442094</v>
+      </c>
+      <c r="H199" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E200" t="n">
+        <v>520.2217600143598</v>
+      </c>
+      <c r="F200" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G200" t="n">
+        <v>10144.32432028002</v>
+      </c>
+      <c r="H200" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>504.6340243688386</v>
+      </c>
+      <c r="F201" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G201" t="n">
+        <v>10117.91218859521</v>
+      </c>
+      <c r="H201" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E202" t="n">
+        <v>604.9539788562929</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G202" t="n">
+        <v>5341.743633301066</v>
+      </c>
+      <c r="H202" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="E203" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>20569.44353774537</v>
+      </c>
+      <c r="H203" t="n">
+        <v>102355.8645050981</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>202506301630</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12348,6 +12755,302 @@
       <c r="I129" t="inlineStr">
         <is>
           <t>202506271630</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1248.221835380318</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4980.405123167469</v>
+      </c>
+      <c r="H130" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>18275.64332089199</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>10234.36025969952</v>
+      </c>
+      <c r="H131" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3071.323391427681</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5006.25712802712</v>
+      </c>
+      <c r="H132" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E133" t="n">
+        <v>860.2723995645101</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G133" t="n">
+        <v>954.9023635166063</v>
+      </c>
+      <c r="H133" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>951.4702743128352</v>
+      </c>
+      <c r="F134" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="G134" t="n">
+        <v>43995.9854842255</v>
+      </c>
+      <c r="H134" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E135" t="n">
+        <v>147.1698966627607</v>
+      </c>
+      <c r="F135" t="n">
+        <v>52.12</v>
+      </c>
+      <c r="G135" t="n">
+        <v>7670.495014063087</v>
+      </c>
+      <c r="H135" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E136" t="n">
+        <v>136.3853979171044</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G136" t="n">
+        <v>994.2495508156911</v>
+      </c>
+      <c r="H136" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="E137" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>28968.72222794588</v>
+      </c>
+      <c r="H137" t="n">
+        <v>102805.3771514609</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>202506301630</t>
         </is>
       </c>
     </row>
@@ -12362,7 +13065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22444,6 +23147,598 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E273" t="n">
+        <v>14.22471587925232</v>
+      </c>
+      <c r="F273" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1027.024486482018</v>
+      </c>
+      <c r="H273" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1282.574489616538</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G274" t="n">
+        <v>5117.472213569987</v>
+      </c>
+      <c r="H274" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E275" t="n">
+        <v>9459.512127702146</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5297.326791513203</v>
+      </c>
+      <c r="H275" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1843.714434635192</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G276" t="n">
+        <v>5180.83756132489</v>
+      </c>
+      <c r="H276" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1265.443994258174</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G277" t="n">
+        <v>5036.467097147533</v>
+      </c>
+      <c r="H277" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E278" t="n">
+        <v>628.619842441686</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1024.650343179948</v>
+      </c>
+      <c r="H278" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E279" t="n">
+        <v>890.1943286597277</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G279" t="n">
+        <v>988.1157048122978</v>
+      </c>
+      <c r="H279" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E280" t="n">
+        <v>134.8043253495631</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="G280" t="n">
+        <v>985.4196183053062</v>
+      </c>
+      <c r="H280" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E281" t="n">
+        <v>27.5486702579541</v>
+      </c>
+      <c r="F281" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="G281" t="n">
+        <v>993.4050495018249</v>
+      </c>
+      <c r="H281" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E282" t="n">
+        <v>333.5366627327556</v>
+      </c>
+      <c r="F282" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="G282" t="n">
+        <v>10052.79501476525</v>
+      </c>
+      <c r="H282" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E283" t="n">
+        <v>299.6922357452684</v>
+      </c>
+      <c r="F283" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="G283" t="n">
+        <v>4837.032684928632</v>
+      </c>
+      <c r="H283" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E284" t="n">
+        <v>511.7946231960747</v>
+      </c>
+      <c r="F284" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G284" t="n">
+        <v>9979.995152323458</v>
+      </c>
+      <c r="H284" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E285" t="n">
+        <v>24.54234478152828</v>
+      </c>
+      <c r="F285" t="n">
+        <v>46.24</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1134.838022697868</v>
+      </c>
+      <c r="H285" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>27.36177290206568</v>
+      </c>
+      <c r="F286" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G286" t="n">
+        <v>199.4673244560588</v>
+      </c>
+      <c r="H286" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E287" t="n">
+        <v>119.3568656159162</v>
+      </c>
+      <c r="F287" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1053.92112338854</v>
+      </c>
+      <c r="H287" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="E288" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>47913.52887008203</v>
+      </c>
+      <c r="H288" t="n">
+        <v>100822.2970584788</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>202506301630</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7953,6 +7953,894 @@
       <c r="I203" t="inlineStr">
         <is>
           <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E204" t="n">
+        <v>43.6292887921495</v>
+      </c>
+      <c r="F204" t="n">
+        <v>72.13</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3146.980600577743</v>
+      </c>
+      <c r="H204" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1881.176038770218</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G205" t="n">
+        <v>5286.104668944314</v>
+      </c>
+      <c r="H205" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1291.330680368773</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G206" t="n">
+        <v>5152.409414671403</v>
+      </c>
+      <c r="H206" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E207" t="n">
+        <v>678.649039304852</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5008.429910069807</v>
+      </c>
+      <c r="H207" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>XD同仁堂</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E208" t="n">
+        <v>56.35985510876601</v>
+      </c>
+      <c r="F208" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2036.281565079716</v>
+      </c>
+      <c r="H208" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>17</v>
+      </c>
+      <c r="E209" t="n">
+        <v>575.8638194586707</v>
+      </c>
+      <c r="F209" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="G209" t="n">
+        <v>17483.22555876524</v>
+      </c>
+      <c r="H209" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E210" t="n">
+        <v>305.6619292736229</v>
+      </c>
+      <c r="F210" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4936.44015776901</v>
+      </c>
+      <c r="H210" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>289.371140368189</v>
+      </c>
+      <c r="F211" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5142.125164342719</v>
+      </c>
+      <c r="H211" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E212" t="n">
+        <v>512.6605671895004</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="G212" t="n">
+        <v>10191.69207572727</v>
+      </c>
+      <c r="H212" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E213" t="n">
+        <v>507.2879588563539</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G213" t="n">
+        <v>10171.1235750699</v>
+      </c>
+      <c r="H213" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E214" t="n">
+        <v>607.9704044817438</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5368.378671573798</v>
+      </c>
+      <c r="H214" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="E215" t="n">
+        <v>28919.31192426345</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>28919.31192426345</v>
+      </c>
+      <c r="H215" t="n">
+        <v>102842.5032868544</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E216" t="n">
+        <v>43.6292887921495</v>
+      </c>
+      <c r="F216" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="G216" t="n">
+        <v>3146.1080148019</v>
+      </c>
+      <c r="H216" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1881.176038770218</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5286.104668944313</v>
+      </c>
+      <c r="H217" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1291.330680368773</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G218" t="n">
+        <v>5152.409414671405</v>
+      </c>
+      <c r="H218" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E219" t="n">
+        <v>678.649039304852</v>
+      </c>
+      <c r="F219" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G219" t="n">
+        <v>5022.002890855904</v>
+      </c>
+      <c r="H219" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>XD同仁堂</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E220" t="n">
+        <v>56.35985510876601</v>
+      </c>
+      <c r="F220" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2036.281565079716</v>
+      </c>
+      <c r="H220" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>17</v>
+      </c>
+      <c r="E221" t="n">
+        <v>575.8638194586707</v>
+      </c>
+      <c r="F221" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="G221" t="n">
+        <v>17488.98419695983</v>
+      </c>
+      <c r="H221" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E222" t="n">
+        <v>305.6619292736229</v>
+      </c>
+      <c r="F222" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="G222" t="n">
+        <v>4948.666634939955</v>
+      </c>
+      <c r="H222" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>289.371140368189</v>
+      </c>
+      <c r="F223" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5147.912587150082</v>
+      </c>
+      <c r="H223" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E224" t="n">
+        <v>512.6605671895004</v>
+      </c>
+      <c r="F224" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G224" t="n">
+        <v>10201.94528707106</v>
+      </c>
+      <c r="H224" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E225" t="n">
+        <v>507.2879588563539</v>
+      </c>
+      <c r="F225" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G225" t="n">
+        <v>10171.1235750699</v>
+      </c>
+      <c r="H225" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E226" t="n">
+        <v>607.9704044817438</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5368.378671573798</v>
+      </c>
+      <c r="H226" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E227" t="n">
+        <v>28919.31192426345</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>28919.31192426345</v>
+      </c>
+      <c r="H227" t="n">
+        <v>102889.2294313813</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>202507011630</t>
         </is>
       </c>
     </row>
@@ -7967,7 +8855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13051,6 +13939,598 @@
       <c r="I137" t="inlineStr">
         <is>
           <t>202506301630</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1233.284825610747</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4908.473605930772</v>
+      </c>
+      <c r="H138" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>18037.33659794513</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10100.90849484927</v>
+      </c>
+      <c r="H139" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3048.702487103721</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4938.898029108029</v>
+      </c>
+      <c r="H140" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E141" t="n">
+        <v>857.4155622681476</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>943.1571184949624</v>
+      </c>
+      <c r="H141" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>967.3614976499468</v>
+      </c>
+      <c r="F142" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="G142" t="n">
+        <v>43405.51039955311</v>
+      </c>
+      <c r="H142" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E143" t="n">
+        <v>145.8276772695554</v>
+      </c>
+      <c r="F143" t="n">
+        <v>51.88</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7565.539896744536</v>
+      </c>
+      <c r="H143" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E144" t="n">
+        <v>134.9414288154511</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G144" t="n">
+        <v>983.7230160646384</v>
+      </c>
+      <c r="H144" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>28.17000000000002</v>
+      </c>
+      <c r="E145" t="n">
+        <v>28568.5333634442</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28568.5333634442</v>
+      </c>
+      <c r="H145" t="n">
+        <v>101414.7439241895</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1233.284825610747</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4920.806454186881</v>
+      </c>
+      <c r="H146" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E147" t="n">
+        <v>18037.33659794513</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>10100.90849484927</v>
+      </c>
+      <c r="H147" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3048.702487103721</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4938.898029108029</v>
+      </c>
+      <c r="H148" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E149" t="n">
+        <v>857.4155622681476</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>943.1571184949624</v>
+      </c>
+      <c r="H149" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="E150" t="n">
+        <v>967.3614976499468</v>
+      </c>
+      <c r="F150" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="G150" t="n">
+        <v>43705.3924638246</v>
+      </c>
+      <c r="H150" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E151" t="n">
+        <v>145.8276772695554</v>
+      </c>
+      <c r="F151" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7591.788878653055</v>
+      </c>
+      <c r="H151" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E152" t="n">
+        <v>134.9414288154511</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G152" t="n">
+        <v>983.7230160646385</v>
+      </c>
+      <c r="H152" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>28568.5333634442</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>28568.5333634442</v>
+      </c>
+      <c r="H153" t="n">
+        <v>101753.2078186256</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>202507011630</t>
         </is>
       </c>
     </row>
@@ -13065,7 +14545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23739,6 +25219,1264 @@
         </is>
       </c>
     </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E289" t="n">
+        <v>14.29025805275171</v>
+      </c>
+      <c r="F289" t="n">
+        <v>72.13</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1030.756313344981</v>
+      </c>
+      <c r="H289" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1289.841874025151</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G290" t="n">
+        <v>5133.570658620099</v>
+      </c>
+      <c r="H290" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E291" t="n">
+        <v>9473.863174126658</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G291" t="n">
+        <v>5305.363377510929</v>
+      </c>
+      <c r="H291" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1848.470954780964</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G292" t="n">
+        <v>5194.203382934509</v>
+      </c>
+      <c r="H292" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>5</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1266.347625614257</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G293" t="n">
+        <v>5052.727026200886</v>
+      </c>
+      <c r="H293" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E294" t="n">
+        <v>636.2693292252967</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1030.756313344981</v>
+      </c>
+      <c r="H294" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E295" t="n">
+        <v>900.3040883048849</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>990.3344971353735</v>
+      </c>
+      <c r="H295" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E296" t="n">
+        <v>134.1916662785059</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="G296" t="n">
+        <v>990.3344971353735</v>
+      </c>
+      <c r="H296" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>XD同仁堂</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E297" t="n">
+        <v>27.69000695233255</v>
+      </c>
+      <c r="F297" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1000.439951187775</v>
+      </c>
+      <c r="H297" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>33.28542177997948</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30.36</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1010.545405240177</v>
+      </c>
+      <c r="H298" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E299" t="n">
+        <v>300.3478603809814</v>
+      </c>
+      <c r="F299" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G299" t="n">
+        <v>4850.61794515285</v>
+      </c>
+      <c r="H299" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E300" t="n">
+        <v>503.2394120662854</v>
+      </c>
+      <c r="F300" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="G300" t="n">
+        <v>10004.39951187775</v>
+      </c>
+      <c r="H300" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E301" t="n">
+        <v>25.44943855407622</v>
+      </c>
+      <c r="F301" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1141.9163079214</v>
+      </c>
+      <c r="H301" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>27.72415377888003</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G302" t="n">
+        <v>202.1090810480354</v>
+      </c>
+      <c r="H302" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E303" t="n">
+        <v>55.94540647464322</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1121.705399816597</v>
+      </c>
+      <c r="H303" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E304" t="n">
+        <v>120.1667809175749</v>
+      </c>
+      <c r="F304" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1061.072675502186</v>
+      </c>
+      <c r="H304" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>55.34999999999999</v>
+      </c>
+      <c r="E305" t="n">
+        <v>55933.6881800438</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>55933.6881800438</v>
+      </c>
+      <c r="H305" t="n">
+        <v>101054.5405240177</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>202507011425</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E306" t="n">
+        <v>14.29025805275171</v>
+      </c>
+      <c r="F306" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1030.470508183926</v>
+      </c>
+      <c r="H306" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1289.841874025151</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G307" t="n">
+        <v>5146.469077360352</v>
+      </c>
+      <c r="H307" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E308" t="n">
+        <v>9473.863174126658</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G308" t="n">
+        <v>5305.363377510929</v>
+      </c>
+      <c r="H308" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1848.470954780964</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G309" t="n">
+        <v>5194.203382934508</v>
+      </c>
+      <c r="H309" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>5</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1266.347625614257</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G310" t="n">
+        <v>5052.727026200885</v>
+      </c>
+      <c r="H310" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E311" t="n">
+        <v>636.2693292252967</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1030.756313344981</v>
+      </c>
+      <c r="H311" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E312" t="n">
+        <v>900.3040883048849</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G312" t="n">
+        <v>990.3344971353735</v>
+      </c>
+      <c r="H312" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E313" t="n">
+        <v>134.1916662785059</v>
+      </c>
+      <c r="F313" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G313" t="n">
+        <v>993.0183304609436</v>
+      </c>
+      <c r="H313" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>XD同仁堂</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E314" t="n">
+        <v>27.69000695233255</v>
+      </c>
+      <c r="F314" t="n">
+        <v>36.13</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1000.439951187775</v>
+      </c>
+      <c r="H314" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>33.28542177997948</v>
+      </c>
+      <c r="F315" t="n">
+        <v>30.37</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1010.878259457977</v>
+      </c>
+      <c r="H315" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E316" t="n">
+        <v>300.3478603809814</v>
+      </c>
+      <c r="F316" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="G316" t="n">
+        <v>4862.631859568089</v>
+      </c>
+      <c r="H316" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E317" t="n">
+        <v>503.2394120662854</v>
+      </c>
+      <c r="F317" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G317" t="n">
+        <v>10014.46430011908</v>
+      </c>
+      <c r="H317" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E318" t="n">
+        <v>25.44943855407622</v>
+      </c>
+      <c r="F318" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1149.805633873164</v>
+      </c>
+      <c r="H318" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E319" t="n">
+        <v>27.72415377888003</v>
+      </c>
+      <c r="F319" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G319" t="n">
+        <v>202.1090810480354</v>
+      </c>
+      <c r="H319" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E320" t="n">
+        <v>55.94540647464322</v>
+      </c>
+      <c r="F320" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1121.705399816597</v>
+      </c>
+      <c r="H320" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E321" t="n">
+        <v>120.1667809175749</v>
+      </c>
+      <c r="F321" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="G321" t="n">
+        <v>1061.072675502186</v>
+      </c>
+      <c r="H321" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="E322" t="n">
+        <v>55933.6881800438</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
+      <c r="G322" t="n">
+        <v>55933.6881800438</v>
+      </c>
+      <c r="H322" t="n">
+        <v>101100.1378537486</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>202507011630</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8841,6 +8841,1412 @@
       <c r="I227" t="inlineStr">
         <is>
           <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>43.5399464917573</v>
+      </c>
+      <c r="F228" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="G228" t="n">
+        <v>3161.870914231415</v>
+      </c>
+      <c r="H228" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1890.07704732741</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5311.116502990023</v>
+      </c>
+      <c r="H229" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1297.440765336494</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5176.78865369261</v>
+      </c>
+      <c r="H230" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E231" t="n">
+        <v>682.3356974824353</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5042.460804395197</v>
+      </c>
+      <c r="H231" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E232" t="n">
+        <v>57.1165961450152</v>
+      </c>
+      <c r="F232" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2045.916473914445</v>
+      </c>
+      <c r="H232" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>17</v>
+      </c>
+      <c r="E233" t="n">
+        <v>580.3088709450896</v>
+      </c>
+      <c r="F233" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="G233" t="n">
+        <v>17565.94952350786</v>
+      </c>
+      <c r="H233" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>63.00555783180725</v>
+      </c>
+      <c r="F234" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1033.291148441639</v>
+      </c>
+      <c r="H234" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>290.0873521733967</v>
+      </c>
+      <c r="F235" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="G235" t="n">
+        <v>5166.455742208194</v>
+      </c>
+      <c r="H235" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E236" t="n">
+        <v>508.949761297967</v>
+      </c>
+      <c r="F236" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="G236" t="n">
+        <v>10250.24819254106</v>
+      </c>
+      <c r="H236" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E237" t="n">
+        <v>492.4939497873643</v>
+      </c>
+      <c r="F237" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G237" t="n">
+        <v>10219.24945808781</v>
+      </c>
+      <c r="H237" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E238" t="n">
+        <v>616.4319765560405</v>
+      </c>
+      <c r="F238" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G238" t="n">
+        <v>5393.779794865354</v>
+      </c>
+      <c r="H238" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>31.90000000000001</v>
+      </c>
+      <c r="E239" t="n">
+        <v>32961.98763528829</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>32961.98763528829</v>
+      </c>
+      <c r="H239" t="n">
+        <v>103329.1148441639</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>43.43514928745157</v>
+      </c>
+      <c r="F240" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3162.513219619349</v>
+      </c>
+      <c r="H240" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1883.757236921551</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G241" t="n">
+        <v>5312.195408118774</v>
+      </c>
+      <c r="H241" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1297.70432865603</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G242" t="n">
+        <v>5177.84027133756</v>
+      </c>
+      <c r="H242" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E243" t="n">
+        <v>680.6322718699522</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G243" t="n">
+        <v>5043.485134556346</v>
+      </c>
+      <c r="H243" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E244" t="n">
+        <v>57.11225462693574</v>
+      </c>
+      <c r="F244" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2046.332083283108</v>
+      </c>
+      <c r="H244" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>10</v>
+      </c>
+      <c r="E245" t="n">
+        <v>934.4494142524283</v>
+      </c>
+      <c r="F245" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="G245" t="n">
+        <v>10335.01052163186</v>
+      </c>
+      <c r="H245" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>17</v>
+      </c>
+      <c r="E246" t="n">
+        <v>579.2785323697382</v>
+      </c>
+      <c r="F246" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="G246" t="n">
+        <v>17569.51788677416</v>
+      </c>
+      <c r="H246" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+      <c r="E247" t="n">
+        <v>63.13384558113535</v>
+      </c>
+      <c r="F247" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1033.501052163186</v>
+      </c>
+      <c r="H247" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>290.1462807869696</v>
+      </c>
+      <c r="F248" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="G248" t="n">
+        <v>5167.505260815929</v>
+      </c>
+      <c r="H248" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E249" t="n">
+        <v>509.5591668717097</v>
+      </c>
+      <c r="F249" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10252.3304374588</v>
+      </c>
+      <c r="H249" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E250" t="n">
+        <v>492.5939954647665</v>
+      </c>
+      <c r="F250" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10221.32540589391</v>
+      </c>
+      <c r="H250" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E251" t="n">
+        <v>621.5294345958329</v>
+      </c>
+      <c r="F251" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G251" t="n">
+        <v>5394.875492291829</v>
+      </c>
+      <c r="H251" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>21.90000000000001</v>
+      </c>
+      <c r="E252" t="n">
+        <v>22633.67304237377</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>22633.67304237377</v>
+      </c>
+      <c r="H252" t="n">
+        <v>103350.1052163186</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E253" t="n">
+        <v>43.43514928745157</v>
+      </c>
+      <c r="F253" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3149.048323340239</v>
+      </c>
+      <c r="H253" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1883.757236921551</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G254" t="n">
+        <v>5312.195408118774</v>
+      </c>
+      <c r="H254" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1297.70432865603</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G255" t="n">
+        <v>5177.84027133756</v>
+      </c>
+      <c r="H255" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E256" t="n">
+        <v>680.6322718699522</v>
+      </c>
+      <c r="F256" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G256" t="n">
+        <v>5029.872489118947</v>
+      </c>
+      <c r="H256" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E257" t="n">
+        <v>57.11225462693574</v>
+      </c>
+      <c r="F257" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2048.045450921915</v>
+      </c>
+      <c r="H257" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E258" t="n">
+        <v>934.4494142524283</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10372.38849820195</v>
+      </c>
+      <c r="H258" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="E259" t="n">
+        <v>579.2785323697382</v>
+      </c>
+      <c r="F259" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="G259" t="n">
+        <v>17523.17560418458</v>
+      </c>
+      <c r="H259" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>63.13384558113535</v>
+      </c>
+      <c r="F260" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1034.132390618997</v>
+      </c>
+      <c r="H260" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>5</v>
+      </c>
+      <c r="E261" t="n">
+        <v>290.1462807869696</v>
+      </c>
+      <c r="F261" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="G261" t="n">
+        <v>5161.702335200189</v>
+      </c>
+      <c r="H261" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E262" t="n">
+        <v>509.5591668717097</v>
+      </c>
+      <c r="F262" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G262" t="n">
+        <v>10277.80839580239</v>
+      </c>
+      <c r="H262" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E263" t="n">
+        <v>492.5939954647665</v>
+      </c>
+      <c r="F263" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G263" t="n">
+        <v>10147.43630657419</v>
+      </c>
+      <c r="H263" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E264" t="n">
+        <v>621.5294345958329</v>
+      </c>
+      <c r="F264" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G264" t="n">
+        <v>5438.382552713538</v>
+      </c>
+      <c r="H264" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="E265" t="n">
+        <v>22633.67304237377</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>22633.67304237377</v>
+      </c>
+      <c r="H265" t="n">
+        <v>103305.701068507</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>202507021630</t>
         </is>
       </c>
     </row>
@@ -8855,7 +10261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14531,6 +15937,894 @@
       <c r="I153" t="inlineStr">
         <is>
           <t>202507011630</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1220.803855559658</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4858.799345127439</v>
+      </c>
+      <c r="H154" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E155" t="n">
+        <v>18124.67223783451</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G155" t="n">
+        <v>9968.56973080898</v>
+      </c>
+      <c r="H155" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3005.455670833087</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4868.838186749602</v>
+      </c>
+      <c r="H156" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E157" t="n">
+        <v>841.0921359110487</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>933.6122708612642</v>
+      </c>
+      <c r="H157" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="E158" t="n">
+        <v>976.3773724455377</v>
+      </c>
+      <c r="F158" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="G158" t="n">
+        <v>43116.82476719494</v>
+      </c>
+      <c r="H158" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E159" t="n">
+        <v>147.6242036296953</v>
+      </c>
+      <c r="F159" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7488.97585013444</v>
+      </c>
+      <c r="H159" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E160" t="n">
+        <v>133.5758075925817</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G160" t="n">
+        <v>973.7676373499206</v>
+      </c>
+      <c r="H160" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>28.06999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>28179.02843341471</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>28179.02843341471</v>
+      </c>
+      <c r="H161" t="n">
+        <v>100388.4162216413</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1209.479629637076</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G162" t="n">
+        <v>4813.728925955564</v>
+      </c>
+      <c r="H162" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E163" t="n">
+        <v>17956.5470453564</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9876.100874946023</v>
+      </c>
+      <c r="H163" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2977.576942516641</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4823.674646876959</v>
+      </c>
+      <c r="H164" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E165" t="n">
+        <v>825.8500407944721</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G165" t="n">
+        <v>924.9520456898089</v>
+      </c>
+      <c r="H165" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="E166" t="n">
+        <v>987.4450151963694</v>
+      </c>
+      <c r="F166" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="G166" t="n">
+        <v>42716.87135739494</v>
+      </c>
+      <c r="H166" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E167" t="n">
+        <v>147.2416711125474</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7419.507807361262</v>
+      </c>
+      <c r="H167" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E168" t="n">
+        <v>133.8051219660738</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="G168" t="n">
+        <v>964.734929375392</v>
+      </c>
+      <c r="H168" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>28.06999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27917.63862635799</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>27917.63862635799</v>
+      </c>
+      <c r="H169" t="n">
+        <v>99457.20921395792</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1209.479629637076</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4813.728925955562</v>
+      </c>
+      <c r="H170" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>17956.5470453564</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9876.100874946022</v>
+      </c>
+      <c r="H171" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2977.576942516641</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G172" t="n">
+        <v>4823.674646876959</v>
+      </c>
+      <c r="H172" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E173" t="n">
+        <v>825.8500407944721</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G173" t="n">
+        <v>924.9520456898089</v>
+      </c>
+      <c r="H173" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="E174" t="n">
+        <v>987.4450151963694</v>
+      </c>
+      <c r="F174" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="G174" t="n">
+        <v>42519.38235435566</v>
+      </c>
+      <c r="H174" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>147.2416711125474</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7443.066474739271</v>
+      </c>
+      <c r="H175" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E176" t="n">
+        <v>133.8051219660738</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G176" t="n">
+        <v>976.7773903523388</v>
+      </c>
+      <c r="H176" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27917.63862635799</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>27917.63862635799</v>
+      </c>
+      <c r="H177" t="n">
+        <v>99295.32133927362</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>202507021630</t>
         </is>
       </c>
     </row>
@@ -14545,7 +16839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26477,6 +28771,1967 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E323" t="n">
+        <v>14.21187518587883</v>
+      </c>
+      <c r="F323" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1032.06637599852</v>
+      </c>
+      <c r="H323" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1294.023513112737</v>
+      </c>
+      <c r="F324" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G324" t="n">
+        <v>5150.213582188695</v>
+      </c>
+      <c r="H324" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E325" t="n">
+        <v>9658.375176456741</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G325" t="n">
+        <v>5312.106347051208</v>
+      </c>
+      <c r="H325" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1850.820310038516</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G326" t="n">
+        <v>5200.805071208229</v>
+      </c>
+      <c r="H326" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1267.957118284093</v>
+      </c>
+      <c r="F327" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G327" t="n">
+        <v>5059.148901953532</v>
+      </c>
+      <c r="H327" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E328" t="n">
+        <v>637.0780098756298</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1032.06637599852</v>
+      </c>
+      <c r="H328" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E329" t="n">
+        <v>893.3271934981009</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G329" t="n">
+        <v>991.5931847828921</v>
+      </c>
+      <c r="H329" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E330" t="n">
+        <v>134.1804038948433</v>
+      </c>
+      <c r="F330" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G330" t="n">
+        <v>991.5931847828921</v>
+      </c>
+      <c r="H330" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E331" t="n">
+        <v>27.96514468416525</v>
+      </c>
+      <c r="F331" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="G331" t="n">
+        <v>1001.711482586799</v>
+      </c>
+      <c r="H331" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" t="n">
+        <v>33.42681798449641</v>
+      </c>
+      <c r="F332" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="G332" t="n">
+        <v>1011.829780390706</v>
+      </c>
+      <c r="H332" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+      <c r="E333" t="n">
+        <v>61.69693782870161</v>
+      </c>
+      <c r="F333" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1011.829780390706</v>
+      </c>
+      <c r="H333" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E334" t="n">
+        <v>497.8765205398163</v>
+      </c>
+      <c r="F334" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="G334" t="n">
+        <v>10027.2331236719</v>
+      </c>
+      <c r="H334" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E335" t="n">
+        <v>26.12060574378182</v>
+      </c>
+      <c r="F335" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1153.485949645405</v>
+      </c>
+      <c r="H335" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E336" t="n">
+        <v>27.75939040852418</v>
+      </c>
+      <c r="F336" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G336" t="n">
+        <v>202.3659560781413</v>
+      </c>
+      <c r="H336" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E337" t="n">
+        <v>54.12679789077995</v>
+      </c>
+      <c r="F337" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1123.131056233684</v>
+      </c>
+      <c r="H337" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E338" t="n">
+        <v>121.4195736468848</v>
+      </c>
+      <c r="F338" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1062.421269410242</v>
+      </c>
+      <c r="H338" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>59.11999999999999</v>
+      </c>
+      <c r="E339" t="n">
+        <v>59819.37661669855</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1</v>
+      </c>
+      <c r="G339" t="n">
+        <v>59819.37661669855</v>
+      </c>
+      <c r="H339" t="n">
+        <v>101182.9780390706</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>202507021030</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E340" t="n">
+        <v>14.17325814648674</v>
+      </c>
+      <c r="F340" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="G340" t="n">
+        <v>1031.954925645699</v>
+      </c>
+      <c r="H340" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1293.883774641987</v>
+      </c>
+      <c r="F341" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G341" t="n">
+        <v>5149.657423075107</v>
+      </c>
+      <c r="H341" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E342" t="n">
+        <v>9657.332191871516</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G342" t="n">
+        <v>5311.532705529334</v>
+      </c>
+      <c r="H342" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1844.057960582288</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G343" t="n">
+        <v>5200.243448842052</v>
+      </c>
+      <c r="H343" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1267.820194660302</v>
+      </c>
+      <c r="F344" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G344" t="n">
+        <v>5058.602576694604</v>
+      </c>
+      <c r="H344" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E345" t="n">
+        <v>637.0092133615428</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1031.954925645699</v>
+      </c>
+      <c r="H345" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E346" t="n">
+        <v>885.2554509215556</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G346" t="n">
+        <v>991.4861050321424</v>
+      </c>
+      <c r="H346" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E347" t="n">
+        <v>133.8037928518411</v>
+      </c>
+      <c r="F347" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G347" t="n">
+        <v>991.4861050321424</v>
+      </c>
+      <c r="H347" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E348" t="n">
+        <v>27.95432068617169</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1001.603310185532</v>
+      </c>
+      <c r="H348" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>5</v>
+      </c>
+      <c r="E349" t="n">
+        <v>457.3781714913746</v>
+      </c>
+      <c r="F349" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="G349" t="n">
+        <v>5058.602576694604</v>
+      </c>
+      <c r="H349" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>33.35708919679924</v>
+      </c>
+      <c r="F350" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1011.720515338921</v>
+      </c>
+      <c r="H350" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>1</v>
+      </c>
+      <c r="E351" t="n">
+        <v>61.8033301978571</v>
+      </c>
+      <c r="F351" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1011.720515338921</v>
+      </c>
+      <c r="H351" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E352" t="n">
+        <v>498.3176096922816</v>
+      </c>
+      <c r="F352" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="G352" t="n">
+        <v>10026.15030700871</v>
+      </c>
+      <c r="H352" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E353" t="n">
+        <v>26.66115088965256</v>
+      </c>
+      <c r="F353" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1153.361387486369</v>
+      </c>
+      <c r="H353" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>28.06436935752901</v>
+      </c>
+      <c r="F354" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="G354" t="n">
+        <v>202.3441030677842</v>
+      </c>
+      <c r="H354" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E355" t="n">
+        <v>54.12095286873264</v>
+      </c>
+      <c r="F355" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1123.009772026202</v>
+      </c>
+      <c r="H355" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E356" t="n">
+        <v>122.3855462103533</v>
+      </c>
+      <c r="F356" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1062.306541105867</v>
+      </c>
+      <c r="H356" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="E357" t="n">
+        <v>54754.31429014239</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1</v>
+      </c>
+      <c r="G357" t="n">
+        <v>54754.31429014239</v>
+      </c>
+      <c r="H357" t="n">
+        <v>101172.0515338921</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>202507021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E358" t="n">
+        <v>14.17325814648674</v>
+      </c>
+      <c r="F358" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1027.561215620289</v>
+      </c>
+      <c r="H358" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1293.883774641987</v>
+      </c>
+      <c r="F359" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G359" t="n">
+        <v>5149.657423075108</v>
+      </c>
+      <c r="H359" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E360" t="n">
+        <v>9657.332191871516</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G360" t="n">
+        <v>5311.532705529334</v>
+      </c>
+      <c r="H360" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1844.057960582288</v>
+      </c>
+      <c r="F361" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G361" t="n">
+        <v>5200.243448842051</v>
+      </c>
+      <c r="H361" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>5</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1267.820194660302</v>
+      </c>
+      <c r="F362" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G362" t="n">
+        <v>5058.602576694605</v>
+      </c>
+      <c r="H362" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E363" t="n">
+        <v>637.0092133615428</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1031.954925645699</v>
+      </c>
+      <c r="H363" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E364" t="n">
+        <v>885.2554509215556</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G364" t="n">
+        <v>991.4861050321424</v>
+      </c>
+      <c r="H364" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E365" t="n">
+        <v>133.8037928518411</v>
+      </c>
+      <c r="F365" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G365" t="n">
+        <v>988.8100291751058</v>
+      </c>
+      <c r="H365" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E366" t="n">
+        <v>27.95432068617169</v>
+      </c>
+      <c r="F366" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1002.441939806117</v>
+      </c>
+      <c r="H366" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E367" t="n">
+        <v>457.3781714913746</v>
+      </c>
+      <c r="F367" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G367" t="n">
+        <v>5076.897703554258</v>
+      </c>
+      <c r="H367" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>1</v>
+      </c>
+      <c r="E368" t="n">
+        <v>33.35708919679924</v>
+      </c>
+      <c r="F368" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1009.051948203177</v>
+      </c>
+      <c r="H368" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>61.8033301978571</v>
+      </c>
+      <c r="F369" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1012.338548640899</v>
+      </c>
+      <c r="H369" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E370" t="n">
+        <v>498.3176096922816</v>
+      </c>
+      <c r="F370" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G370" t="n">
+        <v>10051.06618749332</v>
+      </c>
+      <c r="H370" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E371" t="n">
+        <v>26.66115088965256</v>
+      </c>
+      <c r="F371" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="G371" t="n">
+        <v>1148.029157308439</v>
+      </c>
+      <c r="H371" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E372" t="n">
+        <v>28.06436935752901</v>
+      </c>
+      <c r="F372" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G372" t="n">
+        <v>204.8698963099618</v>
+      </c>
+      <c r="H372" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E373" t="n">
+        <v>54.12095286873264</v>
+      </c>
+      <c r="F373" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1114.891629095892</v>
+      </c>
+      <c r="H373" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E374" t="n">
+        <v>122.3855462103533</v>
+      </c>
+      <c r="F374" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1070.873529340591</v>
+      </c>
+      <c r="H374" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E375" t="n">
+        <v>54754.31429014239</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1</v>
+      </c>
+      <c r="G375" t="n">
+        <v>54754.31429014239</v>
+      </c>
+      <c r="H375" t="n">
+        <v>101204.6232595094</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>202507021630</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10247,6 +10247,1412 @@
       <c r="I265" t="inlineStr">
         <is>
           <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E266" t="n">
+        <v>43.48156743849205</v>
+      </c>
+      <c r="F266" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3151.978823616289</v>
+      </c>
+      <c r="H266" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>10</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2770.605039877193</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G267" t="n">
+        <v>10334.35679874193</v>
+      </c>
+      <c r="H267" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1890.341421549235</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G268" t="n">
+        <v>5311.859394553351</v>
+      </c>
+      <c r="H268" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1297.622244654062</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G269" t="n">
+        <v>5177.512756169707</v>
+      </c>
+      <c r="H269" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E270" t="n">
+        <v>678.2792130710674</v>
+      </c>
+      <c r="F270" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G270" t="n">
+        <v>5032.83176098732</v>
+      </c>
+      <c r="H270" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E271" t="n">
+        <v>56.99728819361844</v>
+      </c>
+      <c r="F271" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2046.202646150902</v>
+      </c>
+      <c r="H271" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E272" t="n">
+        <v>933.9058709214129</v>
+      </c>
+      <c r="F272" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="G272" t="n">
+        <v>10375.6942259369</v>
+      </c>
+      <c r="H272" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="E273" t="n">
+        <v>584.8204581470242</v>
+      </c>
+      <c r="F273" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="G273" t="n">
+        <v>17527.06913066631</v>
+      </c>
+      <c r="H273" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>63.63520196269662</v>
+      </c>
+      <c r="F274" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1033.435679874193</v>
+      </c>
+      <c r="H274" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>601688</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>华泰证券</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>289.9651178098185</v>
+      </c>
+      <c r="F275" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="G275" t="n">
+        <v>5167.178399370965</v>
+      </c>
+      <c r="H275" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E276" t="n">
+        <v>507.5362791089941</v>
+      </c>
+      <c r="F276" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="G276" t="n">
+        <v>10282.68501474822</v>
+      </c>
+      <c r="H276" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E277" t="n">
+        <v>485.5664294911281</v>
+      </c>
+      <c r="F277" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G277" t="n">
+        <v>10148.33837636458</v>
+      </c>
+      <c r="H277" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E278" t="n">
+        <v>621.9532810226837</v>
+      </c>
+      <c r="F278" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="G278" t="n">
+        <v>5435.871676138256</v>
+      </c>
+      <c r="H278" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>11.91999999999999</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12318.55330410037</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>12318.55330410037</v>
+      </c>
+      <c r="H279" t="n">
+        <v>103343.5679874193</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E280" t="n">
+        <v>43.48639446510653</v>
+      </c>
+      <c r="F280" t="n">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3155.807646332781</v>
+      </c>
+      <c r="H280" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>10</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2751.837849958825</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G281" t="n">
+        <v>10346.91031584518</v>
+      </c>
+      <c r="H281" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1892.637687667054</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G282" t="n">
+        <v>5318.311902344422</v>
+      </c>
+      <c r="H282" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1295.950517059609</v>
+      </c>
+      <c r="F283" t="n">
+        <v>4</v>
+      </c>
+      <c r="G283" t="n">
+        <v>5183.802068238435</v>
+      </c>
+      <c r="H283" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E284" t="n">
+        <v>678.1891418326519</v>
+      </c>
+      <c r="F284" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G284" t="n">
+        <v>5038.945323816603</v>
+      </c>
+      <c r="H284" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E285" t="n">
+        <v>57.01887677532272</v>
+      </c>
+      <c r="F285" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2048.688242537346</v>
+      </c>
+      <c r="H285" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="E286" t="n">
+        <v>586.9016687516197</v>
+      </c>
+      <c r="F286" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G286" t="n">
+        <v>17548.35989567343</v>
+      </c>
+      <c r="H286" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>63.86981676447642</v>
+      </c>
+      <c r="F287" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1034.691031584518</v>
+      </c>
+      <c r="H287" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E288" t="n">
+        <v>510.4202163741177</v>
+      </c>
+      <c r="F288" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G288" t="n">
+        <v>10295.17576426595</v>
+      </c>
+      <c r="H288" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E289" t="n">
+        <v>483.8412347695223</v>
+      </c>
+      <c r="F289" t="n">
+        <v>21</v>
+      </c>
+      <c r="G289" t="n">
+        <v>10160.66593015997</v>
+      </c>
+      <c r="H289" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E290" t="n">
+        <v>621.9971229868074</v>
+      </c>
+      <c r="F290" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G290" t="n">
+        <v>5442.474826134565</v>
+      </c>
+      <c r="H290" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>26.95999999999999</v>
+      </c>
+      <c r="E291" t="n">
+        <v>27895.2702115186</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>27895.2702115186</v>
+      </c>
+      <c r="H291" t="n">
+        <v>103469.1031584518</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E292" t="n">
+        <v>43.48639446510653</v>
+      </c>
+      <c r="F292" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="G292" t="n">
+        <v>3169.723292561615</v>
+      </c>
+      <c r="H292" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2751.837849958825</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G293" t="n">
+        <v>10346.91031584518</v>
+      </c>
+      <c r="H293" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1892.637687667054</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G294" t="n">
+        <v>5337.238279221092</v>
+      </c>
+      <c r="H294" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>5</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1295.950517059609</v>
+      </c>
+      <c r="F295" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G295" t="n">
+        <v>5196.761573409031</v>
+      </c>
+      <c r="H295" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E296" t="n">
+        <v>678.1891418326519</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G296" t="n">
+        <v>5052.509106653257</v>
+      </c>
+      <c r="H296" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E297" t="n">
+        <v>57.01887677532272</v>
+      </c>
+      <c r="F297" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2035.573900879021</v>
+      </c>
+      <c r="H297" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E298" t="n">
+        <v>586.9016687516197</v>
+      </c>
+      <c r="F298" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="G298" t="n">
+        <v>17659.87121273624</v>
+      </c>
+      <c r="H298" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E299" t="n">
+        <v>63.86981676447642</v>
+      </c>
+      <c r="F299" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1034.691031584518</v>
+      </c>
+      <c r="H299" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E300" t="n">
+        <v>510.4202163741177</v>
+      </c>
+      <c r="F300" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="G300" t="n">
+        <v>10356.42619023085</v>
+      </c>
+      <c r="H300" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E301" t="n">
+        <v>483.8412347695223</v>
+      </c>
+      <c r="F301" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G301" t="n">
+        <v>10281.62623885235</v>
+      </c>
+      <c r="H301" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E302" t="n">
+        <v>621.9971229868074</v>
+      </c>
+      <c r="F302" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="G302" t="n">
+        <v>5548.214337042322</v>
+      </c>
+      <c r="H302" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="E303" t="n">
+        <v>27895.2702115186</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G303" t="n">
+        <v>27895.2702115186</v>
+      </c>
+      <c r="H303" t="n">
+        <v>103914.8156905341</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>202507031630</t>
         </is>
       </c>
     </row>
@@ -10261,7 +11667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16825,6 +18231,894 @@
       <c r="I177" t="inlineStr">
         <is>
           <t>202507021630</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1202.20329333499</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4796.791140406609</v>
+      </c>
+      <c r="H178" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E179" t="n">
+        <v>17892.43555653074</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9840.839556091909</v>
+      </c>
+      <c r="H179" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2948.884313753225</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4806.681431417757</v>
+      </c>
+      <c r="H180" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E181" t="n">
+        <v>813.979702687373</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G181" t="n">
+        <v>919.7970640367314</v>
+      </c>
+      <c r="H181" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="E182" t="n">
+        <v>991.3442441417188</v>
+      </c>
+      <c r="F182" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="G182" t="n">
+        <v>42350.22610973423</v>
+      </c>
+      <c r="H182" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>148.4434312259503</v>
+      </c>
+      <c r="F183" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7417.718258360735</v>
+      </c>
+      <c r="H183" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E184" t="n">
+        <v>135.7490923098697</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="G184" t="n">
+        <v>969.2485190924693</v>
+      </c>
+      <c r="H184" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E185" t="n">
+        <v>27801.60803233604</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>27801.60803233604</v>
+      </c>
+      <c r="H185" t="n">
+        <v>98902.91011147648</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1204.17415033514</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4792.613118333858</v>
+      </c>
+      <c r="H186" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>17876.85118178889</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G187" t="n">
+        <v>9832.268149983893</v>
+      </c>
+      <c r="H187" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2946.315825071476</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4802.494794866506</v>
+      </c>
+      <c r="H188" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E189" t="n">
+        <v>813.2707234833481</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G189" t="n">
+        <v>918.9959175361832</v>
+      </c>
+      <c r="H189" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="E190" t="n">
+        <v>992.5718722213232</v>
+      </c>
+      <c r="F190" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="G190" t="n">
+        <v>42313.33891279501</v>
+      </c>
+      <c r="H190" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>147.9588221099091</v>
+      </c>
+      <c r="F191" t="n">
+        <v>50.09</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7411.257399485347</v>
+      </c>
+      <c r="H191" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E192" t="n">
+        <v>136.0118399156487</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G192" t="n">
+        <v>968.4043001994187</v>
+      </c>
+      <c r="H192" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27777.39273327108</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>27777.39273327108</v>
+      </c>
+      <c r="H193" t="n">
+        <v>98816.7653264713</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1204.17415033514</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4840.780084347262</v>
+      </c>
+      <c r="H194" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E195" t="n">
+        <v>17876.85118178889</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>10011.03666180178</v>
+      </c>
+      <c r="H195" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2946.315825071476</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4802.494794866506</v>
+      </c>
+      <c r="H196" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E197" t="n">
+        <v>813.2707234833481</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G197" t="n">
+        <v>927.1286247710168</v>
+      </c>
+      <c r="H197" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>992.5718722213232</v>
+      </c>
+      <c r="F198" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="G198" t="n">
+        <v>42938.65919229444</v>
+      </c>
+      <c r="H198" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E199" t="n">
+        <v>147.9588221099091</v>
+      </c>
+      <c r="F199" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="G199" t="n">
+        <v>7454.165457897221</v>
+      </c>
+      <c r="H199" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>136.0118399156487</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="G200" t="n">
+        <v>995.6066681825484</v>
+      </c>
+      <c r="H200" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="E201" t="n">
+        <v>27777.39273327108</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>27777.39273327108</v>
+      </c>
+      <c r="H201" t="n">
+        <v>99747.26421743186</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>202507031630</t>
         </is>
       </c>
     </row>
@@ -16839,7 +19133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30732,6 +33026,2041 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E376" t="n">
+        <v>14.24710531289581</v>
+      </c>
+      <c r="F376" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1032.772664131817</v>
+      </c>
+      <c r="H376" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1291.663683824991</v>
+      </c>
+      <c r="F377" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G377" t="n">
+        <v>5153.738098461716</v>
+      </c>
+      <c r="H377" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>5</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1357.268391068466</v>
+      </c>
+      <c r="F378" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G378" t="n">
+        <v>5062.611098685379</v>
+      </c>
+      <c r="H378" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E379" t="n">
+        <v>9664.984824762996</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G379" t="n">
+        <v>5315.741653619648</v>
+      </c>
+      <c r="H379" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1852.086907277071</v>
+      </c>
+      <c r="F380" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G380" t="n">
+        <v>5204.364209448569</v>
+      </c>
+      <c r="H380" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1268.824836763253</v>
+      </c>
+      <c r="F381" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G381" t="n">
+        <v>5062.611098685379</v>
+      </c>
+      <c r="H381" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E382" t="n">
+        <v>633.6028614305629</v>
+      </c>
+      <c r="F382" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1032.772664131817</v>
+      </c>
+      <c r="H382" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E383" t="n">
+        <v>878.1166153471985</v>
+      </c>
+      <c r="F383" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G383" t="n">
+        <v>992.2717753423342</v>
+      </c>
+      <c r="H383" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E384" t="n">
+        <v>133.7293497765949</v>
+      </c>
+      <c r="F384" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G384" t="n">
+        <v>992.2717753423343</v>
+      </c>
+      <c r="H384" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E385" t="n">
+        <v>27.92192193703913</v>
+      </c>
+      <c r="F385" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1002.396997539705</v>
+      </c>
+      <c r="H385" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>600380</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>健康元</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E386" t="n">
+        <v>457.5032892061315</v>
+      </c>
+      <c r="F386" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="G386" t="n">
+        <v>5082.86154308012</v>
+      </c>
+      <c r="H386" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="n">
+        <v>33.78452518308561</v>
+      </c>
+      <c r="F387" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1012.522219737076</v>
+      </c>
+      <c r="H387" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="n">
+        <v>62.34742732371157</v>
+      </c>
+      <c r="F388" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1012.522219737076</v>
+      </c>
+      <c r="H388" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E389" t="n">
+        <v>496.2658263568194</v>
+      </c>
+      <c r="F389" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="G389" t="n">
+        <v>10054.34564198916</v>
+      </c>
+      <c r="H389" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E390" t="n">
+        <v>26.78253998836366</v>
+      </c>
+      <c r="F390" t="n">
+        <v>42.72</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1144.150108302896</v>
+      </c>
+      <c r="H390" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E391" t="n">
+        <v>28.36196693941389</v>
+      </c>
+      <c r="F391" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="G391" t="n">
+        <v>202.5044439474152</v>
+      </c>
+      <c r="H391" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E392" t="n">
+        <v>53.29064314405663</v>
+      </c>
+      <c r="F392" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1113.774441710784</v>
+      </c>
+      <c r="H392" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E393" t="n">
+        <v>122.8001776797826</v>
+      </c>
+      <c r="F393" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1073.2735529213</v>
+      </c>
+      <c r="H393" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>49.09</v>
+      </c>
+      <c r="E394" t="n">
+        <v>49704.71576689306</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1</v>
+      </c>
+      <c r="G394" t="n">
+        <v>49704.71576689306</v>
+      </c>
+      <c r="H394" t="n">
+        <v>101252.2219737076</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>202507031025</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E395" t="n">
+        <v>14.23367105015911</v>
+      </c>
+      <c r="F395" t="n">
+        <v>72.56999999999999</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1032.937508110047</v>
+      </c>
+      <c r="H395" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1295.11575433051</v>
+      </c>
+      <c r="F396" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G396" t="n">
+        <v>5154.560702235428</v>
+      </c>
+      <c r="H396" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1346.654031223987</v>
+      </c>
+      <c r="F397" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G397" t="n">
+        <v>5063.419157402189</v>
+      </c>
+      <c r="H397" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E398" t="n">
+        <v>9666.527482313268</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G398" t="n">
+        <v>5316.590115272297</v>
+      </c>
+      <c r="H398" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1852.382524487349</v>
+      </c>
+      <c r="F399" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G399" t="n">
+        <v>5205.194893809449</v>
+      </c>
+      <c r="H399" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>5</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1265.854789350547</v>
+      </c>
+      <c r="F400" t="n">
+        <v>4</v>
+      </c>
+      <c r="G400" t="n">
+        <v>5063.419157402189</v>
+      </c>
+      <c r="H400" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E401" t="n">
+        <v>633.70399270555</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1032.937508110047</v>
+      </c>
+      <c r="H401" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E402" t="n">
+        <v>878.2567742042735</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G402" t="n">
+        <v>992.4301548508289</v>
+      </c>
+      <c r="H402" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E403" t="n">
+        <v>133.5706803298558</v>
+      </c>
+      <c r="F403" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G403" t="n">
+        <v>992.4301548508288</v>
+      </c>
+      <c r="H403" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E404" t="n">
+        <v>27.90306131827535</v>
+      </c>
+      <c r="F404" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1002.556993165633</v>
+      </c>
+      <c r="H404" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>1</v>
+      </c>
+      <c r="E405" t="n">
+        <v>33.86902446422869</v>
+      </c>
+      <c r="F405" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1012.683831480438</v>
+      </c>
+      <c r="H405" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+      <c r="E406" t="n">
+        <v>62.51134762224924</v>
+      </c>
+      <c r="F406" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1012.683831480438</v>
+      </c>
+      <c r="H406" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E407" t="n">
+        <v>498.559764333205</v>
+      </c>
+      <c r="F407" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="G407" t="n">
+        <v>10055.95044660075</v>
+      </c>
+      <c r="H407" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E408" t="n">
+        <v>26.8433668677667</v>
+      </c>
+      <c r="F408" t="n">
+        <v>42.63</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1144.332729572895</v>
+      </c>
+      <c r="H408" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E409" t="n">
+        <v>28.44617504158533</v>
+      </c>
+      <c r="F409" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G409" t="n">
+        <v>202.5367662960875</v>
+      </c>
+      <c r="H409" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E410" t="n">
+        <v>53.04534355373721</v>
+      </c>
+      <c r="F410" t="n">
+        <v>21</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1113.952214628481</v>
+      </c>
+      <c r="H410" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E411" t="n">
+        <v>122.6794127279159</v>
+      </c>
+      <c r="F411" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1073.444861369264</v>
+      </c>
+      <c r="H411" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>54.11</v>
+      </c>
+      <c r="E412" t="n">
+        <v>54796.32212140648</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1</v>
+      </c>
+      <c r="G412" t="n">
+        <v>54796.32212140648</v>
+      </c>
+      <c r="H412" t="n">
+        <v>101268.3831480438</v>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>202507031054</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E413" t="n">
+        <v>14.23367105015911</v>
+      </c>
+      <c r="F413" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="G413" t="n">
+        <v>1037.492282846098</v>
+      </c>
+      <c r="H413" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1295.11575433051</v>
+      </c>
+      <c r="F414" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G414" t="n">
+        <v>5206.36533240865</v>
+      </c>
+      <c r="H414" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1346.654031223987</v>
+      </c>
+      <c r="F415" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="G415" t="n">
+        <v>5063.419157402191</v>
+      </c>
+      <c r="H415" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E416" t="n">
+        <v>9666.527482313268</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G416" t="n">
+        <v>5413.255390095431</v>
+      </c>
+      <c r="H416" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1852.382524487349</v>
+      </c>
+      <c r="F417" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G417" t="n">
+        <v>5223.718719054324</v>
+      </c>
+      <c r="H417" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>5</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1265.854789350547</v>
+      </c>
+      <c r="F418" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G418" t="n">
+        <v>5076.077705295693</v>
+      </c>
+      <c r="H418" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E419" t="n">
+        <v>633.70399270555</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G419" t="n">
+        <v>1032.937508110047</v>
+      </c>
+      <c r="H419" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E420" t="n">
+        <v>878.2567742042735</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1001.212722592872</v>
+      </c>
+      <c r="H420" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E421" t="n">
+        <v>133.5706803298558</v>
+      </c>
+      <c r="F421" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="G421" t="n">
+        <v>995.1015684574257</v>
+      </c>
+      <c r="H421" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E422" t="n">
+        <v>27.90306131827535</v>
+      </c>
+      <c r="F422" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="G422" t="n">
+        <v>996.1392890624301</v>
+      </c>
+      <c r="H422" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="n">
+        <v>33.86902446422869</v>
+      </c>
+      <c r="F423" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1019.118946128641</v>
+      </c>
+      <c r="H423" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>1</v>
+      </c>
+      <c r="E424" t="n">
+        <v>62.51134762224924</v>
+      </c>
+      <c r="F424" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1012.683831480438</v>
+      </c>
+      <c r="H424" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E425" t="n">
+        <v>498.559764333205</v>
+      </c>
+      <c r="F425" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="G425" t="n">
+        <v>10115.77761832073</v>
+      </c>
+      <c r="H425" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E426" t="n">
+        <v>26.8433668677667</v>
+      </c>
+      <c r="F426" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1161.244050699587</v>
+      </c>
+      <c r="H426" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E427" t="n">
+        <v>28.44617504158533</v>
+      </c>
+      <c r="F427" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="G427" t="n">
+        <v>208.2260013044046</v>
+      </c>
+      <c r="H427" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E428" t="n">
+        <v>53.04534355373721</v>
+      </c>
+      <c r="F428" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1127.213550516916</v>
+      </c>
+      <c r="H428" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E429" t="n">
+        <v>122.6794127279159</v>
+      </c>
+      <c r="F429" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1094.30036153301</v>
+      </c>
+      <c r="H429" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="E430" t="n">
+        <v>54796.32212140648</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1</v>
+      </c>
+      <c r="G430" t="n">
+        <v>54796.32212140648</v>
+      </c>
+      <c r="H430" t="n">
+        <v>101580.6061567154</v>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>202507031630</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/AIPEEarningYield.xlsx
+++ b/data/AIPEEarningYield.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I303"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11653,6 +11653,894 @@
       <c r="I303" t="inlineStr">
         <is>
           <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E304" t="n">
+        <v>43.32448799298519</v>
+      </c>
+      <c r="F304" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="G304" t="n">
+        <v>3157.055440048831</v>
+      </c>
+      <c r="H304" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>269.5573292391419</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1035.100144278305</v>
+      </c>
+      <c r="H305" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1893.386029035761</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G306" t="n">
+        <v>5320.414741590488</v>
+      </c>
+      <c r="H306" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>5</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1290.648558950506</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G307" t="n">
+        <v>5175.500721391527</v>
+      </c>
+      <c r="H307" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E308" t="n">
+        <v>680.7289176173971</v>
+      </c>
+      <c r="F308" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G308" t="n">
+        <v>5030.586701192564</v>
+      </c>
+      <c r="H308" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E309" t="n">
+        <v>56.89277293285133</v>
+      </c>
+      <c r="F309" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2028.796282785478</v>
+      </c>
+      <c r="H309" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="E310" t="n">
+        <v>583.2952388487034</v>
+      </c>
+      <c r="F310" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="G310" t="n">
+        <v>17586.35145128841</v>
+      </c>
+      <c r="H310" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>64.1723586037387</v>
+      </c>
+      <c r="F311" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1035.100144278305</v>
+      </c>
+      <c r="H311" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E312" t="n">
+        <v>517.8097560689766</v>
+      </c>
+      <c r="F312" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G312" t="n">
+        <v>10319.9484384547</v>
+      </c>
+      <c r="H312" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="E313" t="n">
+        <v>494.5478467107459</v>
+      </c>
+      <c r="F313" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G313" t="n">
+        <v>10237.14042691244</v>
+      </c>
+      <c r="H313" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E314" t="n">
+        <v>636.0684430893153</v>
+      </c>
+      <c r="F314" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="G314" t="n">
+        <v>5527.43477044615</v>
+      </c>
+      <c r="H314" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>35.80000000000001</v>
+      </c>
+      <c r="E315" t="n">
+        <v>37056.58516516333</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G315" t="n">
+        <v>37056.58516516333</v>
+      </c>
+      <c r="H315" t="n">
+        <v>103510.0144278305</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E316" t="n">
+        <v>43.32448799298519</v>
+      </c>
+      <c r="F316" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="G316" t="n">
+        <v>3183.483377724552</v>
+      </c>
+      <c r="H316" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E317" t="n">
+        <v>269.5573292391419</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1027.013424401131</v>
+      </c>
+      <c r="H317" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1893.386029035761</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G318" t="n">
+        <v>5377.216322461562</v>
+      </c>
+      <c r="H318" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>5</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1290.648558950506</v>
+      </c>
+      <c r="F319" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G319" t="n">
+        <v>5201.313692570539</v>
+      </c>
+      <c r="H319" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E320" t="n">
+        <v>680.7289176173971</v>
+      </c>
+      <c r="F320" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G320" t="n">
+        <v>5044.201279544913</v>
+      </c>
+      <c r="H320" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E321" t="n">
+        <v>56.89277293285133</v>
+      </c>
+      <c r="F321" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2032.209849161449</v>
+      </c>
+      <c r="H321" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="E322" t="n">
+        <v>583.2952388487034</v>
+      </c>
+      <c r="F322" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="G322" t="n">
+        <v>17592.1844036769</v>
+      </c>
+      <c r="H322" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E323" t="n">
+        <v>64.1723586037387</v>
+      </c>
+      <c r="F323" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1027.399461245857</v>
+      </c>
+      <c r="H323" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E324" t="n">
+        <v>517.8097560689766</v>
+      </c>
+      <c r="F324" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G324" t="n">
+        <v>10382.08560918298</v>
+      </c>
+      <c r="H324" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E325" t="n">
+        <v>494.5478467107459</v>
+      </c>
+      <c r="F325" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="G325" t="n">
+        <v>10410.2321732612</v>
+      </c>
+      <c r="H325" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="E326" t="n">
+        <v>636.0684430893153</v>
+      </c>
+      <c r="F326" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="G326" t="n">
+        <v>5622.845036909547</v>
+      </c>
+      <c r="H326" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>大智 (稳健智远)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="E327" t="n">
+        <v>37056.58516516333</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1</v>
+      </c>
+      <c r="G327" t="n">
+        <v>37056.58516516333</v>
+      </c>
+      <c r="H327" t="n">
+        <v>103956.769795304</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>202507041630</t>
         </is>
       </c>
     </row>
@@ -11667,7 +12555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19119,6 +20007,598 @@
       <c r="I201" t="inlineStr">
         <is>
           <t>202507031630</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1185.588050490056</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4766.063962970025</v>
+      </c>
+      <c r="H202" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17938.62500026956</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G203" t="n">
+        <v>9866.243750148258</v>
+      </c>
+      <c r="H203" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2882.168426186299</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4726.75621894553</v>
+      </c>
+      <c r="H204" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E205" t="n">
+        <v>808.7655297075312</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G205" t="n">
+        <v>913.9050485695102</v>
+      </c>
+      <c r="H205" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1007.260940627686</v>
+      </c>
+      <c r="F206" t="n">
+        <v>42</v>
+      </c>
+      <c r="G206" t="n">
+        <v>42304.95950636281</v>
+      </c>
+      <c r="H206" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E207" t="n">
+        <v>146.814423931489</v>
+      </c>
+      <c r="F207" t="n">
+        <v>50</v>
+      </c>
+      <c r="G207" t="n">
+        <v>7340.721196574452</v>
+      </c>
+      <c r="H207" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>136.1071468992211</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G208" t="n">
+        <v>982.6936006123766</v>
+      </c>
+      <c r="H208" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>27.84999999999999</v>
+      </c>
+      <c r="E209" t="n">
+        <v>27368.01677705468</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>27368.01677705468</v>
+      </c>
+      <c r="H209" t="n">
+        <v>98269.36006123765</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1185.588050490056</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4742.352201960224</v>
+      </c>
+      <c r="H210" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="E211" t="n">
+        <v>17938.62500026956</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G211" t="n">
+        <v>9866.243750148258</v>
+      </c>
+      <c r="H211" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2882.168426186299</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4726.756218945529</v>
+      </c>
+      <c r="H212" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E213" t="n">
+        <v>808.7655297075312</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G213" t="n">
+        <v>913.9050485695102</v>
+      </c>
+      <c r="H213" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1007.260940627686</v>
+      </c>
+      <c r="F214" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="G214" t="n">
+        <v>42566.84735092601</v>
+      </c>
+      <c r="H214" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>688290</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>景业智能</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E215" t="n">
+        <v>146.814423931489</v>
+      </c>
+      <c r="F215" t="n">
+        <v>50.26</v>
+      </c>
+      <c r="G215" t="n">
+        <v>7378.892946796636</v>
+      </c>
+      <c r="H215" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>136.1071468992211</v>
+      </c>
+      <c r="F216" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="G216" t="n">
+        <v>981.3325291433841</v>
+      </c>
+      <c r="H216" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>大成 (锐进先锋)</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="E217" t="n">
+        <v>27368.01677705468</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>27368.01677705468</v>
+      </c>
+      <c r="H217" t="n">
+        <v>98544.34682354421</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>202507041630</t>
         </is>
       </c>
     </row>
@@ -19133,7 +20613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35061,6 +36541,1338 @@
         </is>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E431" t="n">
+        <v>14.17745482182394</v>
+      </c>
+      <c r="F431" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1033.11113286631</v>
+      </c>
+      <c r="H431" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="E432" t="n">
+        <v>1292.522707931951</v>
+      </c>
+      <c r="F432" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G432" t="n">
+        <v>5195.941285886443</v>
+      </c>
+      <c r="H432" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E433" t="n">
+        <v>263.7640759973219</v>
+      </c>
+      <c r="F433" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1012.854051829716</v>
+      </c>
+      <c r="H433" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E434" t="n">
+        <v>9815.476538640702</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G434" t="n">
+        <v>5398.512096252386</v>
+      </c>
+      <c r="H434" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1852.693888400263</v>
+      </c>
+      <c r="F435" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G435" t="n">
+        <v>5206.069826404739</v>
+      </c>
+      <c r="H435" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>5</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1262.910289064484</v>
+      </c>
+      <c r="F436" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G436" t="n">
+        <v>5064.270259148579</v>
+      </c>
+      <c r="H436" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E437" t="n">
+        <v>629.9458127233599</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1033.11113286631</v>
+      </c>
+      <c r="H437" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E438" t="n">
+        <v>887.3677091251494</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1002.725511311419</v>
+      </c>
+      <c r="H438" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E439" t="n">
+        <v>134.3162342074589</v>
+      </c>
+      <c r="F439" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="G439" t="n">
+        <v>992.5969707931215</v>
+      </c>
+      <c r="H439" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E440" t="n">
+        <v>27.83502441932478</v>
+      </c>
+      <c r="F440" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="G440" t="n">
+        <v>992.5969707931215</v>
+      </c>
+      <c r="H440" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
+      <c r="E441" t="n">
+        <v>33.59383256483304</v>
+      </c>
+      <c r="F441" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="G441" t="n">
+        <v>1012.854051829716</v>
+      </c>
+      <c r="H441" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E442" t="n">
+        <v>62.79318362242505</v>
+      </c>
+      <c r="F442" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1012.854051829716</v>
+      </c>
+      <c r="H442" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E443" t="n">
+        <v>506.172923041845</v>
+      </c>
+      <c r="F443" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G443" t="n">
+        <v>10088.02635622397</v>
+      </c>
+      <c r="H443" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E444" t="n">
+        <v>27.491752835378</v>
+      </c>
+      <c r="F444" t="n">
+        <v>42</v>
+      </c>
+      <c r="G444" t="n">
+        <v>1154.653619085876</v>
+      </c>
+      <c r="H444" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E445" t="n">
+        <v>28.05689894265141</v>
+      </c>
+      <c r="F445" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G445" t="n">
+        <v>202.5708103659432</v>
+      </c>
+      <c r="H445" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E446" t="n">
+        <v>54.31246364883985</v>
+      </c>
+      <c r="F446" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G446" t="n">
+        <v>1124.267997530985</v>
+      </c>
+      <c r="H446" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E447" t="n">
+        <v>125.8782941284342</v>
+      </c>
+      <c r="F447" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="G447" t="n">
+        <v>1093.882375976093</v>
+      </c>
+      <c r="H447" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="E448" t="n">
+        <v>58664.50668197715</v>
+      </c>
+      <c r="F448" t="n">
+        <v>1</v>
+      </c>
+      <c r="G448" t="n">
+        <v>58664.50668197715</v>
+      </c>
+      <c r="H448" t="n">
+        <v>101285.4051829716</v>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>202507040942</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>000333</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>美的集团</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E449" t="n">
+        <v>14.17745482182394</v>
+      </c>
+      <c r="F449" t="n">
+        <v>73.48</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1041.759380307623</v>
+      </c>
+      <c r="H449" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>000725</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>京东方A</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1292.522707931951</v>
+      </c>
+      <c r="F450" t="n">
+        <v>4</v>
+      </c>
+      <c r="G450" t="n">
+        <v>5170.090831727804</v>
+      </c>
+      <c r="H450" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>002110</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>三钢闽光</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E451" t="n">
+        <v>263.7640759973219</v>
+      </c>
+      <c r="F451" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G451" t="n">
+        <v>1004.941129549797</v>
+      </c>
+      <c r="H451" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>科创创业ETF</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E452" t="n">
+        <v>9815.476538640702</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G452" t="n">
+        <v>5398.512096252386</v>
+      </c>
+      <c r="H452" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>510050</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>上证50ETF</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E453" t="n">
+        <v>1852.693888400263</v>
+      </c>
+      <c r="F453" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G453" t="n">
+        <v>5261.650643056747</v>
+      </c>
+      <c r="H453" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>510300</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>沪深300ETF</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1262.910289064484</v>
+      </c>
+      <c r="F454" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G454" t="n">
+        <v>5089.528464929871</v>
+      </c>
+      <c r="H454" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>纳指ETF</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E455" t="n">
+        <v>629.9458127233599</v>
+      </c>
+      <c r="F455" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1033.11113286631</v>
+      </c>
+      <c r="H455" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>513290</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>纳指生物科技ETF</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E456" t="n">
+        <v>887.3677091251494</v>
+      </c>
+      <c r="F456" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1002.725511311419</v>
+      </c>
+      <c r="H456" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>518880</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>黄金ETF</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E457" t="n">
+        <v>134.3162342074589</v>
+      </c>
+      <c r="F457" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G457" t="n">
+        <v>995.2832954772705</v>
+      </c>
+      <c r="H457" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>600085</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>同仁堂</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E458" t="n">
+        <v>27.83502441932478</v>
+      </c>
+      <c r="F458" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="G458" t="n">
+        <v>994.2670722582811</v>
+      </c>
+      <c r="H458" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>600900</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>长江电力</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>1</v>
+      </c>
+      <c r="E459" t="n">
+        <v>33.59383256483304</v>
+      </c>
+      <c r="F459" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="G459" t="n">
+        <v>1013.189990155365</v>
+      </c>
+      <c r="H459" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>600989</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>宝丰能源</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E460" t="n">
+        <v>62.79318362242505</v>
+      </c>
+      <c r="F460" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G460" t="n">
+        <v>1005.318869795025</v>
+      </c>
+      <c r="H460" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>601899</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>10</v>
+      </c>
+      <c r="E461" t="n">
+        <v>506.172923041845</v>
+      </c>
+      <c r="F461" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="G461" t="n">
+        <v>10148.76710698899</v>
+      </c>
+      <c r="H461" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>603119</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>浙江荣泰</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E462" t="n">
+        <v>27.491752835378</v>
+      </c>
+      <c r="F462" t="n">
+        <v>42.26</v>
+      </c>
+      <c r="G462" t="n">
+        <v>1161.801474823074</v>
+      </c>
+      <c r="H462" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>HK01896</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>猫眼娱乐</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E463" t="n">
+        <v>28.05689894265141</v>
+      </c>
+      <c r="F463" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="G463" t="n">
+        <v>202.2902413765167</v>
+      </c>
+      <c r="H463" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>HK02899</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>紫金矿业</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E464" t="n">
+        <v>54.31246364883985</v>
+      </c>
+      <c r="F464" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="G464" t="n">
+        <v>1143.277359808079</v>
+      </c>
+      <c r="H464" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>HK06881</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>中国银河</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E465" t="n">
+        <v>125.8782941284342</v>
+      </c>
+      <c r="F465" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1112.764120095358</v>
+      </c>
+      <c r="H465" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>范式进化投资组合</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>57.83</v>
+      </c>
+      <c r="E466" t="n">
+        <v>58664.50668197715</v>
+      </c>
+      <c r="F466" t="n">
+        <v>1</v>
+      </c>
+      <c r="G466" t="n">
+        <v>58664.50668197715</v>
+      </c>
+      <c r="H466" t="n">
+        <v>101443.7854027571</v>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>202507041630</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
